--- a/MEDIÇÕES.xlsx
+++ b/MEDIÇÕES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APRENDIZADO APP\DER-MEDICOES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APRENDIZADO APP\MEDICOES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34523DB-DF97-4475-B977-EE8D157FA626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1854A769-7EED-4105-91BC-C676056596CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56152BF8-9B58-491A-9484-9CF756169AE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56152BF8-9B58-491A-9484-9CF756169AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Medições" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="413">
   <si>
     <t>Nº</t>
   </si>
@@ -1284,6 +1284,9 @@
   </si>
   <si>
     <t>DEZ/26</t>
+  </si>
+  <si>
+    <t>MEDIÇÕES 2026</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1572,15 +1575,39 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="92">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * \-#,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0070C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * \-#,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3657,100 +3684,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7156704F-F6DE-410E-B44F-2C2F4F17089F}" name="Financeiro" displayName="Financeiro" ref="A2:CJ168" totalsRowShown="0" headerRowDxfId="90" tableBorderDxfId="89" totalsRowBorderDxfId="88">
-  <autoFilter ref="A2:CJ168" xr:uid="{8AB3B578-2773-4E2D-975F-DA27809151D2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BW168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7156704F-F6DE-410E-B44F-2C2F4F17089F}" name="Financeiro" displayName="Financeiro" ref="A2:CK168" totalsRowShown="0" headerRowDxfId="91" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+  <autoFilter ref="A2:CK168" xr:uid="{8AB3B578-2773-4E2D-975F-DA27809151D2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BX168">
     <sortCondition ref="B2:B168"/>
   </sortState>
-  <tableColumns count="88">
-    <tableColumn id="76" xr3:uid="{A266B704-9A60-4C44-B1BC-BEDC4F668B27}" name="Nº" dataDxfId="87"/>
-    <tableColumn id="1" xr3:uid="{03651AAF-2034-4979-AFCB-B5E6110B75DB}" name="SEI" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{1AC04752-79A0-47F4-85A1-5AC51643A811}" name="LOCAL" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{8CABF655-C15C-4E48-9514-435C7D577AD4}" name="PRAZO_x000a_EXECUÇÃO" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{1F1CD60C-0B7F-4989-8CD6-3BC9E1009213}" name="ORDEM_x000a_DE INÍCIO" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{9DA765F9-8594-4306-9AD9-47C47C23D21D}" name="DATA FINAL" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{A12B462F-4262-45A9-969C-41A796C2BE78}" name="VLR.CONTRATO_x000a_C/ADITIVO" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{C73A2493-CD4D-4C5A-A08F-2BCD27FCA88D}" name="STATUS" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{50A6FB21-9086-4315-97B1-E1B17B453947}" name="GESTOR" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{6E3546F9-DBF6-4EE2-9D82-58AF1B714E72}" name="REGIÃO" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{20566611-997E-457D-BE39-442BF201CE7F}" name="MUNICIPIO" dataDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{6DFDA949-AAC5-44AC-907A-20E4F5542639}" name="CONTRATADA" dataDxfId="76"/>
-    <tableColumn id="12" xr3:uid="{E18480E2-7DF5-4B18-9177-E685B384A0A7}" name="MEDIÇÕES 2025" dataDxfId="75"/>
-    <tableColumn id="13" xr3:uid="{A00E890F-8399-4EBB-A365-C245C0D76289}" name="MEDIÇÕES_x000a_ACUMULADAS" dataDxfId="74"/>
-    <tableColumn id="14" xr3:uid="{2427699D-D3E4-4769-BFC2-ADD58B7D3E54}" name="% EXEC." dataDxfId="73"/>
-    <tableColumn id="15" xr3:uid="{4AEF10E9-FD39-4930-BD1D-6FE5C873561D}" name="SALDO DO_x000a_CONTRATO" dataDxfId="72"/>
-    <tableColumn id="16" xr3:uid="{9D12E504-6A78-4A46-B8AA-B3BD3A956673}" name="JAN/21" dataDxfId="71"/>
-    <tableColumn id="17" xr3:uid="{D22BDF60-AF2E-4FB1-AA68-CE33ACD76460}" name="FEV/21" dataDxfId="70"/>
-    <tableColumn id="18" xr3:uid="{70DED9F4-6100-4123-883D-2918BBBCFFAB}" name="MAR/21" dataDxfId="69"/>
-    <tableColumn id="19" xr3:uid="{E1D508BD-19ED-43BB-AC69-3F1932F7D938}" name="ABR/21" dataDxfId="68"/>
-    <tableColumn id="20" xr3:uid="{E226CD32-F6E2-4F0A-9573-2314689C3D3A}" name="MAI/21" dataDxfId="67"/>
-    <tableColumn id="21" xr3:uid="{808AFF31-84D5-4253-A517-8DE6C00CCFC6}" name="JUN/21" dataDxfId="66"/>
-    <tableColumn id="22" xr3:uid="{B9BB8963-E930-4DEA-9308-7408BFC16E0C}" name="JUL/21" dataDxfId="65"/>
-    <tableColumn id="23" xr3:uid="{8D7ADF9E-AD6E-4E65-81CF-647B05626398}" name="AGO/21" dataDxfId="64"/>
-    <tableColumn id="24" xr3:uid="{D27BEB3A-22EF-4148-80BF-C0EB15439948}" name="SET/21" dataDxfId="63"/>
-    <tableColumn id="25" xr3:uid="{D39DE8E3-3FD3-453A-8CCA-B593906BE310}" name="OUT/21" dataDxfId="62"/>
-    <tableColumn id="26" xr3:uid="{AD097EF2-F171-4DE0-9DE9-CF82CFDF34E9}" name="NOV/21" dataDxfId="61"/>
-    <tableColumn id="27" xr3:uid="{5D370E04-DAC4-40B1-B904-59F7E9FD9E1C}" name="DEZ/21" dataDxfId="60"/>
-    <tableColumn id="28" xr3:uid="{20592D1D-9487-45B8-B8B8-4A05E7FEE241}" name="JAN/22" dataDxfId="59"/>
-    <tableColumn id="29" xr3:uid="{C9812C68-D466-46B5-BA33-7F31C79D68F2}" name="FEV/22" dataDxfId="58"/>
-    <tableColumn id="30" xr3:uid="{9BF8457F-8F83-4742-BFDF-770B9454ACD3}" name="MAR/22" dataDxfId="57"/>
-    <tableColumn id="31" xr3:uid="{9FCFCEDC-4102-4409-AD49-37955F94ACE3}" name="ABR/22" dataDxfId="56"/>
-    <tableColumn id="32" xr3:uid="{8064A6AE-91A2-4519-B88A-1D8E8E6778CF}" name="MAI/22" dataDxfId="55"/>
-    <tableColumn id="33" xr3:uid="{E8CE4471-F023-4A1F-97EB-094C1434D364}" name="JUN/22" dataDxfId="54"/>
-    <tableColumn id="34" xr3:uid="{326EF501-97EC-4991-B496-BC8E2EF10DBC}" name="JUL/22" dataDxfId="53"/>
-    <tableColumn id="35" xr3:uid="{E75D2D09-F74D-4615-91A1-C87B0A954BD7}" name="AGO/22" dataDxfId="52"/>
-    <tableColumn id="36" xr3:uid="{F5AC3B2C-5F92-477E-A7A5-0E159FE52074}" name="SET/22" dataDxfId="51"/>
-    <tableColumn id="37" xr3:uid="{57DAF62E-7F0D-40A7-A5DD-20565AD276D0}" name="OUT/22" dataDxfId="50"/>
-    <tableColumn id="38" xr3:uid="{3C321D64-624B-456D-A781-12CDA60AEC00}" name="NOV/22" dataDxfId="49"/>
-    <tableColumn id="39" xr3:uid="{44CC1CBA-2E11-44F9-AB00-A99F261085DE}" name="DEZ/22" dataDxfId="48"/>
-    <tableColumn id="40" xr3:uid="{7C45DF07-290C-4D76-86A4-6237B30B207F}" name="JAN/23" dataDxfId="47"/>
-    <tableColumn id="41" xr3:uid="{0A2BA8C1-5BDF-434D-9255-D916CCCC2A03}" name="FEV/23" dataDxfId="46"/>
-    <tableColumn id="42" xr3:uid="{16A84FA3-400A-4E51-98C8-A3EB65531C3C}" name="MAR/23" dataDxfId="45"/>
-    <tableColumn id="43" xr3:uid="{5828C581-C95F-4F95-8EAE-BD8A8DBB9795}" name="ABR/23" dataDxfId="44"/>
-    <tableColumn id="44" xr3:uid="{4636756C-49CE-47CE-B0C2-6B12D4AB98F3}" name="MAI/23" dataDxfId="43"/>
-    <tableColumn id="45" xr3:uid="{A7C8FBD9-8243-46BB-BF88-8F97B10A6F7F}" name="JUN/23" dataDxfId="42"/>
-    <tableColumn id="46" xr3:uid="{3602F624-CE96-4013-AE2F-E055447F1EC6}" name="JUL/23" dataDxfId="41"/>
-    <tableColumn id="47" xr3:uid="{8C1296CC-F166-4CAD-8754-03A37C0C77B8}" name="AGO/23" dataDxfId="40"/>
-    <tableColumn id="48" xr3:uid="{292483CB-B6D2-48AC-972A-2E44570FDF55}" name="SET/23" dataDxfId="39"/>
-    <tableColumn id="49" xr3:uid="{D4E6D6C5-A9FE-487A-96B0-C812A3B8B560}" name="OUT/23" dataDxfId="38"/>
-    <tableColumn id="50" xr3:uid="{A50AD4C6-47F0-4A7F-B7F0-C1E6B094BF46}" name="NOV/23" dataDxfId="37"/>
-    <tableColumn id="51" xr3:uid="{86B6DC1F-54B6-4965-9235-0E054BCA0490}" name="DEZ/23" dataDxfId="36"/>
-    <tableColumn id="52" xr3:uid="{EABB070E-A947-4F1C-B2D2-41414454D746}" name="JAN/24" dataDxfId="35"/>
-    <tableColumn id="53" xr3:uid="{8BF4E443-C58E-4486-9E41-A612AABD2053}" name="FEV/24" dataDxfId="34"/>
-    <tableColumn id="54" xr3:uid="{8FB0F1E4-C864-4970-A72E-FB32100EC13F}" name="MAR/24" dataDxfId="33"/>
-    <tableColumn id="55" xr3:uid="{525C9C4A-02FE-4B51-BFE1-1C5B397787AF}" name="ABR/24" dataDxfId="32"/>
-    <tableColumn id="56" xr3:uid="{9269BCAC-7EAD-4F34-982D-E7000D7428A4}" name="MAI/24" dataDxfId="31"/>
-    <tableColumn id="57" xr3:uid="{244DAADC-580E-4E9D-A748-8373C12BC2E6}" name="JUN/24" dataDxfId="30"/>
-    <tableColumn id="58" xr3:uid="{BD1409F1-D136-4352-820E-C70C71665B47}" name="JUL/24" dataDxfId="29"/>
-    <tableColumn id="59" xr3:uid="{01F66802-42A7-4F5A-AAEC-A71CDC002BD8}" name="AGO/24" dataDxfId="28"/>
-    <tableColumn id="60" xr3:uid="{0441C1E5-AC55-477D-9C4F-A05B4650AF71}" name="SET/24" dataDxfId="27"/>
-    <tableColumn id="61" xr3:uid="{F65ACA26-E404-42CC-AC1F-9768A0F13A48}" name="OUT/24" dataDxfId="26"/>
-    <tableColumn id="62" xr3:uid="{8611ED49-A2A6-4995-B54B-F2F3BAF4132C}" name="NOV/24" dataDxfId="25"/>
-    <tableColumn id="63" xr3:uid="{D11D8641-E8DB-47D8-8ADC-FFC8A47FBC7B}" name="DEZ/24" dataDxfId="24"/>
-    <tableColumn id="64" xr3:uid="{BA08A656-4477-4379-BF04-4B4DB1126A34}" name="JAN/25" dataDxfId="23"/>
-    <tableColumn id="65" xr3:uid="{253D270C-A726-4E14-A061-B5D95DA4114A}" name="FEV/25" dataDxfId="22"/>
-    <tableColumn id="66" xr3:uid="{4BFEB003-37B9-48A3-91A9-41D371616E0A}" name="MAR/25" dataDxfId="21"/>
-    <tableColumn id="67" xr3:uid="{8B434ACD-283D-4F1A-A117-69075C9F6BE2}" name="ABR/25" dataDxfId="20"/>
-    <tableColumn id="68" xr3:uid="{DF26B6DB-C911-4FC0-9D32-6B58BA7B805C}" name="MAI/25" dataDxfId="19"/>
-    <tableColumn id="69" xr3:uid="{2117F07E-3026-4661-A04B-A81E7BE8122F}" name="JUN/25" dataDxfId="18"/>
-    <tableColumn id="70" xr3:uid="{5E84EBCD-CCDB-4968-92DD-76AEDF05AFB2}" name="JUL/25" dataDxfId="17"/>
-    <tableColumn id="71" xr3:uid="{A4DB40C1-A92B-40D7-8EA8-1CB8E2423542}" name="AGO/25" dataDxfId="16"/>
-    <tableColumn id="72" xr3:uid="{61B1E890-7AA3-4A3F-A2F4-E8750D4B3985}" name="SET/25" dataDxfId="15"/>
-    <tableColumn id="73" xr3:uid="{401C3219-D019-4B4A-BA33-6D89D0E50AFD}" name="OUT/25" dataDxfId="14"/>
-    <tableColumn id="74" xr3:uid="{FE158E31-D6D5-4426-AD44-06649C628068}" name="NOV/25" dataDxfId="13"/>
-    <tableColumn id="75" xr3:uid="{9BA5E780-C48A-400D-9E1B-DC3D25989B65}" name="DEZ/25" dataDxfId="12"/>
-    <tableColumn id="77" xr3:uid="{659A97EC-0A4F-40BD-9EC3-946A9DAC6B73}" name="JAN/26" dataDxfId="11"/>
-    <tableColumn id="78" xr3:uid="{0BBE5EE3-98C0-4F33-A382-5FDE86ED0536}" name="FEV/26" dataDxfId="10"/>
-    <tableColumn id="79" xr3:uid="{44AA93C8-FCFD-4BCB-88C9-90C9C8D16175}" name="MAR/26" dataDxfId="9"/>
-    <tableColumn id="80" xr3:uid="{6F86BEAD-2288-4442-A44D-5EEF9C016BCE}" name="ABR/26" dataDxfId="8"/>
-    <tableColumn id="81" xr3:uid="{34FD041D-B7AC-4BD1-AA1F-8C33E8BBC126}" name="MAI/26" dataDxfId="7"/>
-    <tableColumn id="82" xr3:uid="{124E7FCB-D3ED-4D90-BA72-AB8AA238CADB}" name="JUN/26" dataDxfId="6"/>
-    <tableColumn id="83" xr3:uid="{5F3B39FB-BFE6-4FE4-BE12-A86F04A75AA7}" name="JUL/26" dataDxfId="5"/>
-    <tableColumn id="84" xr3:uid="{F6464332-53B9-40F5-A139-FCA57961CCBE}" name="AGO/26" dataDxfId="4"/>
-    <tableColumn id="85" xr3:uid="{78274C5B-ED16-4ACB-8DC0-DDE7475FC4BB}" name="SET/26" dataDxfId="3"/>
-    <tableColumn id="86" xr3:uid="{4E748840-398D-40D9-B3BE-EFC478BB11AB}" name="OUT/26" dataDxfId="2"/>
-    <tableColumn id="87" xr3:uid="{D5EF1077-DE36-4E40-81B0-EDF0C1942381}" name="NOV/26" dataDxfId="1"/>
-    <tableColumn id="88" xr3:uid="{CD7DC3D6-CDF3-420C-8652-8B5317B5D65A}" name="DEZ/26" dataDxfId="0"/>
+  <tableColumns count="89">
+    <tableColumn id="76" xr3:uid="{A266B704-9A60-4C44-B1BC-BEDC4F668B27}" name="Nº" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{03651AAF-2034-4979-AFCB-B5E6110B75DB}" name="SEI" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{1AC04752-79A0-47F4-85A1-5AC51643A811}" name="LOCAL" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{8CABF655-C15C-4E48-9514-435C7D577AD4}" name="PRAZO_x000a_EXECUÇÃO" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{1F1CD60C-0B7F-4989-8CD6-3BC9E1009213}" name="ORDEM_x000a_DE INÍCIO" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{9DA765F9-8594-4306-9AD9-47C47C23D21D}" name="DATA FINAL" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{A12B462F-4262-45A9-969C-41A796C2BE78}" name="VLR.CONTRATO_x000a_C/ADITIVO" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{C73A2493-CD4D-4C5A-A08F-2BCD27FCA88D}" name="STATUS" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{50A6FB21-9086-4315-97B1-E1B17B453947}" name="GESTOR" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{6E3546F9-DBF6-4EE2-9D82-58AF1B714E72}" name="REGIÃO" dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{20566611-997E-457D-BE39-442BF201CE7F}" name="MUNICIPIO" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{6DFDA949-AAC5-44AC-907A-20E4F5542639}" name="CONTRATADA" dataDxfId="77"/>
+    <tableColumn id="12" xr3:uid="{E18480E2-7DF5-4B18-9177-E685B384A0A7}" name="MEDIÇÕES 2025" dataDxfId="76"/>
+    <tableColumn id="89" xr3:uid="{A1BA6716-D524-4956-AF2C-5A19420CBBFA}" name="MEDIÇÕES 2026" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{A00E890F-8399-4EBB-A365-C245C0D76289}" name="MEDIÇÕES_x000a_ACUMULADAS" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{2427699D-D3E4-4769-BFC2-ADD58B7D3E54}" name="% EXEC." dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{4AEF10E9-FD39-4930-BD1D-6FE5C873561D}" name="SALDO DO_x000a_CONTRATO" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{9D12E504-6A78-4A46-B8AA-B3BD3A956673}" name="JAN/21" dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{D22BDF60-AF2E-4FB1-AA68-CE33ACD76460}" name="FEV/21" dataDxfId="71"/>
+    <tableColumn id="18" xr3:uid="{70DED9F4-6100-4123-883D-2918BBBCFFAB}" name="MAR/21" dataDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{E1D508BD-19ED-43BB-AC69-3F1932F7D938}" name="ABR/21" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{E226CD32-F6E2-4F0A-9573-2314689C3D3A}" name="MAI/21" dataDxfId="68"/>
+    <tableColumn id="21" xr3:uid="{808AFF31-84D5-4253-A517-8DE6C00CCFC6}" name="JUN/21" dataDxfId="67"/>
+    <tableColumn id="22" xr3:uid="{B9BB8963-E930-4DEA-9308-7408BFC16E0C}" name="JUL/21" dataDxfId="66"/>
+    <tableColumn id="23" xr3:uid="{8D7ADF9E-AD6E-4E65-81CF-647B05626398}" name="AGO/21" dataDxfId="65"/>
+    <tableColumn id="24" xr3:uid="{D27BEB3A-22EF-4148-80BF-C0EB15439948}" name="SET/21" dataDxfId="64"/>
+    <tableColumn id="25" xr3:uid="{D39DE8E3-3FD3-453A-8CCA-B593906BE310}" name="OUT/21" dataDxfId="63"/>
+    <tableColumn id="26" xr3:uid="{AD097EF2-F171-4DE0-9DE9-CF82CFDF34E9}" name="NOV/21" dataDxfId="62"/>
+    <tableColumn id="27" xr3:uid="{5D370E04-DAC4-40B1-B904-59F7E9FD9E1C}" name="DEZ/21" dataDxfId="61"/>
+    <tableColumn id="28" xr3:uid="{20592D1D-9487-45B8-B8B8-4A05E7FEE241}" name="JAN/22" dataDxfId="60"/>
+    <tableColumn id="29" xr3:uid="{C9812C68-D466-46B5-BA33-7F31C79D68F2}" name="FEV/22" dataDxfId="59"/>
+    <tableColumn id="30" xr3:uid="{9BF8457F-8F83-4742-BFDF-770B9454ACD3}" name="MAR/22" dataDxfId="58"/>
+    <tableColumn id="31" xr3:uid="{9FCFCEDC-4102-4409-AD49-37955F94ACE3}" name="ABR/22" dataDxfId="57"/>
+    <tableColumn id="32" xr3:uid="{8064A6AE-91A2-4519-B88A-1D8E8E6778CF}" name="MAI/22" dataDxfId="56"/>
+    <tableColumn id="33" xr3:uid="{E8CE4471-F023-4A1F-97EB-094C1434D364}" name="JUN/22" dataDxfId="55"/>
+    <tableColumn id="34" xr3:uid="{326EF501-97EC-4991-B496-BC8E2EF10DBC}" name="JUL/22" dataDxfId="54"/>
+    <tableColumn id="35" xr3:uid="{E75D2D09-F74D-4615-91A1-C87B0A954BD7}" name="AGO/22" dataDxfId="53"/>
+    <tableColumn id="36" xr3:uid="{F5AC3B2C-5F92-477E-A7A5-0E159FE52074}" name="SET/22" dataDxfId="52"/>
+    <tableColumn id="37" xr3:uid="{57DAF62E-7F0D-40A7-A5DD-20565AD276D0}" name="OUT/22" dataDxfId="51"/>
+    <tableColumn id="38" xr3:uid="{3C321D64-624B-456D-A781-12CDA60AEC00}" name="NOV/22" dataDxfId="50"/>
+    <tableColumn id="39" xr3:uid="{44CC1CBA-2E11-44F9-AB00-A99F261085DE}" name="DEZ/22" dataDxfId="49"/>
+    <tableColumn id="40" xr3:uid="{7C45DF07-290C-4D76-86A4-6237B30B207F}" name="JAN/23" dataDxfId="48"/>
+    <tableColumn id="41" xr3:uid="{0A2BA8C1-5BDF-434D-9255-D916CCCC2A03}" name="FEV/23" dataDxfId="47"/>
+    <tableColumn id="42" xr3:uid="{16A84FA3-400A-4E51-98C8-A3EB65531C3C}" name="MAR/23" dataDxfId="46"/>
+    <tableColumn id="43" xr3:uid="{5828C581-C95F-4F95-8EAE-BD8A8DBB9795}" name="ABR/23" dataDxfId="45"/>
+    <tableColumn id="44" xr3:uid="{4636756C-49CE-47CE-B0C2-6B12D4AB98F3}" name="MAI/23" dataDxfId="44"/>
+    <tableColumn id="45" xr3:uid="{A7C8FBD9-8243-46BB-BF88-8F97B10A6F7F}" name="JUN/23" dataDxfId="43"/>
+    <tableColumn id="46" xr3:uid="{3602F624-CE96-4013-AE2F-E055447F1EC6}" name="JUL/23" dataDxfId="42"/>
+    <tableColumn id="47" xr3:uid="{8C1296CC-F166-4CAD-8754-03A37C0C77B8}" name="AGO/23" dataDxfId="41"/>
+    <tableColumn id="48" xr3:uid="{292483CB-B6D2-48AC-972A-2E44570FDF55}" name="SET/23" dataDxfId="40"/>
+    <tableColumn id="49" xr3:uid="{D4E6D6C5-A9FE-487A-96B0-C812A3B8B560}" name="OUT/23" dataDxfId="39"/>
+    <tableColumn id="50" xr3:uid="{A50AD4C6-47F0-4A7F-B7F0-C1E6B094BF46}" name="NOV/23" dataDxfId="38"/>
+    <tableColumn id="51" xr3:uid="{86B6DC1F-54B6-4965-9235-0E054BCA0490}" name="DEZ/23" dataDxfId="37"/>
+    <tableColumn id="52" xr3:uid="{EABB070E-A947-4F1C-B2D2-41414454D746}" name="JAN/24" dataDxfId="36"/>
+    <tableColumn id="53" xr3:uid="{8BF4E443-C58E-4486-9E41-A612AABD2053}" name="FEV/24" dataDxfId="35"/>
+    <tableColumn id="54" xr3:uid="{8FB0F1E4-C864-4970-A72E-FB32100EC13F}" name="MAR/24" dataDxfId="34"/>
+    <tableColumn id="55" xr3:uid="{525C9C4A-02FE-4B51-BFE1-1C5B397787AF}" name="ABR/24" dataDxfId="33"/>
+    <tableColumn id="56" xr3:uid="{9269BCAC-7EAD-4F34-982D-E7000D7428A4}" name="MAI/24" dataDxfId="32"/>
+    <tableColumn id="57" xr3:uid="{244DAADC-580E-4E9D-A748-8373C12BC2E6}" name="JUN/24" dataDxfId="31"/>
+    <tableColumn id="58" xr3:uid="{BD1409F1-D136-4352-820E-C70C71665B47}" name="JUL/24" dataDxfId="30"/>
+    <tableColumn id="59" xr3:uid="{01F66802-42A7-4F5A-AAEC-A71CDC002BD8}" name="AGO/24" dataDxfId="29"/>
+    <tableColumn id="60" xr3:uid="{0441C1E5-AC55-477D-9C4F-A05B4650AF71}" name="SET/24" dataDxfId="28"/>
+    <tableColumn id="61" xr3:uid="{F65ACA26-E404-42CC-AC1F-9768A0F13A48}" name="OUT/24" dataDxfId="27"/>
+    <tableColumn id="62" xr3:uid="{8611ED49-A2A6-4995-B54B-F2F3BAF4132C}" name="NOV/24" dataDxfId="26"/>
+    <tableColumn id="63" xr3:uid="{D11D8641-E8DB-47D8-8ADC-FFC8A47FBC7B}" name="DEZ/24" dataDxfId="25"/>
+    <tableColumn id="64" xr3:uid="{BA08A656-4477-4379-BF04-4B4DB1126A34}" name="JAN/25" dataDxfId="24"/>
+    <tableColumn id="65" xr3:uid="{253D270C-A726-4E14-A061-B5D95DA4114A}" name="FEV/25" dataDxfId="23"/>
+    <tableColumn id="66" xr3:uid="{4BFEB003-37B9-48A3-91A9-41D371616E0A}" name="MAR/25" dataDxfId="22"/>
+    <tableColumn id="67" xr3:uid="{8B434ACD-283D-4F1A-A117-69075C9F6BE2}" name="ABR/25" dataDxfId="21"/>
+    <tableColumn id="68" xr3:uid="{DF26B6DB-C911-4FC0-9D32-6B58BA7B805C}" name="MAI/25" dataDxfId="20"/>
+    <tableColumn id="69" xr3:uid="{2117F07E-3026-4661-A04B-A81E7BE8122F}" name="JUN/25" dataDxfId="19"/>
+    <tableColumn id="70" xr3:uid="{5E84EBCD-CCDB-4968-92DD-76AEDF05AFB2}" name="JUL/25" dataDxfId="18"/>
+    <tableColumn id="71" xr3:uid="{A4DB40C1-A92B-40D7-8EA8-1CB8E2423542}" name="AGO/25" dataDxfId="17"/>
+    <tableColumn id="72" xr3:uid="{61B1E890-7AA3-4A3F-A2F4-E8750D4B3985}" name="SET/25" dataDxfId="16"/>
+    <tableColumn id="73" xr3:uid="{401C3219-D019-4B4A-BA33-6D89D0E50AFD}" name="OUT/25" dataDxfId="15"/>
+    <tableColumn id="74" xr3:uid="{FE158E31-D6D5-4426-AD44-06649C628068}" name="NOV/25" dataDxfId="14"/>
+    <tableColumn id="75" xr3:uid="{9BA5E780-C48A-400D-9E1B-DC3D25989B65}" name="DEZ/25" dataDxfId="13"/>
+    <tableColumn id="77" xr3:uid="{659A97EC-0A4F-40BD-9EC3-946A9DAC6B73}" name="JAN/26" dataDxfId="12"/>
+    <tableColumn id="78" xr3:uid="{0BBE5EE3-98C0-4F33-A382-5FDE86ED0536}" name="FEV/26" dataDxfId="11"/>
+    <tableColumn id="79" xr3:uid="{44AA93C8-FCFD-4BCB-88C9-90C9C8D16175}" name="MAR/26" dataDxfId="10"/>
+    <tableColumn id="80" xr3:uid="{6F86BEAD-2288-4442-A44D-5EEF9C016BCE}" name="ABR/26" dataDxfId="9"/>
+    <tableColumn id="81" xr3:uid="{34FD041D-B7AC-4BD1-AA1F-8C33E8BBC126}" name="MAI/26" dataDxfId="8"/>
+    <tableColumn id="82" xr3:uid="{124E7FCB-D3ED-4D90-BA72-AB8AA238CADB}" name="JUN/26" dataDxfId="7"/>
+    <tableColumn id="83" xr3:uid="{5F3B39FB-BFE6-4FE4-BE12-A86F04A75AA7}" name="JUL/26" dataDxfId="6"/>
+    <tableColumn id="84" xr3:uid="{F6464332-53B9-40F5-A139-FCA57961CCBE}" name="AGO/26" dataDxfId="5"/>
+    <tableColumn id="85" xr3:uid="{78274C5B-ED16-4ACB-8DC0-DDE7475FC4BB}" name="SET/26" dataDxfId="4"/>
+    <tableColumn id="86" xr3:uid="{4E748840-398D-40D9-B3BE-EFC478BB11AB}" name="OUT/26" dataDxfId="3"/>
+    <tableColumn id="87" xr3:uid="{D5EF1077-DE36-4E40-81B0-EDF0C1942381}" name="NOV/26" dataDxfId="2"/>
+    <tableColumn id="88" xr3:uid="{CD7DC3D6-CDF3-420C-8652-8B5317B5D65A}" name="DEZ/26" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4074,10 +4102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E02F89-4FEF-4537-BCA6-14FD7BC179C1}">
   <sheetPr codeName="Planilha10"/>
-  <dimension ref="A1:CJ168"/>
+  <dimension ref="A1:CK168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM2" workbookViewId="0">
-      <selection activeCell="CJ3" sqref="CJ3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,77 +4122,77 @@
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
     <col min="11" max="11" width="26.28515625" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" customWidth="1"/>
-    <col min="28" max="29" width="15.85546875" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" customWidth="1"/>
-    <col min="34" max="34" width="15.85546875" customWidth="1"/>
-    <col min="35" max="35" width="9.85546875" customWidth="1"/>
-    <col min="36" max="36" width="16.85546875" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" customWidth="1"/>
-    <col min="38" max="38" width="9.85546875" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" customWidth="1"/>
-    <col min="40" max="41" width="16.85546875" customWidth="1"/>
-    <col min="42" max="42" width="9.85546875" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" customWidth="1"/>
-    <col min="44" max="44" width="15.85546875" customWidth="1"/>
-    <col min="45" max="45" width="9.28515625" customWidth="1"/>
-    <col min="46" max="46" width="16.85546875" customWidth="1"/>
-    <col min="47" max="47" width="9.85546875" customWidth="1"/>
-    <col min="48" max="48" width="15.85546875" customWidth="1"/>
-    <col min="49" max="49" width="9.5703125" customWidth="1"/>
-    <col min="50" max="50" width="9.85546875" customWidth="1"/>
-    <col min="51" max="51" width="9.42578125" customWidth="1"/>
-    <col min="52" max="53" width="15.85546875" customWidth="1"/>
-    <col min="54" max="54" width="9.85546875" customWidth="1"/>
-    <col min="55" max="55" width="9.42578125" customWidth="1"/>
-    <col min="56" max="56" width="15.85546875" customWidth="1"/>
-    <col min="57" max="57" width="9.28515625" customWidth="1"/>
-    <col min="58" max="58" width="15.85546875" customWidth="1"/>
-    <col min="59" max="59" width="9.85546875" customWidth="1"/>
-    <col min="60" max="60" width="16.85546875" customWidth="1"/>
-    <col min="61" max="61" width="9.5703125" customWidth="1"/>
-    <col min="62" max="62" width="9.85546875" customWidth="1"/>
-    <col min="63" max="63" width="9.42578125" customWidth="1"/>
-    <col min="64" max="64" width="16.5703125" customWidth="1"/>
-    <col min="65" max="65" width="15.85546875" customWidth="1"/>
-    <col min="66" max="66" width="9.85546875" customWidth="1"/>
-    <col min="67" max="67" width="9.42578125" customWidth="1"/>
-    <col min="68" max="68" width="16.85546875" customWidth="1"/>
-    <col min="69" max="69" width="9.28515625" customWidth="1"/>
-    <col min="70" max="70" width="15.85546875" customWidth="1"/>
-    <col min="71" max="71" width="9.85546875" customWidth="1"/>
-    <col min="72" max="72" width="16.85546875" customWidth="1"/>
-    <col min="73" max="73" width="9.5703125" customWidth="1"/>
-    <col min="74" max="74" width="9.85546875" customWidth="1"/>
-    <col min="75" max="75" width="9.42578125" customWidth="1"/>
-    <col min="76" max="76" width="11" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" customWidth="1"/>
+    <col min="29" max="30" width="15.85546875" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" customWidth="1"/>
+    <col min="36" max="36" width="9.85546875" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" customWidth="1"/>
+    <col min="41" max="42" width="16.85546875" customWidth="1"/>
+    <col min="43" max="43" width="9.85546875" customWidth="1"/>
+    <col min="44" max="44" width="9.42578125" customWidth="1"/>
+    <col min="45" max="45" width="15.85546875" customWidth="1"/>
+    <col min="46" max="46" width="9.28515625" customWidth="1"/>
+    <col min="47" max="47" width="16.85546875" customWidth="1"/>
+    <col min="48" max="48" width="9.85546875" customWidth="1"/>
+    <col min="49" max="49" width="15.85546875" customWidth="1"/>
+    <col min="50" max="50" width="9.5703125" customWidth="1"/>
+    <col min="51" max="51" width="9.85546875" customWidth="1"/>
+    <col min="52" max="52" width="9.42578125" customWidth="1"/>
+    <col min="53" max="54" width="15.85546875" customWidth="1"/>
+    <col min="55" max="55" width="9.85546875" customWidth="1"/>
+    <col min="56" max="56" width="9.42578125" customWidth="1"/>
+    <col min="57" max="57" width="15.85546875" customWidth="1"/>
+    <col min="58" max="58" width="9.28515625" customWidth="1"/>
+    <col min="59" max="59" width="15.85546875" customWidth="1"/>
+    <col min="60" max="60" width="9.85546875" customWidth="1"/>
+    <col min="61" max="61" width="16.85546875" customWidth="1"/>
+    <col min="62" max="62" width="9.5703125" customWidth="1"/>
+    <col min="63" max="63" width="9.85546875" customWidth="1"/>
+    <col min="64" max="64" width="9.42578125" customWidth="1"/>
+    <col min="65" max="65" width="16.5703125" customWidth="1"/>
+    <col min="66" max="66" width="15.85546875" customWidth="1"/>
+    <col min="67" max="67" width="9.85546875" customWidth="1"/>
+    <col min="68" max="68" width="9.42578125" customWidth="1"/>
+    <col min="69" max="69" width="16.85546875" customWidth="1"/>
+    <col min="70" max="70" width="9.28515625" customWidth="1"/>
+    <col min="71" max="71" width="15.85546875" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" customWidth="1"/>
+    <col min="73" max="73" width="16.85546875" customWidth="1"/>
+    <col min="74" max="74" width="9.5703125" customWidth="1"/>
+    <col min="75" max="75" width="9.85546875" customWidth="1"/>
+    <col min="76" max="76" width="9.42578125" customWidth="1"/>
+    <col min="77" max="77" width="11" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="F1">
         <f>SUBTOTAL(103,Financeiro[STATUS])</f>
         <v>166</v>
       </c>
-      <c r="BX1"/>
+      <c r="BY1"/>
     </row>
-    <row r="2" spans="1:88" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4205,232 +4233,235 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BV2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" s="32" t="s">
+      <c r="BY2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" s="36" t="s">
+      <c r="BZ2" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="BZ2" s="37" t="s">
+      <c r="CA2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="CA2" s="37" t="s">
+      <c r="CB2" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="CB2" s="37" t="s">
+      <c r="CC2" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="CC2" s="37" t="s">
+      <c r="CD2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="CD2" s="37" t="s">
+      <c r="CE2" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="CE2" s="37" t="s">
+      <c r="CF2" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="CF2" s="37" t="s">
+      <c r="CG2" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="CG2" s="37" t="s">
+      <c r="CH2" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="CH2" s="37" t="s">
+      <c r="CI2" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="CI2" s="37" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="CJ2" s="38" t="s">
+      <c r="CK2" s="37" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4470,16 +4501,16 @@
       <c r="M3" s="12">
         <v>16007674.959999999</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="12"/>
+      <c r="O3" s="9">
         <v>31106158.75</v>
       </c>
-      <c r="O3" s="13">
+      <c r="P3" s="13">
         <v>0.84568621516980247</v>
       </c>
-      <c r="P3" s="9">
+      <c r="Q3" s="9">
         <v>5675993.0600000024</v>
       </c>
-      <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -4538,8 +4569,8 @@
       <c r="BU3" s="9"/>
       <c r="BV3" s="9"/>
       <c r="BW3" s="9"/>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="35"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="33"/>
       <c r="BZ3" s="35"/>
       <c r="CA3" s="35"/>
       <c r="CB3" s="35"/>
@@ -4551,8 +4582,9 @@
       <c r="CH3" s="35"/>
       <c r="CI3" s="35"/>
       <c r="CJ3" s="35"/>
+      <c r="CK3" s="35"/>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -4592,16 +4624,16 @@
       <c r="M4" s="12">
         <v>8926135.790000001</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="12"/>
+      <c r="O4" s="9">
         <v>16018051.240000002</v>
       </c>
-      <c r="O4" s="13">
+      <c r="P4" s="13">
         <v>0.51633094232192067</v>
       </c>
-      <c r="P4" s="9">
+      <c r="Q4" s="9">
         <v>15004786.879999999</v>
       </c>
-      <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -4660,8 +4692,8 @@
       <c r="BU4" s="9"/>
       <c r="BV4" s="9"/>
       <c r="BW4" s="9"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="33"/>
       <c r="BZ4" s="9"/>
       <c r="CA4" s="9"/>
       <c r="CB4" s="9"/>
@@ -4673,8 +4705,9 @@
       <c r="CH4" s="9"/>
       <c r="CI4" s="9"/>
       <c r="CJ4" s="9"/>
+      <c r="CK4" s="9"/>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -4714,16 +4747,16 @@
       <c r="M5" s="12">
         <v>1117858.23</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="12"/>
+      <c r="O5" s="9">
         <v>13076583.129999999</v>
       </c>
-      <c r="O5" s="13">
+      <c r="P5" s="13">
         <v>0.25580651370352481</v>
       </c>
-      <c r="P5" s="9">
+      <c r="Q5" s="9">
         <v>38042455.790000007</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -4782,8 +4815,8 @@
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
       <c r="BW5" s="9"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="33"/>
       <c r="BZ5" s="9"/>
       <c r="CA5" s="9"/>
       <c r="CB5" s="9"/>
@@ -4795,8 +4828,9 @@
       <c r="CH5" s="9"/>
       <c r="CI5" s="9"/>
       <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -4836,16 +4870,16 @@
       <c r="M6" s="12">
         <v>2683515.34</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="12"/>
+      <c r="O6" s="9">
         <v>2683515.34</v>
       </c>
-      <c r="O6" s="13">
+      <c r="P6" s="13">
         <v>0.141310811733351</v>
       </c>
-      <c r="P6" s="9">
+      <c r="Q6" s="9">
         <v>16306647.600000001</v>
       </c>
-      <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -4904,8 +4938,8 @@
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
       <c r="BW6" s="9"/>
-      <c r="BX6" s="33"/>
-      <c r="BY6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="33"/>
       <c r="BZ6" s="9"/>
       <c r="CA6" s="9"/>
       <c r="CB6" s="9"/>
@@ -4917,8 +4951,9 @@
       <c r="CH6" s="9"/>
       <c r="CI6" s="9"/>
       <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -4958,16 +4993,16 @@
       <c r="M7" s="12">
         <v>1127526.06</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="12"/>
+      <c r="O7" s="9">
         <v>1127526.06</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>0.54496184630256161</v>
       </c>
-      <c r="P7" s="9">
+      <c r="Q7" s="9">
         <v>941473.94</v>
       </c>
-      <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -5026,8 +5061,8 @@
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
       <c r="BW7" s="9"/>
-      <c r="BX7" s="33"/>
-      <c r="BY7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="33"/>
       <c r="BZ7" s="9"/>
       <c r="CA7" s="9"/>
       <c r="CB7" s="9"/>
@@ -5039,8 +5074,9 @@
       <c r="CH7" s="9"/>
       <c r="CI7" s="9"/>
       <c r="CJ7" s="9"/>
+      <c r="CK7" s="9"/>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>97</v>
@@ -5078,16 +5114,16 @@
       <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="12"/>
+      <c r="O8" s="9">
         <v>8394718.9999999981</v>
       </c>
-      <c r="O8" s="13">
+      <c r="P8" s="13">
         <v>0.99981054057729268</v>
       </c>
-      <c r="P8" s="9">
+      <c r="Q8" s="9">
         <v>1590.7600000016391</v>
       </c>
-      <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -5146,8 +5182,8 @@
       <c r="BU8" s="9"/>
       <c r="BV8" s="9"/>
       <c r="BW8" s="9"/>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="14"/>
       <c r="BZ8" s="9"/>
       <c r="CA8" s="9"/>
       <c r="CB8" s="9"/>
@@ -5159,8 +5195,9 @@
       <c r="CH8" s="9"/>
       <c r="CI8" s="9"/>
       <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>101</v>
@@ -5198,16 +5235,16 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="12"/>
+      <c r="O9" s="9">
         <v>4374443.7300000004</v>
       </c>
-      <c r="O9" s="13">
+      <c r="P9" s="13">
         <v>0.99999998856997552</v>
       </c>
-      <c r="P9" s="9">
+      <c r="Q9" s="9">
         <v>4.9999999813735485E-2</v>
       </c>
-      <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -5266,8 +5303,8 @@
       <c r="BU9" s="9"/>
       <c r="BV9" s="9"/>
       <c r="BW9" s="9"/>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="14"/>
       <c r="BZ9" s="9"/>
       <c r="CA9" s="9"/>
       <c r="CB9" s="9"/>
@@ -5279,8 +5316,9 @@
       <c r="CH9" s="9"/>
       <c r="CI9" s="9"/>
       <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -5320,16 +5358,16 @@
       <c r="M10" s="12">
         <v>864919.94</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="12"/>
+      <c r="O10" s="9">
         <v>7322834.120000001</v>
       </c>
-      <c r="O10" s="13">
+      <c r="P10" s="13">
         <v>0.86518531156782619</v>
       </c>
-      <c r="P10" s="9">
+      <c r="Q10" s="9">
         <v>1141056.8199999984</v>
       </c>
-      <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -5388,8 +5426,8 @@
       <c r="BU10" s="9"/>
       <c r="BV10" s="9"/>
       <c r="BW10" s="9"/>
-      <c r="BX10" s="33"/>
-      <c r="BY10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="33"/>
       <c r="BZ10" s="9"/>
       <c r="CA10" s="9"/>
       <c r="CB10" s="9"/>
@@ -5401,8 +5439,9 @@
       <c r="CH10" s="9"/>
       <c r="CI10" s="9"/>
       <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>106</v>
@@ -5440,16 +5479,16 @@
       <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="12"/>
+      <c r="O11" s="9">
         <v>1740561.7400000002</v>
       </c>
-      <c r="O11" s="13">
+      <c r="P11" s="13">
         <v>0.9993443488656788</v>
       </c>
-      <c r="P11" s="9">
+      <c r="Q11" s="9">
         <v>1141.9499999997206</v>
       </c>
-      <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -5508,8 +5547,8 @@
       <c r="BU11" s="9"/>
       <c r="BV11" s="9"/>
       <c r="BW11" s="9"/>
-      <c r="BX11" s="14"/>
-      <c r="BY11" s="9"/>
+      <c r="BX11" s="9"/>
+      <c r="BY11" s="14"/>
       <c r="BZ11" s="9"/>
       <c r="CA11" s="9"/>
       <c r="CB11" s="9"/>
@@ -5521,8 +5560,9 @@
       <c r="CH11" s="9"/>
       <c r="CI11" s="9"/>
       <c r="CJ11" s="9"/>
+      <c r="CK11" s="9"/>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>7</v>
       </c>
@@ -5562,16 +5602,16 @@
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="12"/>
+      <c r="O12" s="9">
         <v>1222003.4100000001</v>
       </c>
-      <c r="O12" s="13">
+      <c r="P12" s="13">
         <v>0.90416929500252241</v>
       </c>
-      <c r="P12" s="9">
+      <c r="Q12" s="9">
         <v>129517.16999999993</v>
       </c>
-      <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -5630,8 +5670,8 @@
       <c r="BU12" s="9"/>
       <c r="BV12" s="9"/>
       <c r="BW12" s="9"/>
-      <c r="BX12" s="33"/>
-      <c r="BY12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="33"/>
       <c r="BZ12" s="9"/>
       <c r="CA12" s="9"/>
       <c r="CB12" s="9"/>
@@ -5643,8 +5683,9 @@
       <c r="CH12" s="9"/>
       <c r="CI12" s="9"/>
       <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>109</v>
@@ -5682,16 +5723,16 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="12"/>
+      <c r="O13" s="9">
         <v>7104640.0500000007</v>
       </c>
-      <c r="O13" s="13">
+      <c r="P13" s="13">
         <v>0.80625685039546691</v>
       </c>
-      <c r="P13" s="9">
+      <c r="Q13" s="9">
         <v>1707241.7299999986</v>
       </c>
-      <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -5750,8 +5791,8 @@
       <c r="BU13" s="9"/>
       <c r="BV13" s="9"/>
       <c r="BW13" s="9"/>
-      <c r="BX13" s="14"/>
-      <c r="BY13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="14"/>
       <c r="BZ13" s="9"/>
       <c r="CA13" s="9"/>
       <c r="CB13" s="9"/>
@@ -5763,8 +5804,9 @@
       <c r="CH13" s="9"/>
       <c r="CI13" s="9"/>
       <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>112</v>
@@ -5802,16 +5844,16 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="12"/>
+      <c r="O14" s="9">
         <v>5132338.3099999996</v>
       </c>
-      <c r="O14" s="13">
+      <c r="P14" s="13">
         <v>0.9734912273243751</v>
       </c>
-      <c r="P14" s="9">
+      <c r="Q14" s="9">
         <v>139756.77000000048</v>
       </c>
-      <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -5870,8 +5912,8 @@
       <c r="BU14" s="9"/>
       <c r="BV14" s="9"/>
       <c r="BW14" s="9"/>
-      <c r="BX14" s="14"/>
-      <c r="BY14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="14"/>
       <c r="BZ14" s="9"/>
       <c r="CA14" s="9"/>
       <c r="CB14" s="9"/>
@@ -5883,8 +5925,9 @@
       <c r="CH14" s="9"/>
       <c r="CI14" s="9"/>
       <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>115</v>
@@ -5922,16 +5965,16 @@
       <c r="M15" s="12">
         <v>0</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="12"/>
+      <c r="O15" s="9">
         <v>4625557.4899999993</v>
       </c>
-      <c r="O15" s="13">
+      <c r="P15" s="13">
         <v>0.99578167540148965</v>
       </c>
-      <c r="P15" s="9">
+      <c r="Q15" s="9">
         <v>19594.760000000708</v>
       </c>
-      <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -5990,8 +6033,8 @@
       <c r="BU15" s="9"/>
       <c r="BV15" s="9"/>
       <c r="BW15" s="9"/>
-      <c r="BX15" s="14"/>
-      <c r="BY15" s="9"/>
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="14"/>
       <c r="BZ15" s="9"/>
       <c r="CA15" s="9"/>
       <c r="CB15" s="9"/>
@@ -6003,8 +6046,9 @@
       <c r="CH15" s="9"/>
       <c r="CI15" s="9"/>
       <c r="CJ15" s="9"/>
+      <c r="CK15" s="9"/>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>117</v>
@@ -6042,16 +6086,16 @@
       <c r="M16" s="12">
         <v>0</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="12"/>
+      <c r="O16" s="9">
         <v>10939879.359999998</v>
       </c>
-      <c r="O16" s="13">
+      <c r="P16" s="13">
         <v>0.99033797691154146</v>
       </c>
-      <c r="P16" s="9">
+      <c r="Q16" s="9">
         <v>106732.62000000291</v>
       </c>
-      <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -6110,8 +6154,8 @@
       <c r="BU16" s="9"/>
       <c r="BV16" s="9"/>
       <c r="BW16" s="9"/>
-      <c r="BX16" s="14"/>
-      <c r="BY16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="14"/>
       <c r="BZ16" s="9"/>
       <c r="CA16" s="9"/>
       <c r="CB16" s="9"/>
@@ -6123,8 +6167,9 @@
       <c r="CH16" s="9"/>
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>119</v>
@@ -6162,16 +6207,16 @@
       <c r="M17" s="12">
         <v>0</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="12"/>
+      <c r="O17" s="9">
         <v>6171355.169999999</v>
       </c>
-      <c r="O17" s="13">
+      <c r="P17" s="13">
         <v>0.20344279465159371</v>
       </c>
-      <c r="P17" s="9">
+      <c r="Q17" s="9">
         <v>24163241.740000002</v>
       </c>
-      <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -6230,8 +6275,8 @@
       <c r="BU17" s="9"/>
       <c r="BV17" s="9"/>
       <c r="BW17" s="9"/>
-      <c r="BX17" s="14"/>
-      <c r="BY17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="14"/>
       <c r="BZ17" s="9"/>
       <c r="CA17" s="9"/>
       <c r="CB17" s="9"/>
@@ -6243,8 +6288,9 @@
       <c r="CH17" s="9"/>
       <c r="CI17" s="9"/>
       <c r="CJ17" s="9"/>
+      <c r="CK17" s="9"/>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>122</v>
@@ -6282,16 +6328,16 @@
       <c r="M18" s="12">
         <v>2214379.38</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="12"/>
+      <c r="O18" s="9">
         <v>10061305.059999999</v>
       </c>
-      <c r="O18" s="13">
+      <c r="P18" s="13">
         <v>1</v>
       </c>
-      <c r="P18" s="9">
+      <c r="Q18" s="9">
         <v>-299.64999999850988</v>
       </c>
-      <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -6350,8 +6396,8 @@
       <c r="BU18" s="9"/>
       <c r="BV18" s="9"/>
       <c r="BW18" s="9"/>
-      <c r="BX18" s="14"/>
-      <c r="BY18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="14"/>
       <c r="BZ18" s="9"/>
       <c r="CA18" s="9"/>
       <c r="CB18" s="9"/>
@@ -6363,8 +6409,9 @@
       <c r="CH18" s="9"/>
       <c r="CI18" s="9"/>
       <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>8</v>
       </c>
@@ -6404,16 +6451,16 @@
       <c r="M19" s="12">
         <v>730910.39999999991</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="12"/>
+      <c r="O19" s="9">
         <v>1038880.21</v>
       </c>
-      <c r="O19" s="13">
+      <c r="P19" s="13">
         <v>0.31532836878832671</v>
       </c>
-      <c r="P19" s="9">
+      <c r="Q19" s="9">
         <v>2255717.7800000003</v>
       </c>
-      <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -6472,8 +6519,8 @@
       <c r="BU19" s="9"/>
       <c r="BV19" s="9"/>
       <c r="BW19" s="9"/>
-      <c r="BX19" s="33"/>
-      <c r="BY19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="33"/>
       <c r="BZ19" s="9"/>
       <c r="CA19" s="9"/>
       <c r="CB19" s="9"/>
@@ -6485,8 +6532,9 @@
       <c r="CH19" s="9"/>
       <c r="CI19" s="9"/>
       <c r="CJ19" s="9"/>
+      <c r="CK19" s="9"/>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>9</v>
       </c>
@@ -6526,16 +6574,16 @@
       <c r="M20" s="12">
         <v>4610802.8600000003</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="12"/>
+      <c r="O20" s="9">
         <v>26345865.469999999</v>
       </c>
-      <c r="O20" s="13">
+      <c r="P20" s="13">
         <v>0.43515483919973491</v>
       </c>
-      <c r="P20" s="9">
+      <c r="Q20" s="9">
         <v>34197791.859999999</v>
       </c>
-      <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -6594,8 +6642,8 @@
       <c r="BU20" s="9"/>
       <c r="BV20" s="9"/>
       <c r="BW20" s="9"/>
-      <c r="BX20" s="33"/>
-      <c r="BY20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="33"/>
       <c r="BZ20" s="9"/>
       <c r="CA20" s="9"/>
       <c r="CB20" s="9"/>
@@ -6607,8 +6655,9 @@
       <c r="CH20" s="9"/>
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="4" t="s">
         <v>130</v>
@@ -6646,16 +6695,16 @@
       <c r="M21" s="12">
         <v>5971037.2300000004</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="12"/>
+      <c r="O21" s="9">
         <v>32314427.699999999</v>
       </c>
-      <c r="O21" s="13">
+      <c r="P21" s="13">
         <v>0.99536907601855829</v>
       </c>
-      <c r="P21" s="9">
+      <c r="Q21" s="9">
         <v>150341.87999999896</v>
       </c>
-      <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -6714,8 +6763,8 @@
       <c r="BU21" s="9"/>
       <c r="BV21" s="9"/>
       <c r="BW21" s="9"/>
-      <c r="BX21" s="14"/>
-      <c r="BY21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="14"/>
       <c r="BZ21" s="9"/>
       <c r="CA21" s="9"/>
       <c r="CB21" s="9"/>
@@ -6727,8 +6776,9 @@
       <c r="CH21" s="9"/>
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>132</v>
@@ -6766,16 +6816,16 @@
       <c r="M22" s="12">
         <v>0</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="12"/>
+      <c r="O22" s="9">
         <v>28044628.649999999</v>
       </c>
-      <c r="O22" s="13">
+      <c r="P22" s="13">
         <v>0.91818159739207772</v>
       </c>
-      <c r="P22" s="9">
+      <c r="Q22" s="9">
         <v>2499033.66</v>
       </c>
-      <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -6834,8 +6884,8 @@
       <c r="BU22" s="9"/>
       <c r="BV22" s="9"/>
       <c r="BW22" s="9"/>
-      <c r="BX22" s="14"/>
-      <c r="BY22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="14"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="9"/>
       <c r="CB22" s="9"/>
@@ -6847,8 +6897,9 @@
       <c r="CH22" s="9"/>
       <c r="CI22" s="9"/>
       <c r="CJ22" s="9"/>
+      <c r="CK22" s="9"/>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>10</v>
       </c>
@@ -6888,16 +6939,16 @@
       <c r="M23" s="12">
         <v>0</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="12"/>
+      <c r="O23" s="9">
         <v>12534756.699999999</v>
       </c>
-      <c r="O23" s="13">
+      <c r="P23" s="13">
         <v>0.41127594954424884</v>
       </c>
-      <c r="P23" s="9">
+      <c r="Q23" s="9">
         <v>17942971.73</v>
       </c>
-      <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -6956,8 +7007,8 @@
       <c r="BU23" s="9"/>
       <c r="BV23" s="9"/>
       <c r="BW23" s="9"/>
-      <c r="BX23" s="33"/>
-      <c r="BY23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="33"/>
       <c r="BZ23" s="9"/>
       <c r="CA23" s="9"/>
       <c r="CB23" s="9"/>
@@ -6969,8 +7020,9 @@
       <c r="CH23" s="9"/>
       <c r="CI23" s="9"/>
       <c r="CJ23" s="9"/>
+      <c r="CK23" s="9"/>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>137</v>
@@ -7008,16 +7060,16 @@
       <c r="M24" s="12">
         <v>3586965.9099999997</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="12"/>
+      <c r="O24" s="9">
         <v>17677149.640000001</v>
       </c>
-      <c r="O24" s="13">
+      <c r="P24" s="13">
         <v>0.99898742458747913</v>
       </c>
-      <c r="P24" s="9">
+      <c r="Q24" s="9">
         <v>17917.589999999851</v>
       </c>
-      <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -7076,8 +7128,8 @@
       <c r="BU24" s="9"/>
       <c r="BV24" s="9"/>
       <c r="BW24" s="9"/>
-      <c r="BX24" s="14"/>
-      <c r="BY24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="14"/>
       <c r="BZ24" s="9"/>
       <c r="CA24" s="9"/>
       <c r="CB24" s="9"/>
@@ -7089,8 +7141,9 @@
       <c r="CH24" s="9"/>
       <c r="CI24" s="9"/>
       <c r="CJ24" s="9"/>
+      <c r="CK24" s="9"/>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>11</v>
       </c>
@@ -7130,16 +7183,16 @@
       <c r="M25" s="12">
         <v>8765166.1600000001</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="12"/>
+      <c r="O25" s="9">
         <v>54515037.340000004</v>
       </c>
-      <c r="O25" s="13">
+      <c r="P25" s="13">
         <v>0.97019995997728148</v>
       </c>
-      <c r="P25" s="9">
+      <c r="Q25" s="9">
         <v>1674448.9399999976</v>
       </c>
-      <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -7198,8 +7251,8 @@
       <c r="BU25" s="9"/>
       <c r="BV25" s="9"/>
       <c r="BW25" s="9"/>
-      <c r="BX25" s="33"/>
-      <c r="BY25" s="9"/>
+      <c r="BX25" s="9"/>
+      <c r="BY25" s="33"/>
       <c r="BZ25" s="9"/>
       <c r="CA25" s="9"/>
       <c r="CB25" s="9"/>
@@ -7211,8 +7264,9 @@
       <c r="CH25" s="9"/>
       <c r="CI25" s="9"/>
       <c r="CJ25" s="9"/>
+      <c r="CK25" s="9"/>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>143</v>
@@ -7250,16 +7304,16 @@
       <c r="M26" s="12">
         <v>0</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="12"/>
+      <c r="O26" s="9">
         <v>133579.45000000001</v>
       </c>
-      <c r="O26" s="13">
+      <c r="P26" s="13">
         <v>0.27831132819997095</v>
       </c>
-      <c r="P26" s="9">
+      <c r="Q26" s="9">
         <v>47862831.93</v>
       </c>
-      <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -7318,8 +7372,8 @@
       <c r="BU26" s="9"/>
       <c r="BV26" s="9"/>
       <c r="BW26" s="9"/>
-      <c r="BX26" s="14"/>
-      <c r="BY26" s="9"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="14"/>
       <c r="BZ26" s="9"/>
       <c r="CA26" s="9"/>
       <c r="CB26" s="9"/>
@@ -7331,8 +7385,9 @@
       <c r="CH26" s="9"/>
       <c r="CI26" s="9"/>
       <c r="CJ26" s="9"/>
+      <c r="CK26" s="9"/>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>145</v>
@@ -7370,16 +7425,16 @@
       <c r="M27" s="12">
         <v>11451545.16</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="12"/>
+      <c r="O27" s="9">
         <v>19406169.390000001</v>
       </c>
-      <c r="O27" s="13">
+      <c r="P27" s="13">
         <v>0.99767535907444771</v>
       </c>
-      <c r="P27" s="9">
+      <c r="Q27" s="9">
         <v>45217.489999998361</v>
       </c>
-      <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
@@ -7438,8 +7493,8 @@
       <c r="BU27" s="9"/>
       <c r="BV27" s="9"/>
       <c r="BW27" s="9"/>
-      <c r="BX27" s="14"/>
-      <c r="BY27" s="9"/>
+      <c r="BX27" s="9"/>
+      <c r="BY27" s="14"/>
       <c r="BZ27" s="9"/>
       <c r="CA27" s="9"/>
       <c r="CB27" s="9"/>
@@ -7451,8 +7506,9 @@
       <c r="CH27" s="9"/>
       <c r="CI27" s="9"/>
       <c r="CJ27" s="9"/>
+      <c r="CK27" s="9"/>
     </row>
-    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>12</v>
       </c>
@@ -7492,16 +7548,16 @@
       <c r="M28" s="12">
         <v>0</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="12"/>
+      <c r="O28" s="9">
         <v>0</v>
       </c>
-      <c r="O28" s="13">
+      <c r="P28" s="13">
         <v>0</v>
       </c>
-      <c r="P28" s="9">
+      <c r="Q28" s="9">
         <v>4705907.3</v>
       </c>
-      <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -7560,8 +7616,8 @@
       <c r="BU28" s="9"/>
       <c r="BV28" s="9"/>
       <c r="BW28" s="9"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="9"/>
+      <c r="BX28" s="9"/>
+      <c r="BY28" s="33"/>
       <c r="BZ28" s="9"/>
       <c r="CA28" s="9"/>
       <c r="CB28" s="9"/>
@@ -7573,8 +7629,9 @@
       <c r="CH28" s="9"/>
       <c r="CI28" s="9"/>
       <c r="CJ28" s="9"/>
+      <c r="CK28" s="9"/>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>150</v>
@@ -7612,16 +7669,16 @@
       <c r="M29" s="12">
         <v>0</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="12"/>
+      <c r="O29" s="9">
         <v>4324004.79</v>
       </c>
-      <c r="O29" s="13">
+      <c r="P29" s="13">
         <v>0.9728267056347677</v>
       </c>
-      <c r="P29" s="9">
+      <c r="Q29" s="9">
         <v>120779.4299999997</v>
       </c>
-      <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -7680,8 +7737,8 @@
       <c r="BU29" s="9"/>
       <c r="BV29" s="9"/>
       <c r="BW29" s="9"/>
-      <c r="BX29" s="14"/>
-      <c r="BY29" s="9"/>
+      <c r="BX29" s="9"/>
+      <c r="BY29" s="14"/>
       <c r="BZ29" s="9"/>
       <c r="CA29" s="9"/>
       <c r="CB29" s="9"/>
@@ -7693,8 +7750,9 @@
       <c r="CH29" s="9"/>
       <c r="CI29" s="9"/>
       <c r="CJ29" s="9"/>
+      <c r="CK29" s="9"/>
     </row>
-    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
         <v>152</v>
@@ -7732,16 +7790,16 @@
       <c r="M30" s="12">
         <v>0</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="12"/>
+      <c r="O30" s="9">
         <v>2226331.4500000002</v>
       </c>
-      <c r="O30" s="13">
+      <c r="P30" s="13">
         <v>0.80792838834121272</v>
       </c>
-      <c r="P30" s="9">
+      <c r="Q30" s="9">
         <v>529273.48</v>
       </c>
-      <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -7800,8 +7858,8 @@
       <c r="BU30" s="9"/>
       <c r="BV30" s="9"/>
       <c r="BW30" s="9"/>
-      <c r="BX30" s="14"/>
-      <c r="BY30" s="9"/>
+      <c r="BX30" s="9"/>
+      <c r="BY30" s="14"/>
       <c r="BZ30" s="9"/>
       <c r="CA30" s="9"/>
       <c r="CB30" s="9"/>
@@ -7813,8 +7871,9 @@
       <c r="CH30" s="9"/>
       <c r="CI30" s="9"/>
       <c r="CJ30" s="9"/>
+      <c r="CK30" s="9"/>
     </row>
-    <row r="31" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>154</v>
@@ -7852,16 +7911,16 @@
       <c r="M31" s="12">
         <v>0</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="12"/>
+      <c r="O31" s="9">
         <v>56408430.849999994</v>
       </c>
-      <c r="O31" s="13">
+      <c r="P31" s="13">
         <v>0.97110770219775899</v>
       </c>
-      <c r="P31" s="9">
+      <c r="Q31" s="9">
         <v>1678257.9100000039</v>
       </c>
-      <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -7920,8 +7979,8 @@
       <c r="BU31" s="9"/>
       <c r="BV31" s="9"/>
       <c r="BW31" s="9"/>
-      <c r="BX31" s="14"/>
-      <c r="BY31" s="9"/>
+      <c r="BX31" s="9"/>
+      <c r="BY31" s="14"/>
       <c r="BZ31" s="9"/>
       <c r="CA31" s="9"/>
       <c r="CB31" s="9"/>
@@ -7933,8 +7992,9 @@
       <c r="CH31" s="9"/>
       <c r="CI31" s="9"/>
       <c r="CJ31" s="9"/>
+      <c r="CK31" s="9"/>
     </row>
-    <row r="32" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>13</v>
       </c>
@@ -7974,16 +8034,16 @@
       <c r="M32" s="12">
         <v>1739254.2</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="12"/>
+      <c r="O32" s="9">
         <v>1739254.2</v>
       </c>
-      <c r="O32" s="13">
+      <c r="P32" s="13">
         <v>0.71803684431831805</v>
       </c>
-      <c r="P32" s="9">
+      <c r="Q32" s="9">
         <v>1121187.9200000002</v>
       </c>
-      <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -8042,8 +8102,8 @@
       <c r="BU32" s="9"/>
       <c r="BV32" s="9"/>
       <c r="BW32" s="9"/>
-      <c r="BX32" s="33"/>
-      <c r="BY32" s="9"/>
+      <c r="BX32" s="9"/>
+      <c r="BY32" s="33"/>
       <c r="BZ32" s="9"/>
       <c r="CA32" s="9"/>
       <c r="CB32" s="9"/>
@@ -8055,8 +8115,9 @@
       <c r="CH32" s="9"/>
       <c r="CI32" s="9"/>
       <c r="CJ32" s="9"/>
+      <c r="CK32" s="9"/>
     </row>
-    <row r="33" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>14</v>
       </c>
@@ -8096,16 +8157,16 @@
       <c r="M33" s="12">
         <v>842876.36</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="12"/>
+      <c r="O33" s="9">
         <v>842876.36</v>
       </c>
-      <c r="O33" s="13">
+      <c r="P33" s="13">
         <v>0.10739988054030747</v>
       </c>
-      <c r="P33" s="9">
+      <c r="Q33" s="9">
         <v>7005143.1699999999</v>
       </c>
-      <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -8164,8 +8225,8 @@
       <c r="BU33" s="9"/>
       <c r="BV33" s="9"/>
       <c r="BW33" s="9"/>
-      <c r="BX33" s="33"/>
-      <c r="BY33" s="9"/>
+      <c r="BX33" s="9"/>
+      <c r="BY33" s="33"/>
       <c r="BZ33" s="9"/>
       <c r="CA33" s="9"/>
       <c r="CB33" s="9"/>
@@ -8177,8 +8238,9 @@
       <c r="CH33" s="9"/>
       <c r="CI33" s="9"/>
       <c r="CJ33" s="9"/>
+      <c r="CK33" s="9"/>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
         <v>163</v>
@@ -8216,16 +8278,16 @@
       <c r="M34" s="12">
         <v>0</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="12"/>
+      <c r="O34" s="9">
         <v>9661616.3699999973</v>
       </c>
-      <c r="O34" s="13">
+      <c r="P34" s="13">
         <v>0.99077076080670279</v>
       </c>
-      <c r="P34" s="9">
+      <c r="Q34" s="9">
         <v>90000.000000001863</v>
       </c>
-      <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
@@ -8284,8 +8346,8 @@
       <c r="BU34" s="9"/>
       <c r="BV34" s="9"/>
       <c r="BW34" s="9"/>
-      <c r="BX34" s="14"/>
-      <c r="BY34" s="9"/>
+      <c r="BX34" s="9"/>
+      <c r="BY34" s="14"/>
       <c r="BZ34" s="9"/>
       <c r="CA34" s="9"/>
       <c r="CB34" s="9"/>
@@ -8297,8 +8359,9 @@
       <c r="CH34" s="9"/>
       <c r="CI34" s="9"/>
       <c r="CJ34" s="9"/>
+      <c r="CK34" s="9"/>
     </row>
-    <row r="35" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
         <v>166</v>
@@ -8336,16 +8399,16 @@
       <c r="M35" s="12">
         <v>0</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="12"/>
+      <c r="O35" s="9">
         <v>13792679.65</v>
       </c>
-      <c r="O35" s="13">
+      <c r="P35" s="13">
         <v>0.9999999898496883</v>
       </c>
-      <c r="P35" s="9">
+      <c r="Q35" s="9">
         <v>0.1399999987334013</v>
       </c>
-      <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -8404,8 +8467,8 @@
       <c r="BU35" s="9"/>
       <c r="BV35" s="9"/>
       <c r="BW35" s="9"/>
-      <c r="BX35" s="14"/>
-      <c r="BY35" s="9"/>
+      <c r="BX35" s="9"/>
+      <c r="BY35" s="14"/>
       <c r="BZ35" s="9"/>
       <c r="CA35" s="9"/>
       <c r="CB35" s="9"/>
@@ -8417,8 +8480,9 @@
       <c r="CH35" s="9"/>
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
+      <c r="CK35" s="9"/>
     </row>
-    <row r="36" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>15</v>
       </c>
@@ -8458,16 +8522,16 @@
       <c r="M36" s="12">
         <v>2588125.33</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="12"/>
+      <c r="O36" s="9">
         <v>6488132.9299999988</v>
       </c>
-      <c r="O36" s="13">
+      <c r="P36" s="13">
         <v>0.84208591174083947</v>
       </c>
-      <c r="P36" s="9">
+      <c r="Q36" s="9">
         <v>1216701.9800000014</v>
       </c>
-      <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -8526,8 +8590,8 @@
       <c r="BU36" s="9"/>
       <c r="BV36" s="9"/>
       <c r="BW36" s="9"/>
-      <c r="BX36" s="33"/>
-      <c r="BY36" s="9"/>
+      <c r="BX36" s="9"/>
+      <c r="BY36" s="33"/>
       <c r="BZ36" s="9"/>
       <c r="CA36" s="9"/>
       <c r="CB36" s="9"/>
@@ -8539,8 +8603,9 @@
       <c r="CH36" s="9"/>
       <c r="CI36" s="9"/>
       <c r="CJ36" s="9"/>
+      <c r="CK36" s="9"/>
     </row>
-    <row r="37" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
         <v>171</v>
@@ -8578,16 +8643,16 @@
       <c r="M37" s="12">
         <v>0</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="12"/>
+      <c r="O37" s="9">
         <v>3034704.58</v>
       </c>
-      <c r="O37" s="13">
+      <c r="P37" s="13">
         <v>0.97656210401237953</v>
       </c>
-      <c r="P37" s="9">
+      <c r="Q37" s="9">
         <v>72834.169999999925</v>
       </c>
-      <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
@@ -8646,8 +8711,8 @@
       <c r="BU37" s="9"/>
       <c r="BV37" s="9"/>
       <c r="BW37" s="9"/>
-      <c r="BX37" s="14"/>
-      <c r="BY37" s="9"/>
+      <c r="BX37" s="9"/>
+      <c r="BY37" s="14"/>
       <c r="BZ37" s="9"/>
       <c r="CA37" s="9"/>
       <c r="CB37" s="9"/>
@@ -8659,8 +8724,9 @@
       <c r="CH37" s="9"/>
       <c r="CI37" s="9"/>
       <c r="CJ37" s="9"/>
+      <c r="CK37" s="9"/>
     </row>
-    <row r="38" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="4" t="s">
         <v>173</v>
@@ -8698,16 +8764,16 @@
       <c r="M38" s="12">
         <v>0</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="12"/>
+      <c r="O38" s="9">
         <v>41562191.240000002</v>
       </c>
-      <c r="O38" s="13">
+      <c r="P38" s="13">
         <v>0.80923427786990898</v>
       </c>
-      <c r="P38" s="9">
+      <c r="Q38" s="9">
         <v>9797708.3299999982</v>
       </c>
-      <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -8766,8 +8832,8 @@
       <c r="BU38" s="9"/>
       <c r="BV38" s="9"/>
       <c r="BW38" s="9"/>
-      <c r="BX38" s="14"/>
-      <c r="BY38" s="9"/>
+      <c r="BX38" s="9"/>
+      <c r="BY38" s="14"/>
       <c r="BZ38" s="9"/>
       <c r="CA38" s="9"/>
       <c r="CB38" s="9"/>
@@ -8779,8 +8845,9 @@
       <c r="CH38" s="9"/>
       <c r="CI38" s="9"/>
       <c r="CJ38" s="9"/>
+      <c r="CK38" s="9"/>
     </row>
-    <row r="39" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
         <v>176</v>
@@ -8818,16 +8885,16 @@
       <c r="M39" s="12">
         <v>0</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="12"/>
+      <c r="O39" s="9">
         <v>13242495.840000004</v>
       </c>
-      <c r="O39" s="13">
+      <c r="P39" s="13">
         <v>1</v>
       </c>
-      <c r="P39" s="9">
+      <c r="Q39" s="9">
         <v>-70.200000002980232</v>
       </c>
-      <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
@@ -8886,8 +8953,8 @@
       <c r="BU39" s="9"/>
       <c r="BV39" s="9"/>
       <c r="BW39" s="9"/>
-      <c r="BX39" s="14"/>
-      <c r="BY39" s="9"/>
+      <c r="BX39" s="9"/>
+      <c r="BY39" s="14"/>
       <c r="BZ39" s="9"/>
       <c r="CA39" s="9"/>
       <c r="CB39" s="9"/>
@@ -8899,8 +8966,9 @@
       <c r="CH39" s="9"/>
       <c r="CI39" s="9"/>
       <c r="CJ39" s="9"/>
+      <c r="CK39" s="9"/>
     </row>
-    <row r="40" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="4" t="s">
         <v>179</v>
@@ -8938,16 +9006,16 @@
       <c r="M40" s="12">
         <v>0</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="12"/>
+      <c r="O40" s="9">
         <v>6450491.3100000005</v>
       </c>
-      <c r="O40" s="13">
+      <c r="P40" s="13">
         <v>0.89161885674039287</v>
       </c>
-      <c r="P40" s="9">
+      <c r="Q40" s="9">
         <v>784092.45999999903</v>
       </c>
-      <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
@@ -9006,8 +9074,8 @@
       <c r="BU40" s="9"/>
       <c r="BV40" s="9"/>
       <c r="BW40" s="9"/>
-      <c r="BX40" s="14"/>
-      <c r="BY40" s="9"/>
+      <c r="BX40" s="9"/>
+      <c r="BY40" s="14"/>
       <c r="BZ40" s="9"/>
       <c r="CA40" s="9"/>
       <c r="CB40" s="9"/>
@@ -9019,8 +9087,9 @@
       <c r="CH40" s="9"/>
       <c r="CI40" s="9"/>
       <c r="CJ40" s="9"/>
+      <c r="CK40" s="9"/>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="4" t="s">
         <v>181</v>
@@ -9058,16 +9127,16 @@
       <c r="M41" s="12">
         <v>0</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="12"/>
+      <c r="O41" s="9">
         <v>11566431.390000001</v>
       </c>
-      <c r="O41" s="13">
+      <c r="P41" s="13">
         <v>0.9208715549510299</v>
       </c>
-      <c r="P41" s="9">
+      <c r="Q41" s="9">
         <v>993877.72999999858</v>
       </c>
-      <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -9126,8 +9195,8 @@
       <c r="BU41" s="9"/>
       <c r="BV41" s="9"/>
       <c r="BW41" s="9"/>
-      <c r="BX41" s="14"/>
-      <c r="BY41" s="9"/>
+      <c r="BX41" s="9"/>
+      <c r="BY41" s="14"/>
       <c r="BZ41" s="9"/>
       <c r="CA41" s="9"/>
       <c r="CB41" s="9"/>
@@ -9139,8 +9208,9 @@
       <c r="CH41" s="9"/>
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
+      <c r="CK41" s="9"/>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="4" t="s">
         <v>183</v>
@@ -9178,16 +9248,16 @@
       <c r="M42" s="12">
         <v>0</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="12"/>
+      <c r="O42" s="9">
         <v>20500685.689999994</v>
       </c>
-      <c r="O42" s="13">
+      <c r="P42" s="13">
         <v>0.91224365764898707</v>
       </c>
-      <c r="P42" s="9">
+      <c r="Q42" s="9">
         <v>1972132.3100000061</v>
       </c>
-      <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
@@ -9246,8 +9316,8 @@
       <c r="BU42" s="9"/>
       <c r="BV42" s="9"/>
       <c r="BW42" s="9"/>
-      <c r="BX42" s="14"/>
-      <c r="BY42" s="9"/>
+      <c r="BX42" s="9"/>
+      <c r="BY42" s="14"/>
       <c r="BZ42" s="9"/>
       <c r="CA42" s="9"/>
       <c r="CB42" s="9"/>
@@ -9259,8 +9329,9 @@
       <c r="CH42" s="9"/>
       <c r="CI42" s="9"/>
       <c r="CJ42" s="9"/>
+      <c r="CK42" s="9"/>
     </row>
-    <row r="43" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="4" t="s">
         <v>184</v>
@@ -9298,16 +9369,16 @@
       <c r="M43" s="12">
         <v>0</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="12"/>
+      <c r="O43" s="9">
         <v>43785880.080000006</v>
       </c>
-      <c r="O43" s="13">
+      <c r="P43" s="13">
         <v>0.96790906607843752</v>
       </c>
-      <c r="P43" s="9">
+      <c r="Q43" s="9">
         <v>1451716.7299999967</v>
       </c>
-      <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
@@ -9366,8 +9437,8 @@
       <c r="BU43" s="9"/>
       <c r="BV43" s="9"/>
       <c r="BW43" s="9"/>
-      <c r="BX43" s="14"/>
-      <c r="BY43" s="9"/>
+      <c r="BX43" s="9"/>
+      <c r="BY43" s="14"/>
       <c r="BZ43" s="9"/>
       <c r="CA43" s="9"/>
       <c r="CB43" s="9"/>
@@ -9379,8 +9450,9 @@
       <c r="CH43" s="9"/>
       <c r="CI43" s="9"/>
       <c r="CJ43" s="9"/>
+      <c r="CK43" s="9"/>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="4" t="s">
         <v>186</v>
@@ -9418,16 +9490,16 @@
       <c r="M44" s="12">
         <v>0</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="12"/>
+      <c r="O44" s="9">
         <v>33048630.330000006</v>
       </c>
-      <c r="O44" s="13">
+      <c r="P44" s="13">
         <v>0.9577064291756896</v>
       </c>
-      <c r="P44" s="9">
+      <c r="Q44" s="9">
         <v>1459470.8199999928</v>
       </c>
-      <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -9486,8 +9558,8 @@
       <c r="BU44" s="9"/>
       <c r="BV44" s="9"/>
       <c r="BW44" s="9"/>
-      <c r="BX44" s="14"/>
-      <c r="BY44" s="9"/>
+      <c r="BX44" s="9"/>
+      <c r="BY44" s="14"/>
       <c r="BZ44" s="9"/>
       <c r="CA44" s="9"/>
       <c r="CB44" s="9"/>
@@ -9499,8 +9571,9 @@
       <c r="CH44" s="9"/>
       <c r="CI44" s="9"/>
       <c r="CJ44" s="9"/>
+      <c r="CK44" s="9"/>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="4" t="s">
         <v>187</v>
@@ -9538,16 +9611,16 @@
       <c r="M45" s="12">
         <v>0</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="12"/>
+      <c r="O45" s="9">
         <v>151308</v>
       </c>
-      <c r="O45" s="13">
+      <c r="P45" s="13">
         <v>1.3163589415629874E-2</v>
       </c>
-      <c r="P45" s="9">
+      <c r="Q45" s="9">
         <v>11343125.26</v>
       </c>
-      <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
@@ -9606,8 +9679,8 @@
       <c r="BU45" s="9"/>
       <c r="BV45" s="9"/>
       <c r="BW45" s="9"/>
-      <c r="BX45" s="14"/>
-      <c r="BY45" s="9"/>
+      <c r="BX45" s="9"/>
+      <c r="BY45" s="14"/>
       <c r="BZ45" s="9"/>
       <c r="CA45" s="9"/>
       <c r="CB45" s="9"/>
@@ -9619,8 +9692,9 @@
       <c r="CH45" s="9"/>
       <c r="CI45" s="9"/>
       <c r="CJ45" s="9"/>
+      <c r="CK45" s="9"/>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="4" t="s">
         <v>188</v>
@@ -9658,16 +9732,16 @@
       <c r="M46" s="12">
         <v>0</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="12"/>
+      <c r="O46" s="9">
         <v>13332401.599999998</v>
       </c>
-      <c r="O46" s="13">
+      <c r="P46" s="13">
         <v>0.66050584967494941</v>
       </c>
-      <c r="P46" s="9">
+      <c r="Q46" s="9">
         <v>6852736.2100000009</v>
       </c>
-      <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
@@ -9726,8 +9800,8 @@
       <c r="BU46" s="9"/>
       <c r="BV46" s="9"/>
       <c r="BW46" s="9"/>
-      <c r="BX46" s="14"/>
-      <c r="BY46" s="9"/>
+      <c r="BX46" s="9"/>
+      <c r="BY46" s="14"/>
       <c r="BZ46" s="9"/>
       <c r="CA46" s="9"/>
       <c r="CB46" s="9"/>
@@ -9739,8 +9813,9 @@
       <c r="CH46" s="9"/>
       <c r="CI46" s="9"/>
       <c r="CJ46" s="9"/>
+      <c r="CK46" s="9"/>
     </row>
-    <row r="47" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>16</v>
       </c>
@@ -9780,16 +9855,16 @@
       <c r="M47" s="12">
         <v>10584628.26</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="12"/>
+      <c r="O47" s="9">
         <v>32294745.039999995</v>
       </c>
-      <c r="O47" s="13">
+      <c r="P47" s="13">
         <v>0.66029519484692667</v>
       </c>
-      <c r="P47" s="9">
+      <c r="Q47" s="9">
         <v>16614811.310000006</v>
       </c>
-      <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
@@ -9848,8 +9923,8 @@
       <c r="BU47" s="9"/>
       <c r="BV47" s="9"/>
       <c r="BW47" s="9"/>
-      <c r="BX47" s="33"/>
-      <c r="BY47" s="9"/>
+      <c r="BX47" s="9"/>
+      <c r="BY47" s="33"/>
       <c r="BZ47" s="9"/>
       <c r="CA47" s="9"/>
       <c r="CB47" s="9"/>
@@ -9861,8 +9936,9 @@
       <c r="CH47" s="9"/>
       <c r="CI47" s="9"/>
       <c r="CJ47" s="9"/>
+      <c r="CK47" s="9"/>
     </row>
-    <row r="48" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="4" t="s">
         <v>191</v>
@@ -9900,16 +9976,16 @@
       <c r="M48" s="12">
         <v>0</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="12"/>
+      <c r="O48" s="9">
         <v>6523029.6600000001</v>
       </c>
-      <c r="O48" s="13">
+      <c r="P48" s="13">
         <v>1</v>
       </c>
-      <c r="P48" s="9">
+      <c r="Q48" s="9">
         <v>-44960.230000000447</v>
       </c>
-      <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -9968,8 +10044,8 @@
       <c r="BU48" s="9"/>
       <c r="BV48" s="9"/>
       <c r="BW48" s="9"/>
-      <c r="BX48" s="14"/>
-      <c r="BY48" s="9"/>
+      <c r="BX48" s="9"/>
+      <c r="BY48" s="14"/>
       <c r="BZ48" s="9"/>
       <c r="CA48" s="9"/>
       <c r="CB48" s="9"/>
@@ -9981,8 +10057,9 @@
       <c r="CH48" s="9"/>
       <c r="CI48" s="9"/>
       <c r="CJ48" s="9"/>
+      <c r="CK48" s="9"/>
     </row>
-    <row r="49" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="4" t="s">
         <v>194</v>
@@ -10020,16 +10097,16 @@
       <c r="M49" s="12">
         <v>0</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="12"/>
+      <c r="O49" s="9">
         <v>6007931.0199999996</v>
       </c>
-      <c r="O49" s="13">
+      <c r="P49" s="13">
         <v>0.9921790161723304</v>
       </c>
-      <c r="P49" s="9">
+      <c r="Q49" s="9">
         <v>47358.320000000298</v>
       </c>
-      <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -10088,8 +10165,8 @@
       <c r="BU49" s="9"/>
       <c r="BV49" s="9"/>
       <c r="BW49" s="9"/>
-      <c r="BX49" s="14"/>
-      <c r="BY49" s="9"/>
+      <c r="BX49" s="9"/>
+      <c r="BY49" s="14"/>
       <c r="BZ49" s="9"/>
       <c r="CA49" s="9"/>
       <c r="CB49" s="9"/>
@@ -10101,8 +10178,9 @@
       <c r="CH49" s="9"/>
       <c r="CI49" s="9"/>
       <c r="CJ49" s="9"/>
+      <c r="CK49" s="9"/>
     </row>
-    <row r="50" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="4" t="s">
         <v>196</v>
@@ -10140,16 +10218,16 @@
       <c r="M50" s="12">
         <v>0</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="12"/>
+      <c r="O50" s="9">
         <v>5551029.21</v>
       </c>
-      <c r="O50" s="13">
+      <c r="P50" s="13">
         <v>0.97001638343982832</v>
       </c>
-      <c r="P50" s="9">
+      <c r="Q50" s="9">
         <v>171584.66000000015</v>
       </c>
-      <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -10208,8 +10286,8 @@
       <c r="BU50" s="9"/>
       <c r="BV50" s="9"/>
       <c r="BW50" s="9"/>
-      <c r="BX50" s="14"/>
-      <c r="BY50" s="9"/>
+      <c r="BX50" s="9"/>
+      <c r="BY50" s="14"/>
       <c r="BZ50" s="9"/>
       <c r="CA50" s="9"/>
       <c r="CB50" s="9"/>
@@ -10221,8 +10299,9 @@
       <c r="CH50" s="9"/>
       <c r="CI50" s="9"/>
       <c r="CJ50" s="9"/>
+      <c r="CK50" s="9"/>
     </row>
-    <row r="51" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="4" t="s">
         <v>199</v>
@@ -10260,16 +10339,16 @@
       <c r="M51" s="12">
         <v>0</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="12"/>
+      <c r="O51" s="9">
         <v>5580983.9399999995</v>
       </c>
-      <c r="O51" s="13">
+      <c r="P51" s="13">
         <v>0.99986610605924353</v>
       </c>
-      <c r="P51" s="9">
+      <c r="Q51" s="9">
         <v>747.36000000033528</v>
       </c>
-      <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -10328,8 +10407,8 @@
       <c r="BU51" s="9"/>
       <c r="BV51" s="9"/>
       <c r="BW51" s="9"/>
-      <c r="BX51" s="14"/>
-      <c r="BY51" s="9"/>
+      <c r="BX51" s="9"/>
+      <c r="BY51" s="14"/>
       <c r="BZ51" s="9"/>
       <c r="CA51" s="9"/>
       <c r="CB51" s="9"/>
@@ -10341,8 +10420,9 @@
       <c r="CH51" s="9"/>
       <c r="CI51" s="9"/>
       <c r="CJ51" s="9"/>
+      <c r="CK51" s="9"/>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="4" t="s">
         <v>201</v>
@@ -10380,16 +10460,16 @@
       <c r="M52" s="12">
         <v>0</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="12"/>
+      <c r="O52" s="9">
         <v>12032786.93</v>
       </c>
-      <c r="O52" s="13">
+      <c r="P52" s="13">
         <v>0.91096529299621554</v>
       </c>
-      <c r="P52" s="9">
+      <c r="Q52" s="9">
         <v>1176044.4299999997</v>
       </c>
-      <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -10448,8 +10528,8 @@
       <c r="BU52" s="9"/>
       <c r="BV52" s="9"/>
       <c r="BW52" s="9"/>
-      <c r="BX52" s="14"/>
-      <c r="BY52" s="9"/>
+      <c r="BX52" s="9"/>
+      <c r="BY52" s="14"/>
       <c r="BZ52" s="9"/>
       <c r="CA52" s="9"/>
       <c r="CB52" s="9"/>
@@ -10461,8 +10541,9 @@
       <c r="CH52" s="9"/>
       <c r="CI52" s="9"/>
       <c r="CJ52" s="9"/>
+      <c r="CK52" s="9"/>
     </row>
-    <row r="53" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>17</v>
       </c>
@@ -10502,16 +10583,16 @@
       <c r="M53" s="12">
         <v>65457023.329999991</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="12"/>
+      <c r="O53" s="9">
         <v>111124067.68000001</v>
       </c>
-      <c r="O53" s="13">
+      <c r="P53" s="13">
         <v>0.97856703176980919</v>
       </c>
-      <c r="P53" s="9">
+      <c r="Q53" s="9">
         <v>2433883.9699999988</v>
       </c>
-      <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -10570,8 +10651,8 @@
       <c r="BU53" s="9"/>
       <c r="BV53" s="9"/>
       <c r="BW53" s="9"/>
-      <c r="BX53" s="33"/>
-      <c r="BY53" s="9"/>
+      <c r="BX53" s="9"/>
+      <c r="BY53" s="33"/>
       <c r="BZ53" s="9"/>
       <c r="CA53" s="9"/>
       <c r="CB53" s="9"/>
@@ -10583,8 +10664,9 @@
       <c r="CH53" s="9"/>
       <c r="CI53" s="9"/>
       <c r="CJ53" s="9"/>
+      <c r="CK53" s="9"/>
     </row>
-    <row r="54" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>18</v>
       </c>
@@ -10624,16 +10706,16 @@
       <c r="M54" s="12">
         <v>0</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="12"/>
+      <c r="O54" s="9">
         <v>8552770.9100000001</v>
       </c>
-      <c r="O54" s="13">
+      <c r="P54" s="13">
         <v>0.6604266220686813</v>
       </c>
-      <c r="P54" s="9">
+      <c r="Q54" s="9">
         <v>4397601.8100000005</v>
       </c>
-      <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -10692,8 +10774,8 @@
       <c r="BU54" s="9"/>
       <c r="BV54" s="9"/>
       <c r="BW54" s="9"/>
-      <c r="BX54" s="33"/>
-      <c r="BY54" s="9"/>
+      <c r="BX54" s="9"/>
+      <c r="BY54" s="33"/>
       <c r="BZ54" s="9"/>
       <c r="CA54" s="9"/>
       <c r="CB54" s="9"/>
@@ -10705,8 +10787,9 @@
       <c r="CH54" s="9"/>
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
+      <c r="CK54" s="9"/>
     </row>
-    <row r="55" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>19</v>
       </c>
@@ -10746,16 +10829,16 @@
       <c r="M55" s="12">
         <v>17908038.489999998</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N55" s="12"/>
+      <c r="O55" s="9">
         <v>29783885.439999998</v>
       </c>
-      <c r="O55" s="13">
+      <c r="P55" s="13">
         <v>0.85924166998354001</v>
       </c>
-      <c r="P55" s="9">
+      <c r="Q55" s="9">
         <v>4879104.5900000036</v>
       </c>
-      <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
@@ -10814,8 +10897,8 @@
       <c r="BU55" s="9"/>
       <c r="BV55" s="9"/>
       <c r="BW55" s="9"/>
-      <c r="BX55" s="33"/>
-      <c r="BY55" s="9"/>
+      <c r="BX55" s="9"/>
+      <c r="BY55" s="33"/>
       <c r="BZ55" s="9"/>
       <c r="CA55" s="9"/>
       <c r="CB55" s="9"/>
@@ -10827,8 +10910,9 @@
       <c r="CH55" s="9"/>
       <c r="CI55" s="9"/>
       <c r="CJ55" s="9"/>
+      <c r="CK55" s="9"/>
     </row>
-    <row r="56" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="4" t="s">
         <v>207</v>
@@ -10866,16 +10950,16 @@
       <c r="M56" s="12">
         <v>1257033.71</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N56" s="12"/>
+      <c r="O56" s="9">
         <v>20859058.41</v>
       </c>
-      <c r="O56" s="13">
+      <c r="P56" s="13">
         <v>0.99999951915398189</v>
       </c>
-      <c r="P56" s="9">
+      <c r="Q56" s="9">
         <v>10.030000001192093</v>
       </c>
-      <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
@@ -10934,8 +11018,8 @@
       <c r="BU56" s="9"/>
       <c r="BV56" s="9"/>
       <c r="BW56" s="9"/>
-      <c r="BX56" s="14"/>
-      <c r="BY56" s="9"/>
+      <c r="BX56" s="9"/>
+      <c r="BY56" s="14"/>
       <c r="BZ56" s="9"/>
       <c r="CA56" s="9"/>
       <c r="CB56" s="9"/>
@@ -10947,8 +11031,9 @@
       <c r="CH56" s="9"/>
       <c r="CI56" s="9"/>
       <c r="CJ56" s="9"/>
+      <c r="CK56" s="9"/>
     </row>
-    <row r="57" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>20</v>
       </c>
@@ -10988,16 +11073,16 @@
       <c r="M57" s="12">
         <v>122778.19</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N57" s="12"/>
+      <c r="O57" s="9">
         <v>122778.19</v>
       </c>
-      <c r="O57" s="13">
+      <c r="P57" s="13">
         <v>1.6522722270131376E-2</v>
       </c>
-      <c r="P57" s="9">
+      <c r="Q57" s="9">
         <v>7308091.1299999999</v>
       </c>
-      <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -11056,8 +11141,8 @@
       <c r="BU57" s="9"/>
       <c r="BV57" s="9"/>
       <c r="BW57" s="9"/>
-      <c r="BX57" s="33"/>
-      <c r="BY57" s="9"/>
+      <c r="BX57" s="9"/>
+      <c r="BY57" s="33"/>
       <c r="BZ57" s="9"/>
       <c r="CA57" s="9"/>
       <c r="CB57" s="9"/>
@@ -11069,8 +11154,9 @@
       <c r="CH57" s="9"/>
       <c r="CI57" s="9"/>
       <c r="CJ57" s="9"/>
+      <c r="CK57" s="9"/>
     </row>
-    <row r="58" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="4" t="s">
         <v>209</v>
@@ -11108,16 +11194,16 @@
       <c r="M58" s="12">
         <v>14479558.67</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58" s="12"/>
+      <c r="O58" s="9">
         <v>81959611.000000015</v>
       </c>
-      <c r="O58" s="13">
+      <c r="P58" s="13">
         <v>1</v>
       </c>
-      <c r="P58" s="9">
+      <c r="Q58" s="9">
         <v>-8631.7700000107288</v>
       </c>
-      <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -11176,8 +11262,8 @@
       <c r="BU58" s="9"/>
       <c r="BV58" s="9"/>
       <c r="BW58" s="9"/>
-      <c r="BX58" s="14"/>
-      <c r="BY58" s="9"/>
+      <c r="BX58" s="9"/>
+      <c r="BY58" s="14"/>
       <c r="BZ58" s="9"/>
       <c r="CA58" s="9"/>
       <c r="CB58" s="9"/>
@@ -11189,8 +11275,9 @@
       <c r="CH58" s="9"/>
       <c r="CI58" s="9"/>
       <c r="CJ58" s="9"/>
+      <c r="CK58" s="9"/>
     </row>
-    <row r="59" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="4" t="s">
         <v>211</v>
@@ -11228,16 +11315,16 @@
       <c r="M59" s="12">
         <v>0</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N59" s="12"/>
+      <c r="O59" s="9">
         <v>11551184.42</v>
       </c>
-      <c r="O59" s="13">
+      <c r="P59" s="13">
         <v>0.99999999826857588</v>
       </c>
-      <c r="P59" s="9">
+      <c r="Q59" s="9">
         <v>1.9999999552965164E-2</v>
       </c>
-      <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -11296,8 +11383,8 @@
       <c r="BU59" s="9"/>
       <c r="BV59" s="9"/>
       <c r="BW59" s="9"/>
-      <c r="BX59" s="14"/>
-      <c r="BY59" s="9"/>
+      <c r="BX59" s="9"/>
+      <c r="BY59" s="14"/>
       <c r="BZ59" s="9"/>
       <c r="CA59" s="9"/>
       <c r="CB59" s="9"/>
@@ -11309,8 +11396,9 @@
       <c r="CH59" s="9"/>
       <c r="CI59" s="9"/>
       <c r="CJ59" s="9"/>
+      <c r="CK59" s="9"/>
     </row>
-    <row r="60" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="4" t="s">
         <v>213</v>
@@ -11348,16 +11436,16 @@
       <c r="M60" s="12">
         <v>14120676.049999999</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60" s="12"/>
+      <c r="O60" s="9">
         <v>41516316.780000001</v>
       </c>
-      <c r="O60" s="13">
+      <c r="P60" s="13">
         <v>0.94036499840772703</v>
       </c>
-      <c r="P60" s="9">
+      <c r="Q60" s="9">
         <v>2632834.7199999988</v>
       </c>
-      <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
@@ -11416,8 +11504,8 @@
       <c r="BU60" s="9"/>
       <c r="BV60" s="9"/>
       <c r="BW60" s="9"/>
-      <c r="BX60" s="14"/>
-      <c r="BY60" s="9"/>
+      <c r="BX60" s="9"/>
+      <c r="BY60" s="14"/>
       <c r="BZ60" s="9"/>
       <c r="CA60" s="9"/>
       <c r="CB60" s="9"/>
@@ -11429,8 +11517,9 @@
       <c r="CH60" s="9"/>
       <c r="CI60" s="9"/>
       <c r="CJ60" s="9"/>
+      <c r="CK60" s="9"/>
     </row>
-    <row r="61" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="4" t="s">
         <v>215</v>
@@ -11468,16 +11557,16 @@
       <c r="M61" s="12">
         <v>0</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="12"/>
+      <c r="O61" s="9">
         <v>64026819.339999996</v>
       </c>
-      <c r="O61" s="13">
+      <c r="P61" s="13">
         <v>0.71933529433860788</v>
       </c>
-      <c r="P61" s="9">
+      <c r="Q61" s="9">
         <v>24981491.31000001</v>
       </c>
-      <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
@@ -11536,8 +11625,8 @@
       <c r="BU61" s="9"/>
       <c r="BV61" s="9"/>
       <c r="BW61" s="9"/>
-      <c r="BX61" s="14"/>
-      <c r="BY61" s="9"/>
+      <c r="BX61" s="9"/>
+      <c r="BY61" s="14"/>
       <c r="BZ61" s="9"/>
       <c r="CA61" s="9"/>
       <c r="CB61" s="9"/>
@@ -11549,8 +11638,9 @@
       <c r="CH61" s="9"/>
       <c r="CI61" s="9"/>
       <c r="CJ61" s="9"/>
+      <c r="CK61" s="9"/>
     </row>
-    <row r="62" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>21</v>
       </c>
@@ -11590,16 +11680,16 @@
       <c r="M62" s="12">
         <v>-748873.51</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="12"/>
+      <c r="O62" s="9">
         <v>23692547.440000001</v>
       </c>
-      <c r="O62" s="13">
+      <c r="P62" s="13">
         <v>0.36073493390314582</v>
       </c>
-      <c r="P62" s="9">
+      <c r="Q62" s="9">
         <v>41986002.689999998</v>
       </c>
-      <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -11658,8 +11748,8 @@
       <c r="BU62" s="9"/>
       <c r="BV62" s="9"/>
       <c r="BW62" s="9"/>
-      <c r="BX62" s="33"/>
-      <c r="BY62" s="9"/>
+      <c r="BX62" s="9"/>
+      <c r="BY62" s="33"/>
       <c r="BZ62" s="9"/>
       <c r="CA62" s="9"/>
       <c r="CB62" s="9"/>
@@ -11671,8 +11761,9 @@
       <c r="CH62" s="9"/>
       <c r="CI62" s="9"/>
       <c r="CJ62" s="9"/>
+      <c r="CK62" s="9"/>
     </row>
-    <row r="63" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="4" t="s">
         <v>219</v>
@@ -11710,16 +11801,16 @@
       <c r="M63" s="12">
         <v>0</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="12"/>
+      <c r="O63" s="9">
         <v>18264452.889999997</v>
       </c>
-      <c r="O63" s="13">
+      <c r="P63" s="13">
         <v>0.99999999999999989</v>
       </c>
-      <c r="P63" s="9">
+      <c r="Q63" s="9">
         <v>3.7252902984619141E-9</v>
       </c>
-      <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
@@ -11778,8 +11869,8 @@
       <c r="BU63" s="9"/>
       <c r="BV63" s="9"/>
       <c r="BW63" s="9"/>
-      <c r="BX63" s="14"/>
-      <c r="BY63" s="9"/>
+      <c r="BX63" s="9"/>
+      <c r="BY63" s="14"/>
       <c r="BZ63" s="9"/>
       <c r="CA63" s="9"/>
       <c r="CB63" s="9"/>
@@ -11791,8 +11882,9 @@
       <c r="CH63" s="9"/>
       <c r="CI63" s="9"/>
       <c r="CJ63" s="9"/>
+      <c r="CK63" s="9"/>
     </row>
-    <row r="64" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="4" t="s">
         <v>221</v>
@@ -11830,16 +11922,16 @@
       <c r="M64" s="12">
         <v>0</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N64" s="12"/>
+      <c r="O64" s="9">
         <v>88995375.530000016</v>
       </c>
-      <c r="O64" s="13">
+      <c r="P64" s="13">
         <v>0.97811284447512858</v>
       </c>
-      <c r="P64" s="9">
+      <c r="Q64" s="9">
         <v>1991442.6399999857</v>
       </c>
-      <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
@@ -11898,8 +11990,8 @@
       <c r="BU64" s="9"/>
       <c r="BV64" s="9"/>
       <c r="BW64" s="9"/>
-      <c r="BX64" s="14"/>
-      <c r="BY64" s="9"/>
+      <c r="BX64" s="9"/>
+      <c r="BY64" s="14"/>
       <c r="BZ64" s="9"/>
       <c r="CA64" s="9"/>
       <c r="CB64" s="9"/>
@@ -11911,8 +12003,9 @@
       <c r="CH64" s="9"/>
       <c r="CI64" s="9"/>
       <c r="CJ64" s="9"/>
+      <c r="CK64" s="9"/>
     </row>
-    <row r="65" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="4" t="s">
         <v>223</v>
@@ -11950,16 +12043,16 @@
       <c r="M65" s="12">
         <v>0</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65" s="12"/>
+      <c r="O65" s="9">
         <v>35196032.93</v>
       </c>
-      <c r="O65" s="13">
+      <c r="P65" s="13">
         <v>0.95433387945279802</v>
       </c>
-      <c r="P65" s="9">
+      <c r="Q65" s="9">
         <v>1684176.0700000003</v>
       </c>
-      <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
@@ -12018,8 +12111,8 @@
       <c r="BU65" s="9"/>
       <c r="BV65" s="9"/>
       <c r="BW65" s="9"/>
-      <c r="BX65" s="14"/>
-      <c r="BY65" s="9"/>
+      <c r="BX65" s="9"/>
+      <c r="BY65" s="14"/>
       <c r="BZ65" s="9"/>
       <c r="CA65" s="9"/>
       <c r="CB65" s="9"/>
@@ -12031,8 +12124,9 @@
       <c r="CH65" s="9"/>
       <c r="CI65" s="9"/>
       <c r="CJ65" s="9"/>
+      <c r="CK65" s="9"/>
     </row>
-    <row r="66" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="4" t="s">
         <v>224</v>
@@ -12070,16 +12164,16 @@
       <c r="M66" s="12">
         <v>0</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="12"/>
+      <c r="O66" s="9">
         <v>19910338.670000002</v>
       </c>
-      <c r="O66" s="13">
+      <c r="P66" s="13">
         <v>0.98424001387554128</v>
       </c>
-      <c r="P66" s="9">
+      <c r="Q66" s="9">
         <v>318811.11999999732</v>
       </c>
-      <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
@@ -12138,8 +12232,8 @@
       <c r="BU66" s="9"/>
       <c r="BV66" s="9"/>
       <c r="BW66" s="9"/>
-      <c r="BX66" s="14"/>
-      <c r="BY66" s="9"/>
+      <c r="BX66" s="9"/>
+      <c r="BY66" s="14"/>
       <c r="BZ66" s="9"/>
       <c r="CA66" s="9"/>
       <c r="CB66" s="9"/>
@@ -12151,8 +12245,9 @@
       <c r="CH66" s="9"/>
       <c r="CI66" s="9"/>
       <c r="CJ66" s="9"/>
+      <c r="CK66" s="9"/>
     </row>
-    <row r="67" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="4" t="s">
         <v>226</v>
@@ -12190,16 +12285,16 @@
       <c r="M67" s="12">
         <v>0</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67" s="12"/>
+      <c r="O67" s="9">
         <v>56828.03</v>
       </c>
-      <c r="O67" s="13">
+      <c r="P67" s="13">
         <v>2.451832082536352E-2</v>
       </c>
-      <c r="P67" s="9">
+      <c r="Q67" s="9">
         <v>2260950.1900000004</v>
       </c>
-      <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
@@ -12258,8 +12353,8 @@
       <c r="BU67" s="9"/>
       <c r="BV67" s="9"/>
       <c r="BW67" s="9"/>
-      <c r="BX67" s="14"/>
-      <c r="BY67" s="9"/>
+      <c r="BX67" s="9"/>
+      <c r="BY67" s="14"/>
       <c r="BZ67" s="9"/>
       <c r="CA67" s="9"/>
       <c r="CB67" s="9"/>
@@ -12271,8 +12366,9 @@
       <c r="CH67" s="9"/>
       <c r="CI67" s="9"/>
       <c r="CJ67" s="9"/>
+      <c r="CK67" s="9"/>
     </row>
-    <row r="68" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="4" t="s">
         <v>228</v>
@@ -12308,16 +12404,16 @@
       <c r="M68" s="12">
         <v>0</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68" s="12"/>
+      <c r="O68" s="9">
         <v>4928388.09</v>
       </c>
-      <c r="O68" s="13">
+      <c r="P68" s="13">
         <v>1</v>
       </c>
-      <c r="P68" s="9">
+      <c r="Q68" s="9">
         <v>0</v>
       </c>
-      <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -12376,8 +12472,8 @@
       <c r="BU68" s="9"/>
       <c r="BV68" s="9"/>
       <c r="BW68" s="9"/>
-      <c r="BX68" s="14"/>
-      <c r="BY68" s="9"/>
+      <c r="BX68" s="9"/>
+      <c r="BY68" s="14"/>
       <c r="BZ68" s="9"/>
       <c r="CA68" s="9"/>
       <c r="CB68" s="9"/>
@@ -12389,8 +12485,9 @@
       <c r="CH68" s="9"/>
       <c r="CI68" s="9"/>
       <c r="CJ68" s="9"/>
+      <c r="CK68" s="9"/>
     </row>
-    <row r="69" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>22</v>
       </c>
@@ -12430,16 +12527,16 @@
       <c r="M69" s="12">
         <v>9076344.5100000016</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N69" s="12"/>
+      <c r="O69" s="9">
         <v>22442987.519999996</v>
       </c>
-      <c r="O69" s="13">
+      <c r="P69" s="13">
         <v>0.38673194614334244</v>
       </c>
-      <c r="P69" s="9">
+      <c r="Q69" s="9">
         <v>35589424.190000005</v>
       </c>
-      <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
@@ -12498,8 +12595,8 @@
       <c r="BU69" s="9"/>
       <c r="BV69" s="9"/>
       <c r="BW69" s="9"/>
-      <c r="BX69" s="33"/>
-      <c r="BY69" s="9"/>
+      <c r="BX69" s="9"/>
+      <c r="BY69" s="33"/>
       <c r="BZ69" s="9"/>
       <c r="CA69" s="9"/>
       <c r="CB69" s="9"/>
@@ -12511,8 +12608,9 @@
       <c r="CH69" s="9"/>
       <c r="CI69" s="9"/>
       <c r="CJ69" s="9"/>
+      <c r="CK69" s="9"/>
     </row>
-    <row r="70" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>23</v>
       </c>
@@ -12552,16 +12650,16 @@
       <c r="M70" s="12">
         <v>78082127.159999996</v>
       </c>
-      <c r="N70" s="9">
+      <c r="N70" s="12"/>
+      <c r="O70" s="9">
         <v>147280622.62</v>
       </c>
-      <c r="O70" s="13">
+      <c r="P70" s="13">
         <v>0.98989250050079258</v>
       </c>
-      <c r="P70" s="9">
+      <c r="Q70" s="9">
         <v>1503838.8700000048</v>
       </c>
-      <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -12620,8 +12718,8 @@
       <c r="BU70" s="9"/>
       <c r="BV70" s="9"/>
       <c r="BW70" s="9"/>
-      <c r="BX70" s="33"/>
-      <c r="BY70" s="9"/>
+      <c r="BX70" s="9"/>
+      <c r="BY70" s="33"/>
       <c r="BZ70" s="9"/>
       <c r="CA70" s="9"/>
       <c r="CB70" s="9"/>
@@ -12633,8 +12731,9 @@
       <c r="CH70" s="9"/>
       <c r="CI70" s="9"/>
       <c r="CJ70" s="9"/>
+      <c r="CK70" s="9"/>
     </row>
-    <row r="71" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>24</v>
       </c>
@@ -12674,16 +12773,16 @@
       <c r="M71" s="12">
         <v>0</v>
       </c>
-      <c r="N71" s="9">
+      <c r="N71" s="12"/>
+      <c r="O71" s="9">
         <v>2045374.3900000001</v>
       </c>
-      <c r="O71" s="13">
+      <c r="P71" s="13">
         <v>3.7679545216527E-2</v>
       </c>
-      <c r="P71" s="9">
+      <c r="Q71" s="9">
         <v>52238040.609999999</v>
       </c>
-      <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
@@ -12742,8 +12841,8 @@
       <c r="BU71" s="9"/>
       <c r="BV71" s="9"/>
       <c r="BW71" s="9"/>
-      <c r="BX71" s="33"/>
-      <c r="BY71" s="9"/>
+      <c r="BX71" s="9"/>
+      <c r="BY71" s="33"/>
       <c r="BZ71" s="9"/>
       <c r="CA71" s="9"/>
       <c r="CB71" s="9"/>
@@ -12755,8 +12854,9 @@
       <c r="CH71" s="9"/>
       <c r="CI71" s="9"/>
       <c r="CJ71" s="9"/>
+      <c r="CK71" s="9"/>
     </row>
-    <row r="72" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>25</v>
       </c>
@@ -12796,16 +12896,16 @@
       <c r="M72" s="12">
         <v>23400418.18</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72" s="12"/>
+      <c r="O72" s="9">
         <v>35796161.910000004</v>
       </c>
-      <c r="O72" s="13">
+      <c r="P72" s="13">
         <v>0.78051201740071507</v>
       </c>
-      <c r="P72" s="9">
+      <c r="Q72" s="9">
         <v>10066247.779999994</v>
       </c>
-      <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
@@ -12864,8 +12964,8 @@
       <c r="BU72" s="9"/>
       <c r="BV72" s="9"/>
       <c r="BW72" s="9"/>
-      <c r="BX72" s="33"/>
-      <c r="BY72" s="9"/>
+      <c r="BX72" s="9"/>
+      <c r="BY72" s="33"/>
       <c r="BZ72" s="9"/>
       <c r="CA72" s="9"/>
       <c r="CB72" s="9"/>
@@ -12877,8 +12977,9 @@
       <c r="CH72" s="9"/>
       <c r="CI72" s="9"/>
       <c r="CJ72" s="9"/>
+      <c r="CK72" s="9"/>
     </row>
-    <row r="73" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>26</v>
       </c>
@@ -12918,16 +13019,16 @@
       <c r="M73" s="12">
         <v>2395066.71</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73" s="12"/>
+      <c r="O73" s="9">
         <v>3584685.32</v>
       </c>
-      <c r="O73" s="13">
+      <c r="P73" s="13">
         <v>0.69489164194685227</v>
       </c>
-      <c r="P73" s="9">
+      <c r="Q73" s="9">
         <v>1573939.5699999998</v>
       </c>
-      <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
@@ -12986,8 +13087,8 @@
       <c r="BU73" s="9"/>
       <c r="BV73" s="9"/>
       <c r="BW73" s="9"/>
-      <c r="BX73" s="33"/>
-      <c r="BY73" s="9"/>
+      <c r="BX73" s="9"/>
+      <c r="BY73" s="33"/>
       <c r="BZ73" s="9"/>
       <c r="CA73" s="9"/>
       <c r="CB73" s="9"/>
@@ -12999,8 +13100,9 @@
       <c r="CH73" s="9"/>
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
+      <c r="CK73" s="9"/>
     </row>
-    <row r="74" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="4" t="s">
         <v>239</v>
@@ -13038,16 +13140,16 @@
       <c r="M74" s="12">
         <v>1834508.63</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="12"/>
+      <c r="O74" s="9">
         <v>1940441.71</v>
       </c>
-      <c r="O74" s="13">
+      <c r="P74" s="13">
         <v>6.995256736756085E-2</v>
       </c>
-      <c r="P74" s="9">
+      <c r="Q74" s="9">
         <v>25798950.609999999</v>
       </c>
-      <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
@@ -13106,8 +13208,8 @@
       <c r="BU74" s="9"/>
       <c r="BV74" s="9"/>
       <c r="BW74" s="9"/>
-      <c r="BX74" s="14"/>
-      <c r="BY74" s="9"/>
+      <c r="BX74" s="9"/>
+      <c r="BY74" s="14"/>
       <c r="BZ74" s="9"/>
       <c r="CA74" s="9"/>
       <c r="CB74" s="9"/>
@@ -13119,8 +13221,9 @@
       <c r="CH74" s="9"/>
       <c r="CI74" s="9"/>
       <c r="CJ74" s="9"/>
+      <c r="CK74" s="9"/>
     </row>
-    <row r="75" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>27</v>
       </c>
@@ -13160,16 +13263,16 @@
       <c r="M75" s="12">
         <v>33221220.629999995</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N75" s="12"/>
+      <c r="O75" s="9">
         <v>45451420.479999997</v>
       </c>
-      <c r="O75" s="13">
+      <c r="P75" s="13">
         <v>0.88401476813695412</v>
       </c>
-      <c r="P75" s="9">
+      <c r="Q75" s="9">
         <v>5963354.6100000069</v>
       </c>
-      <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
@@ -13228,8 +13331,8 @@
       <c r="BU75" s="9"/>
       <c r="BV75" s="9"/>
       <c r="BW75" s="9"/>
-      <c r="BX75" s="33"/>
-      <c r="BY75" s="9"/>
+      <c r="BX75" s="9"/>
+      <c r="BY75" s="33"/>
       <c r="BZ75" s="9"/>
       <c r="CA75" s="9"/>
       <c r="CB75" s="9"/>
@@ -13241,8 +13344,9 @@
       <c r="CH75" s="9"/>
       <c r="CI75" s="9"/>
       <c r="CJ75" s="9"/>
+      <c r="CK75" s="9"/>
     </row>
-    <row r="76" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>28</v>
       </c>
@@ -13282,16 +13386,16 @@
       <c r="M76" s="12">
         <v>2286082.54</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="12"/>
+      <c r="O76" s="9">
         <v>2286082.54</v>
       </c>
-      <c r="O76" s="13">
+      <c r="P76" s="13">
         <v>0.87861662402852392</v>
       </c>
-      <c r="P76" s="9">
+      <c r="Q76" s="9">
         <v>315828.7799999998</v>
       </c>
-      <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
@@ -13350,8 +13454,8 @@
       <c r="BU76" s="9"/>
       <c r="BV76" s="9"/>
       <c r="BW76" s="9"/>
-      <c r="BX76" s="33"/>
-      <c r="BY76" s="9"/>
+      <c r="BX76" s="9"/>
+      <c r="BY76" s="33"/>
       <c r="BZ76" s="9"/>
       <c r="CA76" s="9"/>
       <c r="CB76" s="9"/>
@@ -13363,8 +13467,9 @@
       <c r="CH76" s="9"/>
       <c r="CI76" s="9"/>
       <c r="CJ76" s="9"/>
+      <c r="CK76" s="9"/>
     </row>
-    <row r="77" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="4" t="s">
         <v>245</v>
@@ -13402,16 +13507,16 @@
       <c r="M77" s="12">
         <v>0</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="12"/>
+      <c r="O77" s="9">
         <v>5319860.6999999983</v>
       </c>
-      <c r="O77" s="13">
+      <c r="P77" s="13">
         <v>0.99224358916825661</v>
       </c>
-      <c r="P77" s="9">
+      <c r="Q77" s="9">
         <v>41585.580000001937</v>
       </c>
-      <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
@@ -13470,8 +13575,8 @@
       <c r="BU77" s="9"/>
       <c r="BV77" s="9"/>
       <c r="BW77" s="9"/>
-      <c r="BX77" s="14"/>
-      <c r="BY77" s="9"/>
+      <c r="BX77" s="9"/>
+      <c r="BY77" s="14"/>
       <c r="BZ77" s="9"/>
       <c r="CA77" s="9"/>
       <c r="CB77" s="9"/>
@@ -13483,8 +13588,9 @@
       <c r="CH77" s="9"/>
       <c r="CI77" s="9"/>
       <c r="CJ77" s="9"/>
+      <c r="CK77" s="9"/>
     </row>
-    <row r="78" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>29</v>
       </c>
@@ -13524,16 +13630,16 @@
       <c r="M78" s="12">
         <v>425261.39999999997</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N78" s="12"/>
+      <c r="O78" s="9">
         <v>425261.39999999997</v>
       </c>
-      <c r="O78" s="13">
+      <c r="P78" s="13">
         <v>0.78094027205705518</v>
       </c>
-      <c r="P78" s="9">
+      <c r="Q78" s="9">
         <v>119289.08000000002</v>
       </c>
-      <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
@@ -13592,8 +13698,8 @@
       <c r="BU78" s="9"/>
       <c r="BV78" s="9"/>
       <c r="BW78" s="9"/>
-      <c r="BX78" s="33"/>
-      <c r="BY78" s="9"/>
+      <c r="BX78" s="9"/>
+      <c r="BY78" s="33"/>
       <c r="BZ78" s="9"/>
       <c r="CA78" s="9"/>
       <c r="CB78" s="9"/>
@@ -13605,8 +13711,9 @@
       <c r="CH78" s="9"/>
       <c r="CI78" s="9"/>
       <c r="CJ78" s="9"/>
+      <c r="CK78" s="9"/>
     </row>
-    <row r="79" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>30</v>
       </c>
@@ -13646,16 +13753,16 @@
       <c r="M79" s="12">
         <v>19557304.370000001</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N79" s="12"/>
+      <c r="O79" s="9">
         <v>19844966.530000001</v>
       </c>
-      <c r="O79" s="13">
+      <c r="P79" s="13">
         <v>0.69729677815165103</v>
       </c>
-      <c r="P79" s="9">
+      <c r="Q79" s="9">
         <v>8614890.379999999</v>
       </c>
-      <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
@@ -13714,8 +13821,8 @@
       <c r="BU79" s="9"/>
       <c r="BV79" s="9"/>
       <c r="BW79" s="9"/>
-      <c r="BX79" s="33"/>
-      <c r="BY79" s="9"/>
+      <c r="BX79" s="9"/>
+      <c r="BY79" s="33"/>
       <c r="BZ79" s="9"/>
       <c r="CA79" s="9"/>
       <c r="CB79" s="9"/>
@@ -13727,8 +13834,9 @@
       <c r="CH79" s="9"/>
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
+      <c r="CK79" s="9"/>
     </row>
-    <row r="80" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>31</v>
       </c>
@@ -13768,16 +13876,16 @@
       <c r="M80" s="12">
         <v>5250302.04</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N80" s="12"/>
+      <c r="O80" s="9">
         <v>35877738.719999999</v>
       </c>
-      <c r="O80" s="13">
+      <c r="P80" s="13">
         <v>0.78462155312471193</v>
       </c>
-      <c r="P80" s="9">
+      <c r="Q80" s="9">
         <v>9848431.5300000012</v>
       </c>
-      <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -13836,8 +13944,8 @@
       <c r="BU80" s="9"/>
       <c r="BV80" s="9"/>
       <c r="BW80" s="9"/>
-      <c r="BX80" s="33"/>
-      <c r="BY80" s="9"/>
+      <c r="BX80" s="9"/>
+      <c r="BY80" s="33"/>
       <c r="BZ80" s="9"/>
       <c r="CA80" s="9"/>
       <c r="CB80" s="9"/>
@@ -13849,8 +13957,9 @@
       <c r="CH80" s="9"/>
       <c r="CI80" s="9"/>
       <c r="CJ80" s="9"/>
+      <c r="CK80" s="9"/>
     </row>
-    <row r="81" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>32</v>
       </c>
@@ -13890,16 +13999,16 @@
       <c r="M81" s="12">
         <v>8362397.1399999997</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N81" s="12"/>
+      <c r="O81" s="9">
         <v>42048979.520000003</v>
       </c>
-      <c r="O81" s="13">
+      <c r="P81" s="13">
         <v>0.96008910982970819</v>
       </c>
-      <c r="P81" s="9">
+      <c r="Q81" s="9">
         <v>1747975.4599999934</v>
       </c>
-      <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -13958,8 +14067,8 @@
       <c r="BU81" s="9"/>
       <c r="BV81" s="9"/>
       <c r="BW81" s="9"/>
-      <c r="BX81" s="33"/>
-      <c r="BY81" s="9"/>
+      <c r="BX81" s="9"/>
+      <c r="BY81" s="33"/>
       <c r="BZ81" s="9"/>
       <c r="CA81" s="9"/>
       <c r="CB81" s="9"/>
@@ -13971,8 +14080,9 @@
       <c r="CH81" s="9"/>
       <c r="CI81" s="9"/>
       <c r="CJ81" s="9"/>
+      <c r="CK81" s="9"/>
     </row>
-    <row r="82" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>33</v>
       </c>
@@ -14012,16 +14122,16 @@
       <c r="M82" s="12">
         <v>0</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82" s="12"/>
+      <c r="O82" s="9">
         <v>0</v>
       </c>
-      <c r="O82" s="13">
+      <c r="P82" s="13">
         <v>0</v>
       </c>
-      <c r="P82" s="9">
+      <c r="Q82" s="9">
         <v>41522873.420000002</v>
       </c>
-      <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
@@ -14080,8 +14190,8 @@
       <c r="BU82" s="9"/>
       <c r="BV82" s="9"/>
       <c r="BW82" s="9"/>
-      <c r="BX82" s="33"/>
-      <c r="BY82" s="9"/>
+      <c r="BX82" s="9"/>
+      <c r="BY82" s="33"/>
       <c r="BZ82" s="9"/>
       <c r="CA82" s="9"/>
       <c r="CB82" s="9"/>
@@ -14093,8 +14203,9 @@
       <c r="CH82" s="9"/>
       <c r="CI82" s="9"/>
       <c r="CJ82" s="9"/>
+      <c r="CK82" s="9"/>
     </row>
-    <row r="83" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="4" t="s">
         <v>255</v>
@@ -14132,16 +14243,16 @@
       <c r="M83" s="12">
         <v>0</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="12"/>
+      <c r="O83" s="9">
         <v>7148655.6200000001</v>
       </c>
-      <c r="O83" s="13">
+      <c r="P83" s="13">
         <v>0.99901215172430657</v>
       </c>
-      <c r="P83" s="9">
+      <c r="Q83" s="9">
         <v>7068.769999999553</v>
       </c>
-      <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
@@ -14200,8 +14311,8 @@
       <c r="BU83" s="9"/>
       <c r="BV83" s="9"/>
       <c r="BW83" s="9"/>
-      <c r="BX83" s="14"/>
-      <c r="BY83" s="9"/>
+      <c r="BX83" s="9"/>
+      <c r="BY83" s="14"/>
       <c r="BZ83" s="9"/>
       <c r="CA83" s="9"/>
       <c r="CB83" s="9"/>
@@ -14213,8 +14324,9 @@
       <c r="CH83" s="9"/>
       <c r="CI83" s="9"/>
       <c r="CJ83" s="9"/>
+      <c r="CK83" s="9"/>
     </row>
-    <row r="84" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>34</v>
       </c>
@@ -14254,16 +14366,16 @@
       <c r="M84" s="12">
         <v>4600873.3500000006</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="12"/>
+      <c r="O84" s="9">
         <v>5991696.6599999992</v>
       </c>
-      <c r="O84" s="13">
+      <c r="P84" s="13">
         <v>0.88560255406636001</v>
       </c>
-      <c r="P84" s="9">
+      <c r="Q84" s="9">
         <v>773975.63000000082</v>
       </c>
-      <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
@@ -14322,8 +14434,8 @@
       <c r="BU84" s="9"/>
       <c r="BV84" s="9"/>
       <c r="BW84" s="9"/>
-      <c r="BX84" s="33"/>
-      <c r="BY84" s="9"/>
+      <c r="BX84" s="9"/>
+      <c r="BY84" s="33"/>
       <c r="BZ84" s="9"/>
       <c r="CA84" s="9"/>
       <c r="CB84" s="9"/>
@@ -14335,8 +14447,9 @@
       <c r="CH84" s="9"/>
       <c r="CI84" s="9"/>
       <c r="CJ84" s="9"/>
+      <c r="CK84" s="9"/>
     </row>
-    <row r="85" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="4" t="s">
         <v>259</v>
@@ -14374,16 +14487,16 @@
       <c r="M85" s="12">
         <v>0</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="12"/>
+      <c r="O85" s="9">
         <v>1923627.2400000002</v>
       </c>
-      <c r="O85" s="13">
+      <c r="P85" s="13">
         <v>1</v>
       </c>
-      <c r="P85" s="9">
+      <c r="Q85" s="9">
         <v>-1.0000000242143869E-2</v>
       </c>
-      <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
       <c r="T85" s="9"/>
@@ -14442,8 +14555,8 @@
       <c r="BU85" s="9"/>
       <c r="BV85" s="9"/>
       <c r="BW85" s="9"/>
-      <c r="BX85" s="14"/>
-      <c r="BY85" s="9"/>
+      <c r="BX85" s="9"/>
+      <c r="BY85" s="14"/>
       <c r="BZ85" s="9"/>
       <c r="CA85" s="9"/>
       <c r="CB85" s="9"/>
@@ -14455,8 +14568,9 @@
       <c r="CH85" s="9"/>
       <c r="CI85" s="9"/>
       <c r="CJ85" s="9"/>
+      <c r="CK85" s="9"/>
     </row>
-    <row r="86" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="4" t="s">
         <v>262</v>
@@ -14494,16 +14608,16 @@
       <c r="M86" s="12">
         <v>0</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N86" s="12"/>
+      <c r="O86" s="9">
         <v>127835.64</v>
       </c>
-      <c r="O86" s="13">
+      <c r="P86" s="13">
         <v>0.76207843441641265</v>
       </c>
-      <c r="P86" s="9">
+      <c r="Q86" s="9">
         <v>16646768.42</v>
       </c>
-      <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
@@ -14562,8 +14676,8 @@
       <c r="BU86" s="9"/>
       <c r="BV86" s="9"/>
       <c r="BW86" s="9"/>
-      <c r="BX86" s="14"/>
-      <c r="BY86" s="9"/>
+      <c r="BX86" s="9"/>
+      <c r="BY86" s="14"/>
       <c r="BZ86" s="9"/>
       <c r="CA86" s="9"/>
       <c r="CB86" s="9"/>
@@ -14575,8 +14689,9 @@
       <c r="CH86" s="9"/>
       <c r="CI86" s="9"/>
       <c r="CJ86" s="9"/>
+      <c r="CK86" s="9"/>
     </row>
-    <row r="87" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>35</v>
       </c>
@@ -14616,16 +14731,16 @@
       <c r="M87" s="12">
         <v>2715707.77</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="12"/>
+      <c r="O87" s="9">
         <v>13115141.030000001</v>
       </c>
-      <c r="O87" s="13">
+      <c r="P87" s="13">
         <v>0.70141750042895779</v>
       </c>
-      <c r="P87" s="9">
+      <c r="Q87" s="9">
         <v>5582911.1600000001</v>
       </c>
-      <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -14684,8 +14799,8 @@
       <c r="BU87" s="9"/>
       <c r="BV87" s="9"/>
       <c r="BW87" s="9"/>
-      <c r="BX87" s="33"/>
-      <c r="BY87" s="9"/>
+      <c r="BX87" s="9"/>
+      <c r="BY87" s="33"/>
       <c r="BZ87" s="9"/>
       <c r="CA87" s="9"/>
       <c r="CB87" s="9"/>
@@ -14697,8 +14812,9 @@
       <c r="CH87" s="9"/>
       <c r="CI87" s="9"/>
       <c r="CJ87" s="9"/>
+      <c r="CK87" s="9"/>
     </row>
-    <row r="88" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>36</v>
       </c>
@@ -14738,16 +14854,16 @@
       <c r="M88" s="12">
         <v>3124707.18</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="12"/>
+      <c r="O88" s="9">
         <v>14219584.479999999</v>
       </c>
-      <c r="O88" s="13">
+      <c r="P88" s="13">
         <v>0.53650126783934493</v>
       </c>
-      <c r="P88" s="9">
+      <c r="Q88" s="9">
         <v>12284704.200000001</v>
       </c>
-      <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -14806,8 +14922,8 @@
       <c r="BU88" s="9"/>
       <c r="BV88" s="9"/>
       <c r="BW88" s="9"/>
-      <c r="BX88" s="33"/>
-      <c r="BY88" s="9"/>
+      <c r="BX88" s="9"/>
+      <c r="BY88" s="33"/>
       <c r="BZ88" s="9"/>
       <c r="CA88" s="9"/>
       <c r="CB88" s="9"/>
@@ -14819,8 +14935,9 @@
       <c r="CH88" s="9"/>
       <c r="CI88" s="9"/>
       <c r="CJ88" s="9"/>
+      <c r="CK88" s="9"/>
     </row>
-    <row r="89" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>37</v>
       </c>
@@ -14860,16 +14977,16 @@
       <c r="M89" s="12">
         <v>6197590.2599999998</v>
       </c>
-      <c r="N89" s="9">
+      <c r="N89" s="12"/>
+      <c r="O89" s="9">
         <v>15889085.540000001</v>
       </c>
-      <c r="O89" s="13">
+      <c r="P89" s="13">
         <v>0.78696037677270836</v>
       </c>
-      <c r="P89" s="9">
+      <c r="Q89" s="9">
         <v>4301366.24</v>
       </c>
-      <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
@@ -14928,8 +15045,8 @@
       <c r="BU89" s="9"/>
       <c r="BV89" s="9"/>
       <c r="BW89" s="9"/>
-      <c r="BX89" s="33"/>
-      <c r="BY89" s="9"/>
+      <c r="BX89" s="9"/>
+      <c r="BY89" s="33"/>
       <c r="BZ89" s="9"/>
       <c r="CA89" s="9"/>
       <c r="CB89" s="9"/>
@@ -14941,8 +15058,9 @@
       <c r="CH89" s="9"/>
       <c r="CI89" s="9"/>
       <c r="CJ89" s="9"/>
+      <c r="CK89" s="9"/>
     </row>
-    <row r="90" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="4" t="s">
         <v>267</v>
@@ -14980,16 +15098,16 @@
       <c r="M90" s="12">
         <v>0</v>
       </c>
-      <c r="N90" s="9">
+      <c r="N90" s="12"/>
+      <c r="O90" s="9">
         <v>0</v>
       </c>
-      <c r="O90" s="13">
+      <c r="P90" s="13">
         <v>0</v>
       </c>
-      <c r="P90" s="9">
+      <c r="Q90" s="9">
         <v>6784130.4400000004</v>
       </c>
-      <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
@@ -15048,8 +15166,8 @@
       <c r="BU90" s="9"/>
       <c r="BV90" s="9"/>
       <c r="BW90" s="9"/>
-      <c r="BX90" s="14"/>
-      <c r="BY90" s="9"/>
+      <c r="BX90" s="9"/>
+      <c r="BY90" s="14"/>
       <c r="BZ90" s="9"/>
       <c r="CA90" s="9"/>
       <c r="CB90" s="9"/>
@@ -15061,8 +15179,9 @@
       <c r="CH90" s="9"/>
       <c r="CI90" s="9"/>
       <c r="CJ90" s="9"/>
+      <c r="CK90" s="9"/>
     </row>
-    <row r="91" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="4" t="s">
         <v>268</v>
@@ -15100,16 +15219,16 @@
       <c r="M91" s="12">
         <v>0</v>
       </c>
-      <c r="N91" s="9">
+      <c r="N91" s="12"/>
+      <c r="O91" s="9">
         <v>30456294.330000002</v>
       </c>
-      <c r="O91" s="13">
+      <c r="P91" s="13">
         <v>0.99530376847551405</v>
       </c>
-      <c r="P91" s="9">
+      <c r="Q91" s="9">
         <v>143704.6799999997</v>
       </c>
-      <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
       <c r="S91" s="9"/>
       <c r="T91" s="9"/>
@@ -15168,8 +15287,8 @@
       <c r="BU91" s="9"/>
       <c r="BV91" s="9"/>
       <c r="BW91" s="9"/>
-      <c r="BX91" s="14"/>
-      <c r="BY91" s="9"/>
+      <c r="BX91" s="9"/>
+      <c r="BY91" s="14"/>
       <c r="BZ91" s="9"/>
       <c r="CA91" s="9"/>
       <c r="CB91" s="9"/>
@@ -15181,8 +15300,9 @@
       <c r="CH91" s="9"/>
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
+      <c r="CK91" s="9"/>
     </row>
-    <row r="92" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>38</v>
       </c>
@@ -15222,16 +15342,16 @@
       <c r="M92" s="12">
         <v>959686.40999999992</v>
       </c>
-      <c r="N92" s="9">
+      <c r="N92" s="12"/>
+      <c r="O92" s="9">
         <v>7571952.2800000012</v>
       </c>
-      <c r="O92" s="13">
+      <c r="P92" s="13">
         <v>0.97130349876731303</v>
       </c>
-      <c r="P92" s="9">
+      <c r="Q92" s="9">
         <v>223708.17999999877</v>
       </c>
-      <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
@@ -15290,8 +15410,8 @@
       <c r="BU92" s="9"/>
       <c r="BV92" s="9"/>
       <c r="BW92" s="9"/>
-      <c r="BX92" s="33"/>
-      <c r="BY92" s="9"/>
+      <c r="BX92" s="9"/>
+      <c r="BY92" s="33"/>
       <c r="BZ92" s="9"/>
       <c r="CA92" s="9"/>
       <c r="CB92" s="9"/>
@@ -15303,8 +15423,9 @@
       <c r="CH92" s="9"/>
       <c r="CI92" s="9"/>
       <c r="CJ92" s="9"/>
+      <c r="CK92" s="9"/>
     </row>
-    <row r="93" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="4" t="s">
         <v>271</v>
@@ -15342,16 +15463,16 @@
       <c r="M93" s="12">
         <v>0</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N93" s="12"/>
+      <c r="O93" s="9">
         <v>26930984.009999994</v>
       </c>
-      <c r="O93" s="13">
+      <c r="P93" s="13">
         <v>0.99941679870361666</v>
       </c>
-      <c r="P93" s="9">
+      <c r="Q93" s="9">
         <v>15715.350000005215</v>
       </c>
-      <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
       <c r="S93" s="9"/>
       <c r="T93" s="9"/>
@@ -15410,8 +15531,8 @@
       <c r="BU93" s="9"/>
       <c r="BV93" s="9"/>
       <c r="BW93" s="9"/>
-      <c r="BX93" s="14"/>
-      <c r="BY93" s="9"/>
+      <c r="BX93" s="9"/>
+      <c r="BY93" s="14"/>
       <c r="BZ93" s="9"/>
       <c r="CA93" s="9"/>
       <c r="CB93" s="9"/>
@@ -15423,8 +15544,9 @@
       <c r="CH93" s="9"/>
       <c r="CI93" s="9"/>
       <c r="CJ93" s="9"/>
+      <c r="CK93" s="9"/>
     </row>
-    <row r="94" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="4" t="s">
         <v>273</v>
@@ -15462,16 +15584,16 @@
       <c r="M94" s="12">
         <v>0</v>
       </c>
-      <c r="N94" s="9">
+      <c r="N94" s="12"/>
+      <c r="O94" s="9">
         <v>5996889.6800000006</v>
       </c>
-      <c r="O94" s="13">
+      <c r="P94" s="13">
         <v>0.9970263080979328</v>
       </c>
-      <c r="P94" s="9">
+      <c r="Q94" s="9">
         <v>17886.08999999892</v>
       </c>
-      <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
       <c r="S94" s="9"/>
       <c r="T94" s="9"/>
@@ -15530,8 +15652,8 @@
       <c r="BU94" s="9"/>
       <c r="BV94" s="9"/>
       <c r="BW94" s="9"/>
-      <c r="BX94" s="14"/>
-      <c r="BY94" s="9"/>
+      <c r="BX94" s="9"/>
+      <c r="BY94" s="14"/>
       <c r="BZ94" s="9"/>
       <c r="CA94" s="9"/>
       <c r="CB94" s="9"/>
@@ -15543,8 +15665,9 @@
       <c r="CH94" s="9"/>
       <c r="CI94" s="9"/>
       <c r="CJ94" s="9"/>
+      <c r="CK94" s="9"/>
     </row>
-    <row r="95" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="4" t="s">
         <v>274</v>
@@ -15582,16 +15705,16 @@
       <c r="M95" s="12">
         <v>0</v>
       </c>
-      <c r="N95" s="9">
+      <c r="N95" s="12"/>
+      <c r="O95" s="9">
         <v>3538001.1599999997</v>
       </c>
-      <c r="O95" s="13">
+      <c r="P95" s="13">
         <v>0.99126015065260953</v>
       </c>
-      <c r="P95" s="9">
+      <c r="Q95" s="9">
         <v>31194.230000000447</v>
       </c>
-      <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
@@ -15650,8 +15773,8 @@
       <c r="BU95" s="9"/>
       <c r="BV95" s="9"/>
       <c r="BW95" s="9"/>
-      <c r="BX95" s="14"/>
-      <c r="BY95" s="9"/>
+      <c r="BX95" s="9"/>
+      <c r="BY95" s="14"/>
       <c r="BZ95" s="9"/>
       <c r="CA95" s="9"/>
       <c r="CB95" s="9"/>
@@ -15663,8 +15786,9 @@
       <c r="CH95" s="9"/>
       <c r="CI95" s="9"/>
       <c r="CJ95" s="9"/>
+      <c r="CK95" s="9"/>
     </row>
-    <row r="96" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>39</v>
       </c>
@@ -15704,16 +15828,16 @@
       <c r="M96" s="12">
         <v>4381697.88</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N96" s="12"/>
+      <c r="O96" s="9">
         <v>4381697.88</v>
       </c>
-      <c r="O96" s="13">
+      <c r="P96" s="13">
         <v>0.62003682582141539</v>
       </c>
-      <c r="P96" s="9">
+      <c r="Q96" s="9">
         <v>2685137.0200000005</v>
       </c>
-      <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
       <c r="S96" s="9"/>
       <c r="T96" s="9"/>
@@ -15772,8 +15896,8 @@
       <c r="BU96" s="9"/>
       <c r="BV96" s="9"/>
       <c r="BW96" s="9"/>
-      <c r="BX96" s="33"/>
-      <c r="BY96" s="9"/>
+      <c r="BX96" s="9"/>
+      <c r="BY96" s="33"/>
       <c r="BZ96" s="9"/>
       <c r="CA96" s="9"/>
       <c r="CB96" s="9"/>
@@ -15785,8 +15909,9 @@
       <c r="CH96" s="9"/>
       <c r="CI96" s="9"/>
       <c r="CJ96" s="9"/>
+      <c r="CK96" s="9"/>
     </row>
-    <row r="97" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="4" t="s">
         <v>278</v>
@@ -15824,16 +15949,16 @@
       <c r="M97" s="12">
         <v>1612016.3299999998</v>
       </c>
-      <c r="N97" s="9">
+      <c r="N97" s="12"/>
+      <c r="O97" s="9">
         <v>1612016.3299999998</v>
       </c>
-      <c r="O97" s="13">
+      <c r="P97" s="13">
         <v>0.99991421418428073</v>
       </c>
-      <c r="P97" s="9">
+      <c r="Q97" s="9">
         <v>138.30000000004657</v>
       </c>
-      <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
@@ -15892,8 +16017,8 @@
       <c r="BU97" s="9"/>
       <c r="BV97" s="9"/>
       <c r="BW97" s="9"/>
-      <c r="BX97" s="14"/>
-      <c r="BY97" s="9"/>
+      <c r="BX97" s="9"/>
+      <c r="BY97" s="14"/>
       <c r="BZ97" s="9"/>
       <c r="CA97" s="9"/>
       <c r="CB97" s="9"/>
@@ -15905,8 +16030,9 @@
       <c r="CH97" s="9"/>
       <c r="CI97" s="9"/>
       <c r="CJ97" s="9"/>
+      <c r="CK97" s="9"/>
     </row>
-    <row r="98" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <v>40</v>
       </c>
@@ -15946,16 +16072,16 @@
       <c r="M98" s="12">
         <v>2420969.38</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N98" s="12"/>
+      <c r="O98" s="9">
         <v>2420969.38</v>
       </c>
-      <c r="O98" s="13">
+      <c r="P98" s="13">
         <v>0.23392386008833302</v>
       </c>
-      <c r="P98" s="9">
+      <c r="Q98" s="9">
         <v>7928421.1399999997</v>
       </c>
-      <c r="Q98" s="9"/>
       <c r="R98" s="9"/>
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
@@ -16014,8 +16140,8 @@
       <c r="BU98" s="9"/>
       <c r="BV98" s="9"/>
       <c r="BW98" s="9"/>
-      <c r="BX98" s="33"/>
-      <c r="BY98" s="9"/>
+      <c r="BX98" s="9"/>
+      <c r="BY98" s="33"/>
       <c r="BZ98" s="9"/>
       <c r="CA98" s="9"/>
       <c r="CB98" s="9"/>
@@ -16027,8 +16153,9 @@
       <c r="CH98" s="9"/>
       <c r="CI98" s="9"/>
       <c r="CJ98" s="9"/>
+      <c r="CK98" s="9"/>
     </row>
-    <row r="99" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="4" t="s">
         <v>283</v>
@@ -16066,16 +16193,16 @@
       <c r="M99" s="12">
         <v>21884193.460000001</v>
       </c>
-      <c r="N99" s="9">
+      <c r="N99" s="12"/>
+      <c r="O99" s="9">
         <v>25102277.930000003</v>
       </c>
-      <c r="O99" s="13">
+      <c r="P99" s="13">
         <v>0.99692091623824086</v>
       </c>
-      <c r="P99" s="9">
+      <c r="Q99" s="9">
         <v>77530.739999998361</v>
       </c>
-      <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
@@ -16134,8 +16261,8 @@
       <c r="BU99" s="9"/>
       <c r="BV99" s="9"/>
       <c r="BW99" s="9"/>
-      <c r="BX99" s="14"/>
-      <c r="BY99" s="9"/>
+      <c r="BX99" s="9"/>
+      <c r="BY99" s="14"/>
       <c r="BZ99" s="9"/>
       <c r="CA99" s="9"/>
       <c r="CB99" s="9"/>
@@ -16147,8 +16274,9 @@
       <c r="CH99" s="9"/>
       <c r="CI99" s="9"/>
       <c r="CJ99" s="9"/>
+      <c r="CK99" s="9"/>
     </row>
-    <row r="100" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="4" t="s">
         <v>285</v>
@@ -16186,16 +16314,16 @@
       <c r="M100" s="12">
         <v>666913.68000000005</v>
       </c>
-      <c r="N100" s="9">
+      <c r="N100" s="12"/>
+      <c r="O100" s="9">
         <v>666913.68000000005</v>
       </c>
-      <c r="O100" s="13">
+      <c r="P100" s="13">
         <v>1</v>
       </c>
-      <c r="P100" s="9">
+      <c r="Q100" s="9">
         <v>0</v>
       </c>
-      <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
@@ -16254,8 +16382,8 @@
       <c r="BU100" s="9"/>
       <c r="BV100" s="9"/>
       <c r="BW100" s="9"/>
-      <c r="BX100" s="14"/>
-      <c r="BY100" s="9"/>
+      <c r="BX100" s="9"/>
+      <c r="BY100" s="14"/>
       <c r="BZ100" s="9"/>
       <c r="CA100" s="9"/>
       <c r="CB100" s="9"/>
@@ -16267,8 +16395,9 @@
       <c r="CH100" s="9"/>
       <c r="CI100" s="9"/>
       <c r="CJ100" s="9"/>
+      <c r="CK100" s="9"/>
     </row>
-    <row r="101" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>41</v>
       </c>
@@ -16308,16 +16437,16 @@
       <c r="M101" s="12">
         <v>548089.30999999994</v>
       </c>
-      <c r="N101" s="9">
+      <c r="N101" s="12"/>
+      <c r="O101" s="9">
         <v>548089.30999999994</v>
       </c>
-      <c r="O101" s="13">
+      <c r="P101" s="13">
         <v>0.71806633136424369</v>
       </c>
-      <c r="P101" s="9">
+      <c r="Q101" s="9">
         <v>215195.76</v>
       </c>
-      <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
@@ -16376,8 +16505,8 @@
       <c r="BU101" s="9"/>
       <c r="BV101" s="9"/>
       <c r="BW101" s="9"/>
-      <c r="BX101" s="33"/>
-      <c r="BY101" s="9"/>
+      <c r="BX101" s="9"/>
+      <c r="BY101" s="33"/>
       <c r="BZ101" s="9"/>
       <c r="CA101" s="9"/>
       <c r="CB101" s="9"/>
@@ -16389,8 +16518,9 @@
       <c r="CH101" s="9"/>
       <c r="CI101" s="9"/>
       <c r="CJ101" s="9"/>
+      <c r="CK101" s="9"/>
     </row>
-    <row r="102" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="4" t="s">
         <v>287</v>
@@ -16428,16 +16558,16 @@
       <c r="M102" s="12">
         <v>164482.69</v>
       </c>
-      <c r="N102" s="9">
+      <c r="N102" s="12"/>
+      <c r="O102" s="9">
         <v>164482.69</v>
       </c>
-      <c r="O102" s="13">
+      <c r="P102" s="13">
         <v>0.64097474734071724</v>
       </c>
-      <c r="P102" s="9">
+      <c r="Q102" s="9">
         <v>92130.68</v>
       </c>
-      <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
@@ -16496,8 +16626,8 @@
       <c r="BU102" s="9"/>
       <c r="BV102" s="9"/>
       <c r="BW102" s="9"/>
-      <c r="BX102" s="14"/>
-      <c r="BY102" s="9"/>
+      <c r="BX102" s="9"/>
+      <c r="BY102" s="14"/>
       <c r="BZ102" s="9"/>
       <c r="CA102" s="9"/>
       <c r="CB102" s="9"/>
@@ -16509,8 +16639,9 @@
       <c r="CH102" s="9"/>
       <c r="CI102" s="9"/>
       <c r="CJ102" s="9"/>
+      <c r="CK102" s="9"/>
     </row>
-    <row r="103" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>42</v>
       </c>
@@ -16550,16 +16681,16 @@
       <c r="M103" s="12">
         <v>0</v>
       </c>
-      <c r="N103" s="9">
+      <c r="N103" s="12"/>
+      <c r="O103" s="9">
         <v>0</v>
       </c>
-      <c r="O103" s="13">
+      <c r="P103" s="13">
         <v>0</v>
       </c>
-      <c r="P103" s="9">
+      <c r="Q103" s="9">
         <v>2742607.66</v>
       </c>
-      <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
@@ -16618,8 +16749,8 @@
       <c r="BU103" s="9"/>
       <c r="BV103" s="9"/>
       <c r="BW103" s="9"/>
-      <c r="BX103" s="33"/>
-      <c r="BY103" s="9"/>
+      <c r="BX103" s="9"/>
+      <c r="BY103" s="33"/>
       <c r="BZ103" s="9"/>
       <c r="CA103" s="9"/>
       <c r="CB103" s="9"/>
@@ -16631,8 +16762,9 @@
       <c r="CH103" s="9"/>
       <c r="CI103" s="9"/>
       <c r="CJ103" s="9"/>
+      <c r="CK103" s="9"/>
     </row>
-    <row r="104" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="4" t="s">
         <v>293</v>
@@ -16670,16 +16802,16 @@
       <c r="M104" s="12">
         <v>0</v>
       </c>
-      <c r="N104" s="9">
+      <c r="N104" s="12"/>
+      <c r="O104" s="9">
         <v>1006235.15</v>
       </c>
-      <c r="O104" s="13">
+      <c r="P104" s="13">
         <v>0.95627955547345767</v>
       </c>
-      <c r="P104" s="9">
+      <c r="Q104" s="9">
         <v>46004.380000000005</v>
       </c>
-      <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
@@ -16738,8 +16870,8 @@
       <c r="BU104" s="9"/>
       <c r="BV104" s="9"/>
       <c r="BW104" s="9"/>
-      <c r="BX104" s="14"/>
-      <c r="BY104" s="9"/>
+      <c r="BX104" s="9"/>
+      <c r="BY104" s="14"/>
       <c r="BZ104" s="9"/>
       <c r="CA104" s="9"/>
       <c r="CB104" s="9"/>
@@ -16751,8 +16883,9 @@
       <c r="CH104" s="9"/>
       <c r="CI104" s="9"/>
       <c r="CJ104" s="9"/>
+      <c r="CK104" s="9"/>
     </row>
-    <row r="105" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="4" t="s">
         <v>297</v>
@@ -16790,16 +16923,16 @@
       <c r="M105" s="12">
         <v>0</v>
       </c>
-      <c r="N105" s="9">
+      <c r="N105" s="12"/>
+      <c r="O105" s="9">
         <v>13180256.4</v>
       </c>
-      <c r="O105" s="13">
+      <c r="P105" s="13">
         <v>0.89158728793296915</v>
       </c>
-      <c r="P105" s="9">
+      <c r="Q105" s="9">
         <v>1602655.58</v>
       </c>
-      <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
@@ -16858,8 +16991,8 @@
       <c r="BU105" s="9"/>
       <c r="BV105" s="9"/>
       <c r="BW105" s="9"/>
-      <c r="BX105" s="14"/>
-      <c r="BY105" s="9"/>
+      <c r="BX105" s="9"/>
+      <c r="BY105" s="14"/>
       <c r="BZ105" s="9"/>
       <c r="CA105" s="9"/>
       <c r="CB105" s="9"/>
@@ -16871,8 +17004,9 @@
       <c r="CH105" s="9"/>
       <c r="CI105" s="9"/>
       <c r="CJ105" s="9"/>
+      <c r="CK105" s="9"/>
     </row>
-    <row r="106" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <v>43</v>
       </c>
@@ -16912,16 +17046,16 @@
       <c r="M106" s="12">
         <v>1367123.81</v>
       </c>
-      <c r="N106" s="9">
+      <c r="N106" s="12"/>
+      <c r="O106" s="9">
         <v>2301268.7200000002</v>
       </c>
-      <c r="O106" s="13">
+      <c r="P106" s="13">
         <v>0.15136457559011715</v>
       </c>
-      <c r="P106" s="9">
+      <c r="Q106" s="9">
         <v>12902214.069999998</v>
       </c>
-      <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
@@ -16980,8 +17114,8 @@
       <c r="BU106" s="9"/>
       <c r="BV106" s="9"/>
       <c r="BW106" s="9"/>
-      <c r="BX106" s="33"/>
-      <c r="BY106" s="9"/>
+      <c r="BX106" s="9"/>
+      <c r="BY106" s="33"/>
       <c r="BZ106" s="9"/>
       <c r="CA106" s="9"/>
       <c r="CB106" s="9"/>
@@ -16993,8 +17127,9 @@
       <c r="CH106" s="9"/>
       <c r="CI106" s="9"/>
       <c r="CJ106" s="9"/>
+      <c r="CK106" s="9"/>
     </row>
-    <row r="107" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <v>44</v>
       </c>
@@ -17034,16 +17169,16 @@
       <c r="M107" s="12">
         <v>710964.03</v>
       </c>
-      <c r="N107" s="9">
+      <c r="N107" s="12"/>
+      <c r="O107" s="9">
         <v>12888606.560000002</v>
       </c>
-      <c r="O107" s="13">
+      <c r="P107" s="13">
         <v>0.95084147291771626</v>
       </c>
-      <c r="P107" s="9">
+      <c r="Q107" s="9">
         <v>666341.26999999769</v>
       </c>
-      <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
       <c r="T107" s="9"/>
@@ -17102,8 +17237,8 @@
       <c r="BU107" s="9"/>
       <c r="BV107" s="9"/>
       <c r="BW107" s="9"/>
-      <c r="BX107" s="33"/>
-      <c r="BY107" s="9"/>
+      <c r="BX107" s="9"/>
+      <c r="BY107" s="33"/>
       <c r="BZ107" s="9"/>
       <c r="CA107" s="9"/>
       <c r="CB107" s="9"/>
@@ -17115,8 +17250,9 @@
       <c r="CH107" s="9"/>
       <c r="CI107" s="9"/>
       <c r="CJ107" s="9"/>
+      <c r="CK107" s="9"/>
     </row>
-    <row r="108" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="4" t="s">
         <v>304</v>
@@ -17154,16 +17290,16 @@
       <c r="M108" s="12">
         <v>0</v>
       </c>
-      <c r="N108" s="9">
+      <c r="N108" s="12"/>
+      <c r="O108" s="9">
         <v>296101.87</v>
       </c>
-      <c r="O108" s="13">
+      <c r="P108" s="13">
         <v>2.1648256362913881E-2</v>
       </c>
-      <c r="P108" s="9">
+      <c r="Q108" s="9">
         <v>13381760.450000001</v>
       </c>
-      <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
@@ -17222,8 +17358,8 @@
       <c r="BU108" s="9"/>
       <c r="BV108" s="9"/>
       <c r="BW108" s="9"/>
-      <c r="BX108" s="14"/>
-      <c r="BY108" s="9"/>
+      <c r="BX108" s="9"/>
+      <c r="BY108" s="14"/>
       <c r="BZ108" s="9"/>
       <c r="CA108" s="9"/>
       <c r="CB108" s="9"/>
@@ -17235,8 +17371,9 @@
       <c r="CH108" s="9"/>
       <c r="CI108" s="9"/>
       <c r="CJ108" s="9"/>
+      <c r="CK108" s="9"/>
     </row>
-    <row r="109" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="4" t="s">
         <v>305</v>
@@ -17274,16 +17411,16 @@
       <c r="M109" s="12">
         <v>0</v>
       </c>
-      <c r="N109" s="9">
+      <c r="N109" s="12"/>
+      <c r="O109" s="9">
         <v>54872063.399999991</v>
       </c>
-      <c r="O109" s="13">
+      <c r="P109" s="13">
         <v>0.97662922625664295</v>
       </c>
-      <c r="P109" s="9">
+      <c r="Q109" s="9">
         <v>1313090.5200000107</v>
       </c>
-      <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
       <c r="T109" s="9"/>
@@ -17342,8 +17479,8 @@
       <c r="BU109" s="9"/>
       <c r="BV109" s="9"/>
       <c r="BW109" s="9"/>
-      <c r="BX109" s="14"/>
-      <c r="BY109" s="9"/>
+      <c r="BX109" s="9"/>
+      <c r="BY109" s="14"/>
       <c r="BZ109" s="9"/>
       <c r="CA109" s="9"/>
       <c r="CB109" s="9"/>
@@ -17355,8 +17492,9 @@
       <c r="CH109" s="9"/>
       <c r="CI109" s="9"/>
       <c r="CJ109" s="9"/>
+      <c r="CK109" s="9"/>
     </row>
-    <row r="110" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <v>45</v>
       </c>
@@ -17396,16 +17534,16 @@
       <c r="M110" s="12">
         <v>55173009.469999999</v>
       </c>
-      <c r="N110" s="9">
+      <c r="N110" s="12"/>
+      <c r="O110" s="9">
         <v>61911151.039999999</v>
       </c>
-      <c r="O110" s="13">
+      <c r="P110" s="13">
         <v>0.82980111294866332</v>
       </c>
-      <c r="P110" s="9">
+      <c r="Q110" s="9">
         <v>12698475.380000003</v>
       </c>
-      <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
       <c r="T110" s="9"/>
@@ -17464,8 +17602,8 @@
       <c r="BU110" s="9"/>
       <c r="BV110" s="9"/>
       <c r="BW110" s="9"/>
-      <c r="BX110" s="33"/>
-      <c r="BY110" s="9"/>
+      <c r="BX110" s="9"/>
+      <c r="BY110" s="33"/>
       <c r="BZ110" s="9"/>
       <c r="CA110" s="9"/>
       <c r="CB110" s="9"/>
@@ -17477,8 +17615,9 @@
       <c r="CH110" s="9"/>
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
+      <c r="CK110" s="9"/>
     </row>
-    <row r="111" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <v>46</v>
       </c>
@@ -17518,16 +17657,16 @@
       <c r="M111" s="12">
         <v>10301084.52</v>
       </c>
-      <c r="N111" s="9">
+      <c r="N111" s="12"/>
+      <c r="O111" s="9">
         <v>10301084.52</v>
       </c>
-      <c r="O111" s="13">
+      <c r="P111" s="13">
         <v>0.85132067339549111</v>
       </c>
-      <c r="P111" s="9">
+      <c r="Q111" s="9">
         <v>1799038.08</v>
       </c>
-      <c r="Q111" s="9"/>
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
       <c r="T111" s="9"/>
@@ -17586,8 +17725,8 @@
       <c r="BU111" s="9"/>
       <c r="BV111" s="9"/>
       <c r="BW111" s="9"/>
-      <c r="BX111" s="33"/>
-      <c r="BY111" s="9"/>
+      <c r="BX111" s="9"/>
+      <c r="BY111" s="33"/>
       <c r="BZ111" s="9"/>
       <c r="CA111" s="9"/>
       <c r="CB111" s="9"/>
@@ -17599,8 +17738,9 @@
       <c r="CH111" s="9"/>
       <c r="CI111" s="9"/>
       <c r="CJ111" s="9"/>
+      <c r="CK111" s="9"/>
     </row>
-    <row r="112" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>47</v>
       </c>
@@ -17640,16 +17780,16 @@
       <c r="M112" s="12">
         <v>11147804.809999999</v>
       </c>
-      <c r="N112" s="9">
+      <c r="N112" s="12"/>
+      <c r="O112" s="9">
         <v>11147804.809999999</v>
       </c>
-      <c r="O112" s="13">
+      <c r="P112" s="13">
         <v>0.46089188035778333</v>
       </c>
-      <c r="P112" s="9">
+      <c r="Q112" s="9">
         <v>13039657.120000001</v>
       </c>
-      <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
@@ -17708,8 +17848,8 @@
       <c r="BU112" s="9"/>
       <c r="BV112" s="9"/>
       <c r="BW112" s="9"/>
-      <c r="BX112" s="33"/>
-      <c r="BY112" s="9"/>
+      <c r="BX112" s="9"/>
+      <c r="BY112" s="33"/>
       <c r="BZ112" s="9"/>
       <c r="CA112" s="9"/>
       <c r="CB112" s="9"/>
@@ -17721,8 +17861,9 @@
       <c r="CH112" s="9"/>
       <c r="CI112" s="9"/>
       <c r="CJ112" s="9"/>
+      <c r="CK112" s="9"/>
     </row>
-    <row r="113" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="4" t="s">
         <v>315</v>
@@ -17760,16 +17901,16 @@
       <c r="M113" s="12">
         <v>0</v>
       </c>
-      <c r="N113" s="9">
+      <c r="N113" s="12"/>
+      <c r="O113" s="9">
         <v>13048536.540000001</v>
       </c>
-      <c r="O113" s="13">
+      <c r="P113" s="13">
         <v>0.77300657692070729</v>
       </c>
-      <c r="P113" s="9">
+      <c r="Q113" s="9">
         <v>3831703.459999999</v>
       </c>
-      <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
       <c r="T113" s="9"/>
@@ -17828,8 +17969,8 @@
       <c r="BU113" s="9"/>
       <c r="BV113" s="9"/>
       <c r="BW113" s="9"/>
-      <c r="BX113" s="14"/>
-      <c r="BY113" s="9"/>
+      <c r="BX113" s="9"/>
+      <c r="BY113" s="14"/>
       <c r="BZ113" s="9"/>
       <c r="CA113" s="9"/>
       <c r="CB113" s="9"/>
@@ -17841,8 +17982,9 @@
       <c r="CH113" s="9"/>
       <c r="CI113" s="9"/>
       <c r="CJ113" s="9"/>
+      <c r="CK113" s="9"/>
     </row>
-    <row r="114" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="4" t="s">
         <v>317</v>
@@ -17880,16 +18022,16 @@
       <c r="M114" s="12">
         <v>0</v>
       </c>
-      <c r="N114" s="9">
+      <c r="N114" s="12"/>
+      <c r="O114" s="9">
         <v>5728240.7200000007</v>
       </c>
-      <c r="O114" s="13">
+      <c r="P114" s="13">
         <v>0.87866465090527468</v>
       </c>
-      <c r="P114" s="9">
+      <c r="Q114" s="9">
         <v>791016.32999999914</v>
       </c>
-      <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
       <c r="S114" s="9"/>
       <c r="T114" s="9"/>
@@ -17948,8 +18090,8 @@
       <c r="BU114" s="9"/>
       <c r="BV114" s="9"/>
       <c r="BW114" s="9"/>
-      <c r="BX114" s="14"/>
-      <c r="BY114" s="9"/>
+      <c r="BX114" s="9"/>
+      <c r="BY114" s="14"/>
       <c r="BZ114" s="9"/>
       <c r="CA114" s="9"/>
       <c r="CB114" s="9"/>
@@ -17961,8 +18103,9 @@
       <c r="CH114" s="9"/>
       <c r="CI114" s="9"/>
       <c r="CJ114" s="9"/>
+      <c r="CK114" s="9"/>
     </row>
-    <row r="115" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="4" t="s">
         <v>318</v>
@@ -18000,16 +18143,16 @@
       <c r="M115" s="12">
         <v>6549937.1500000004</v>
       </c>
-      <c r="N115" s="9">
+      <c r="N115" s="12"/>
+      <c r="O115" s="9">
         <v>45858219.18</v>
       </c>
-      <c r="O115" s="13">
+      <c r="P115" s="13">
         <v>0.94938749854798477</v>
       </c>
-      <c r="P115" s="9">
+      <c r="Q115" s="9">
         <v>2444733.25</v>
       </c>
-      <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
       <c r="S115" s="9"/>
       <c r="T115" s="9"/>
@@ -18068,8 +18211,8 @@
       <c r="BU115" s="9"/>
       <c r="BV115" s="9"/>
       <c r="BW115" s="9"/>
-      <c r="BX115" s="14"/>
-      <c r="BY115" s="9"/>
+      <c r="BX115" s="9"/>
+      <c r="BY115" s="14"/>
       <c r="BZ115" s="9"/>
       <c r="CA115" s="9"/>
       <c r="CB115" s="9"/>
@@ -18081,8 +18224,9 @@
       <c r="CH115" s="9"/>
       <c r="CI115" s="9"/>
       <c r="CJ115" s="9"/>
+      <c r="CK115" s="9"/>
     </row>
-    <row r="116" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <v>48</v>
       </c>
@@ -18122,16 +18266,16 @@
       <c r="M116" s="12">
         <v>10511270.470000001</v>
       </c>
-      <c r="N116" s="9">
+      <c r="N116" s="12"/>
+      <c r="O116" s="9">
         <v>10511270.470000001</v>
       </c>
-      <c r="O116" s="13">
+      <c r="P116" s="13">
         <v>0.84546877537771292</v>
       </c>
-      <c r="P116" s="9">
+      <c r="Q116" s="9">
         <v>1921205.7799999993</v>
       </c>
-      <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
       <c r="T116" s="9"/>
@@ -18190,8 +18334,8 @@
       <c r="BU116" s="9"/>
       <c r="BV116" s="9"/>
       <c r="BW116" s="9"/>
-      <c r="BX116" s="33"/>
-      <c r="BY116" s="9"/>
+      <c r="BX116" s="9"/>
+      <c r="BY116" s="33"/>
       <c r="BZ116" s="9"/>
       <c r="CA116" s="9"/>
       <c r="CB116" s="9"/>
@@ -18203,8 +18347,9 @@
       <c r="CH116" s="9"/>
       <c r="CI116" s="9"/>
       <c r="CJ116" s="9"/>
+      <c r="CK116" s="9"/>
     </row>
-    <row r="117" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <v>49</v>
       </c>
@@ -18244,16 +18389,16 @@
       <c r="M117" s="12">
         <v>9904470.2700000014</v>
       </c>
-      <c r="N117" s="9">
+      <c r="N117" s="12"/>
+      <c r="O117" s="9">
         <v>56075179.539999992</v>
       </c>
-      <c r="O117" s="13">
+      <c r="P117" s="13">
         <v>0.94803871360320446</v>
       </c>
-      <c r="P117" s="9">
+      <c r="Q117" s="9">
         <v>3073438.2700000107</v>
       </c>
-      <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
       <c r="S117" s="9"/>
       <c r="T117" s="9"/>
@@ -18312,8 +18457,8 @@
       <c r="BU117" s="9"/>
       <c r="BV117" s="9"/>
       <c r="BW117" s="9"/>
-      <c r="BX117" s="33"/>
-      <c r="BY117" s="9"/>
+      <c r="BX117" s="9"/>
+      <c r="BY117" s="33"/>
       <c r="BZ117" s="9"/>
       <c r="CA117" s="9"/>
       <c r="CB117" s="9"/>
@@ -18325,8 +18470,9 @@
       <c r="CH117" s="9"/>
       <c r="CI117" s="9"/>
       <c r="CJ117" s="9"/>
+      <c r="CK117" s="9"/>
     </row>
-    <row r="118" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>50</v>
       </c>
@@ -18366,16 +18512,16 @@
       <c r="M118" s="12">
         <v>22022321.059999999</v>
       </c>
-      <c r="N118" s="9">
+      <c r="N118" s="12"/>
+      <c r="O118" s="9">
         <v>22022321.059999999</v>
       </c>
-      <c r="O118" s="13">
+      <c r="P118" s="13">
         <v>0.18903279879828325</v>
       </c>
-      <c r="P118" s="9">
+      <c r="Q118" s="9">
         <v>94477678.939999998</v>
       </c>
-      <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
       <c r="S118" s="9"/>
       <c r="T118" s="9"/>
@@ -18434,8 +18580,8 @@
       <c r="BU118" s="9"/>
       <c r="BV118" s="9"/>
       <c r="BW118" s="9"/>
-      <c r="BX118" s="33"/>
-      <c r="BY118" s="9"/>
+      <c r="BX118" s="9"/>
+      <c r="BY118" s="33"/>
       <c r="BZ118" s="9"/>
       <c r="CA118" s="9"/>
       <c r="CB118" s="9"/>
@@ -18447,8 +18593,9 @@
       <c r="CH118" s="9"/>
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
+      <c r="CK118" s="9"/>
     </row>
-    <row r="119" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="4" t="s">
         <v>324</v>
@@ -18486,16 +18633,16 @@
       <c r="M119" s="12">
         <v>0</v>
       </c>
-      <c r="N119" s="9">
+      <c r="N119" s="12"/>
+      <c r="O119" s="9">
         <v>8398407.2300000004</v>
       </c>
-      <c r="O119" s="13">
+      <c r="P119" s="13">
         <v>0.34753819686225285</v>
       </c>
-      <c r="P119" s="9">
+      <c r="Q119" s="9">
         <v>15767014.890000001</v>
       </c>
-      <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
       <c r="S119" s="9"/>
       <c r="T119" s="9"/>
@@ -18554,8 +18701,8 @@
       <c r="BU119" s="9"/>
       <c r="BV119" s="9"/>
       <c r="BW119" s="9"/>
-      <c r="BX119" s="14"/>
-      <c r="BY119" s="9"/>
+      <c r="BX119" s="9"/>
+      <c r="BY119" s="14"/>
       <c r="BZ119" s="9"/>
       <c r="CA119" s="9"/>
       <c r="CB119" s="9"/>
@@ -18567,8 +18714,9 @@
       <c r="CH119" s="9"/>
       <c r="CI119" s="9"/>
       <c r="CJ119" s="9"/>
+      <c r="CK119" s="9"/>
     </row>
-    <row r="120" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="4" t="s">
         <v>325</v>
@@ -18606,16 +18754,16 @@
       <c r="M120" s="12">
         <v>0</v>
       </c>
-      <c r="N120" s="9">
+      <c r="N120" s="12"/>
+      <c r="O120" s="9">
         <v>255684.46999999994</v>
       </c>
-      <c r="O120" s="13">
+      <c r="P120" s="13">
         <v>7.0712013806190813E-2</v>
       </c>
-      <c r="P120" s="9">
+      <c r="Q120" s="9">
         <v>3360171.68</v>
       </c>
-      <c r="Q120" s="9"/>
       <c r="R120" s="9"/>
       <c r="S120" s="9"/>
       <c r="T120" s="9"/>
@@ -18674,8 +18822,8 @@
       <c r="BU120" s="9"/>
       <c r="BV120" s="9"/>
       <c r="BW120" s="9"/>
-      <c r="BX120" s="14"/>
-      <c r="BY120" s="9"/>
+      <c r="BX120" s="9"/>
+      <c r="BY120" s="14"/>
       <c r="BZ120" s="9"/>
       <c r="CA120" s="9"/>
       <c r="CB120" s="9"/>
@@ -18687,8 +18835,9 @@
       <c r="CH120" s="9"/>
       <c r="CI120" s="9"/>
       <c r="CJ120" s="9"/>
+      <c r="CK120" s="9"/>
     </row>
-    <row r="121" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <v>51</v>
       </c>
@@ -18728,16 +18877,16 @@
       <c r="M121" s="12">
         <v>12334165.090000002</v>
       </c>
-      <c r="N121" s="9">
+      <c r="N121" s="12"/>
+      <c r="O121" s="9">
         <v>38738669.019999996</v>
       </c>
-      <c r="O121" s="13">
+      <c r="P121" s="13">
         <v>0.93007204965443147</v>
       </c>
-      <c r="P121" s="9">
+      <c r="Q121" s="9">
         <v>2912586.9600000009</v>
       </c>
-      <c r="Q121" s="9"/>
       <c r="R121" s="9"/>
       <c r="S121" s="9"/>
       <c r="T121" s="9"/>
@@ -18796,8 +18945,8 @@
       <c r="BU121" s="9"/>
       <c r="BV121" s="9"/>
       <c r="BW121" s="9"/>
-      <c r="BX121" s="33"/>
-      <c r="BY121" s="9"/>
+      <c r="BX121" s="9"/>
+      <c r="BY121" s="33"/>
       <c r="BZ121" s="9"/>
       <c r="CA121" s="9"/>
       <c r="CB121" s="9"/>
@@ -18809,8 +18958,9 @@
       <c r="CH121" s="9"/>
       <c r="CI121" s="9"/>
       <c r="CJ121" s="9"/>
+      <c r="CK121" s="9"/>
     </row>
-    <row r="122" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="4" t="s">
         <v>327</v>
@@ -18848,16 +18998,16 @@
       <c r="M122" s="12">
         <v>0</v>
       </c>
-      <c r="N122" s="9">
+      <c r="N122" s="12"/>
+      <c r="O122" s="9">
         <v>14985593.440000003</v>
       </c>
-      <c r="O122" s="13">
+      <c r="P122" s="13">
         <v>0.99936673668141074</v>
       </c>
-      <c r="P122" s="9">
+      <c r="Q122" s="9">
         <v>9495.8399999961257</v>
       </c>
-      <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
       <c r="S122" s="9"/>
       <c r="T122" s="9"/>
@@ -18916,8 +19066,8 @@
       <c r="BU122" s="9"/>
       <c r="BV122" s="9"/>
       <c r="BW122" s="9"/>
-      <c r="BX122" s="14"/>
-      <c r="BY122" s="9"/>
+      <c r="BX122" s="9"/>
+      <c r="BY122" s="14"/>
       <c r="BZ122" s="9"/>
       <c r="CA122" s="9"/>
       <c r="CB122" s="9"/>
@@ -18929,8 +19079,9 @@
       <c r="CH122" s="9"/>
       <c r="CI122" s="9"/>
       <c r="CJ122" s="9"/>
+      <c r="CK122" s="9"/>
     </row>
-    <row r="123" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="4" t="s">
         <v>328</v>
@@ -18966,16 +19117,16 @@
       <c r="M123" s="12">
         <v>0</v>
       </c>
-      <c r="N123" s="9">
+      <c r="N123" s="12"/>
+      <c r="O123" s="9">
         <v>14660281.99</v>
       </c>
-      <c r="O123" s="13">
+      <c r="P123" s="13">
         <v>0.97225491064356395</v>
       </c>
-      <c r="P123" s="9">
+      <c r="Q123" s="9">
         <v>418358.22000000067</v>
       </c>
-      <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
       <c r="S123" s="9"/>
       <c r="T123" s="9"/>
@@ -19034,8 +19185,8 @@
       <c r="BU123" s="9"/>
       <c r="BV123" s="9"/>
       <c r="BW123" s="9"/>
-      <c r="BX123" s="14"/>
-      <c r="BY123" s="9"/>
+      <c r="BX123" s="9"/>
+      <c r="BY123" s="14"/>
       <c r="BZ123" s="9"/>
       <c r="CA123" s="9"/>
       <c r="CB123" s="9"/>
@@ -19047,8 +19198,9 @@
       <c r="CH123" s="9"/>
       <c r="CI123" s="9"/>
       <c r="CJ123" s="9"/>
+      <c r="CK123" s="9"/>
     </row>
-    <row r="124" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="4" t="s">
         <v>329</v>
@@ -19086,16 +19238,16 @@
       <c r="M124" s="12">
         <v>1082086.6300000001</v>
       </c>
-      <c r="N124" s="9">
+      <c r="N124" s="12"/>
+      <c r="O124" s="9">
         <v>21925638.520000003</v>
       </c>
-      <c r="O124" s="13">
+      <c r="P124" s="13">
         <v>0.8916174571567731</v>
       </c>
-      <c r="P124" s="9">
+      <c r="Q124" s="9">
         <v>2665219.7499999963</v>
       </c>
-      <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
       <c r="S124" s="9"/>
       <c r="T124" s="9"/>
@@ -19154,8 +19306,8 @@
       <c r="BU124" s="9"/>
       <c r="BV124" s="9"/>
       <c r="BW124" s="9"/>
-      <c r="BX124" s="14"/>
-      <c r="BY124" s="9"/>
+      <c r="BX124" s="9"/>
+      <c r="BY124" s="14"/>
       <c r="BZ124" s="9"/>
       <c r="CA124" s="9"/>
       <c r="CB124" s="9"/>
@@ -19167,8 +19319,9 @@
       <c r="CH124" s="9"/>
       <c r="CI124" s="9"/>
       <c r="CJ124" s="9"/>
+      <c r="CK124" s="9"/>
     </row>
-    <row r="125" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="4" t="s">
         <v>330</v>
@@ -19206,16 +19359,16 @@
       <c r="M125" s="12">
         <v>0</v>
       </c>
-      <c r="N125" s="9">
+      <c r="N125" s="12"/>
+      <c r="O125" s="9">
         <v>9082408.6699999962</v>
       </c>
-      <c r="O125" s="13">
+      <c r="P125" s="13">
         <v>0.53637386285567545</v>
       </c>
-      <c r="P125" s="9">
+      <c r="Q125" s="9">
         <v>7850572.7800000031</v>
       </c>
-      <c r="Q125" s="9"/>
       <c r="R125" s="9"/>
       <c r="S125" s="9"/>
       <c r="T125" s="9"/>
@@ -19274,8 +19427,8 @@
       <c r="BU125" s="9"/>
       <c r="BV125" s="9"/>
       <c r="BW125" s="9"/>
-      <c r="BX125" s="14"/>
-      <c r="BY125" s="9"/>
+      <c r="BX125" s="9"/>
+      <c r="BY125" s="14"/>
       <c r="BZ125" s="9"/>
       <c r="CA125" s="9"/>
       <c r="CB125" s="9"/>
@@ -19287,8 +19440,9 @@
       <c r="CH125" s="9"/>
       <c r="CI125" s="9"/>
       <c r="CJ125" s="9"/>
+      <c r="CK125" s="9"/>
     </row>
-    <row r="126" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="4" t="s">
         <v>332</v>
@@ -19324,16 +19478,16 @@
       <c r="M126" s="12">
         <v>0</v>
       </c>
-      <c r="N126" s="9">
+      <c r="N126" s="12"/>
+      <c r="O126" s="9">
         <v>1088826.01</v>
       </c>
-      <c r="O126" s="13">
+      <c r="P126" s="13">
         <v>0.89801400879935389</v>
       </c>
-      <c r="P126" s="9">
+      <c r="Q126" s="9">
         <v>123656.19999999995</v>
       </c>
-      <c r="Q126" s="9"/>
       <c r="R126" s="9"/>
       <c r="S126" s="9"/>
       <c r="T126" s="9"/>
@@ -19392,8 +19546,8 @@
       <c r="BU126" s="9"/>
       <c r="BV126" s="9"/>
       <c r="BW126" s="9"/>
-      <c r="BX126" s="14"/>
-      <c r="BY126" s="9"/>
+      <c r="BX126" s="9"/>
+      <c r="BY126" s="14"/>
       <c r="BZ126" s="9"/>
       <c r="CA126" s="9"/>
       <c r="CB126" s="9"/>
@@ -19405,8 +19559,9 @@
       <c r="CH126" s="9"/>
       <c r="CI126" s="9"/>
       <c r="CJ126" s="9"/>
+      <c r="CK126" s="9"/>
     </row>
-    <row r="127" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="4" t="s">
         <v>334</v>
@@ -19442,16 +19597,16 @@
       <c r="M127" s="12">
         <v>0</v>
       </c>
-      <c r="N127" s="9">
+      <c r="N127" s="12"/>
+      <c r="O127" s="9">
         <v>75957961.340000018</v>
       </c>
-      <c r="O127" s="13">
+      <c r="P127" s="13">
         <v>0.89907733560078829</v>
       </c>
-      <c r="P127" s="9">
+      <c r="Q127" s="9">
         <v>8526385.369999975</v>
       </c>
-      <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
       <c r="S127" s="9"/>
       <c r="T127" s="9"/>
@@ -19510,8 +19665,8 @@
       <c r="BU127" s="9"/>
       <c r="BV127" s="9"/>
       <c r="BW127" s="9"/>
-      <c r="BX127" s="14"/>
-      <c r="BY127" s="9"/>
+      <c r="BX127" s="9"/>
+      <c r="BY127" s="14"/>
       <c r="BZ127" s="9"/>
       <c r="CA127" s="9"/>
       <c r="CB127" s="9"/>
@@ -19523,8 +19678,9 @@
       <c r="CH127" s="9"/>
       <c r="CI127" s="9"/>
       <c r="CJ127" s="9"/>
+      <c r="CK127" s="9"/>
     </row>
-    <row r="128" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="4" t="s">
         <v>335</v>
@@ -19560,16 +19716,16 @@
       <c r="M128" s="12">
         <v>0</v>
       </c>
-      <c r="N128" s="9">
+      <c r="N128" s="12"/>
+      <c r="O128" s="9">
         <v>32682339.389999997</v>
       </c>
-      <c r="O128" s="13">
+      <c r="P128" s="13">
         <v>0.4705880401727861</v>
       </c>
-      <c r="P128" s="9">
+      <c r="Q128" s="9">
         <v>36767660.609999999</v>
       </c>
-      <c r="Q128" s="9"/>
       <c r="R128" s="9"/>
       <c r="S128" s="9"/>
       <c r="T128" s="9"/>
@@ -19628,8 +19784,8 @@
       <c r="BU128" s="9"/>
       <c r="BV128" s="9"/>
       <c r="BW128" s="9"/>
-      <c r="BX128" s="14"/>
-      <c r="BY128" s="9"/>
+      <c r="BX128" s="9"/>
+      <c r="BY128" s="14"/>
       <c r="BZ128" s="9"/>
       <c r="CA128" s="9"/>
       <c r="CB128" s="9"/>
@@ -19641,8 +19797,9 @@
       <c r="CH128" s="9"/>
       <c r="CI128" s="9"/>
       <c r="CJ128" s="9"/>
+      <c r="CK128" s="9"/>
     </row>
-    <row r="129" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="4" t="s">
         <v>336</v>
@@ -19678,16 +19835,16 @@
       <c r="M129" s="12">
         <v>0</v>
       </c>
-      <c r="N129" s="9">
+      <c r="N129" s="12"/>
+      <c r="O129" s="9">
         <v>6948720.1899999995</v>
       </c>
-      <c r="O129" s="13">
+      <c r="P129" s="13">
         <v>0.99999999999999989</v>
       </c>
-      <c r="P129" s="9">
+      <c r="Q129" s="9">
         <v>9.3132257461547852E-10</v>
       </c>
-      <c r="Q129" s="9"/>
       <c r="R129" s="9"/>
       <c r="S129" s="9"/>
       <c r="T129" s="9"/>
@@ -19746,8 +19903,8 @@
       <c r="BU129" s="9"/>
       <c r="BV129" s="9"/>
       <c r="BW129" s="9"/>
-      <c r="BX129" s="14"/>
-      <c r="BY129" s="9"/>
+      <c r="BX129" s="9"/>
+      <c r="BY129" s="14"/>
       <c r="BZ129" s="9"/>
       <c r="CA129" s="9"/>
       <c r="CB129" s="9"/>
@@ -19759,8 +19916,9 @@
       <c r="CH129" s="9"/>
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
+      <c r="CK129" s="9"/>
     </row>
-    <row r="130" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="4" t="s">
         <v>337</v>
@@ -19796,16 +19954,16 @@
       <c r="M130" s="12">
         <v>0</v>
       </c>
-      <c r="N130" s="9">
+      <c r="N130" s="12"/>
+      <c r="O130" s="9">
         <v>12092480.689999999</v>
       </c>
-      <c r="O130" s="13">
+      <c r="P130" s="13">
         <v>1</v>
       </c>
-      <c r="P130" s="9">
+      <c r="Q130" s="9">
         <v>0</v>
       </c>
-      <c r="Q130" s="9"/>
       <c r="R130" s="9"/>
       <c r="S130" s="9"/>
       <c r="T130" s="9"/>
@@ -19864,8 +20022,8 @@
       <c r="BU130" s="9"/>
       <c r="BV130" s="9"/>
       <c r="BW130" s="9"/>
-      <c r="BX130" s="14"/>
-      <c r="BY130" s="9"/>
+      <c r="BX130" s="9"/>
+      <c r="BY130" s="14"/>
       <c r="BZ130" s="9"/>
       <c r="CA130" s="9"/>
       <c r="CB130" s="9"/>
@@ -19877,8 +20035,9 @@
       <c r="CH130" s="9"/>
       <c r="CI130" s="9"/>
       <c r="CJ130" s="9"/>
+      <c r="CK130" s="9"/>
     </row>
-    <row r="131" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="4" t="s">
         <v>338</v>
@@ -19914,16 +20073,16 @@
       <c r="M131" s="12">
         <v>0</v>
       </c>
-      <c r="N131" s="9">
+      <c r="N131" s="12"/>
+      <c r="O131" s="9">
         <v>6743573.8500000006</v>
       </c>
-      <c r="O131" s="13">
+      <c r="P131" s="13">
         <v>0.99999997182502953</v>
       </c>
-      <c r="P131" s="9">
+      <c r="Q131" s="9">
         <v>0.18999999947845936</v>
       </c>
-      <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
       <c r="S131" s="9"/>
       <c r="T131" s="9"/>
@@ -19982,8 +20141,8 @@
       <c r="BU131" s="9"/>
       <c r="BV131" s="9"/>
       <c r="BW131" s="9"/>
-      <c r="BX131" s="14"/>
-      <c r="BY131" s="9"/>
+      <c r="BX131" s="9"/>
+      <c r="BY131" s="14"/>
       <c r="BZ131" s="9"/>
       <c r="CA131" s="9"/>
       <c r="CB131" s="9"/>
@@ -19995,8 +20154,9 @@
       <c r="CH131" s="9"/>
       <c r="CI131" s="9"/>
       <c r="CJ131" s="9"/>
+      <c r="CK131" s="9"/>
     </row>
-    <row r="132" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="4" t="s">
         <v>340</v>
@@ -20032,16 +20192,16 @@
       <c r="M132" s="12">
         <v>0</v>
       </c>
-      <c r="N132" s="9">
+      <c r="N132" s="12"/>
+      <c r="O132" s="9">
         <v>1285178.3600000001</v>
       </c>
-      <c r="O132" s="13">
+      <c r="P132" s="13">
         <v>0.96442804979204044</v>
       </c>
-      <c r="P132" s="9">
+      <c r="Q132" s="9">
         <v>47402.5</v>
       </c>
-      <c r="Q132" s="9"/>
       <c r="R132" s="9"/>
       <c r="S132" s="9"/>
       <c r="T132" s="9"/>
@@ -20100,8 +20260,8 @@
       <c r="BU132" s="9"/>
       <c r="BV132" s="9"/>
       <c r="BW132" s="9"/>
-      <c r="BX132" s="14"/>
-      <c r="BY132" s="9"/>
+      <c r="BX132" s="9"/>
+      <c r="BY132" s="14"/>
       <c r="BZ132" s="9"/>
       <c r="CA132" s="9"/>
       <c r="CB132" s="9"/>
@@ -20113,8 +20273,9 @@
       <c r="CH132" s="9"/>
       <c r="CI132" s="9"/>
       <c r="CJ132" s="9"/>
+      <c r="CK132" s="9"/>
     </row>
-    <row r="133" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="4" t="s">
         <v>343</v>
@@ -20148,16 +20309,16 @@
       <c r="M133" s="12">
         <v>0</v>
       </c>
-      <c r="N133" s="9">
+      <c r="N133" s="12"/>
+      <c r="O133" s="9">
         <v>3607318.6500000004</v>
       </c>
-      <c r="O133" s="13">
+      <c r="P133" s="13">
         <v>0.999986480445621</v>
       </c>
-      <c r="P133" s="9">
+      <c r="Q133" s="9">
         <v>48.769999999552965</v>
       </c>
-      <c r="Q133" s="9"/>
       <c r="R133" s="9"/>
       <c r="S133" s="9"/>
       <c r="T133" s="9"/>
@@ -20216,8 +20377,8 @@
       <c r="BU133" s="9"/>
       <c r="BV133" s="9"/>
       <c r="BW133" s="9"/>
-      <c r="BX133" s="14"/>
-      <c r="BY133" s="9"/>
+      <c r="BX133" s="9"/>
+      <c r="BY133" s="14"/>
       <c r="BZ133" s="9"/>
       <c r="CA133" s="9"/>
       <c r="CB133" s="9"/>
@@ -20229,8 +20390,9 @@
       <c r="CH133" s="9"/>
       <c r="CI133" s="9"/>
       <c r="CJ133" s="9"/>
+      <c r="CK133" s="9"/>
     </row>
-    <row r="134" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="4" t="s">
         <v>344</v>
@@ -20266,16 +20428,16 @@
       <c r="M134" s="12">
         <v>0</v>
       </c>
-      <c r="N134" s="9">
+      <c r="N134" s="12"/>
+      <c r="O134" s="9">
         <v>0</v>
       </c>
-      <c r="O134" s="13">
+      <c r="P134" s="13">
         <v>0</v>
       </c>
-      <c r="P134" s="9">
+      <c r="Q134" s="9">
         <v>1305890.95</v>
       </c>
-      <c r="Q134" s="9"/>
       <c r="R134" s="9"/>
       <c r="S134" s="9"/>
       <c r="T134" s="9"/>
@@ -20334,8 +20496,8 @@
       <c r="BU134" s="9"/>
       <c r="BV134" s="9"/>
       <c r="BW134" s="9"/>
-      <c r="BX134" s="14"/>
-      <c r="BY134" s="9"/>
+      <c r="BX134" s="9"/>
+      <c r="BY134" s="14"/>
       <c r="BZ134" s="9"/>
       <c r="CA134" s="9"/>
       <c r="CB134" s="9"/>
@@ -20347,8 +20509,9 @@
       <c r="CH134" s="9"/>
       <c r="CI134" s="9"/>
       <c r="CJ134" s="9"/>
+      <c r="CK134" s="9"/>
     </row>
-    <row r="135" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="4" t="s">
         <v>346</v>
@@ -20384,16 +20547,16 @@
       <c r="M135" s="12">
         <v>13791452.859999999</v>
       </c>
-      <c r="N135" s="9">
+      <c r="N135" s="12"/>
+      <c r="O135" s="9">
         <v>13791452.859999999</v>
       </c>
-      <c r="O135" s="13">
+      <c r="P135" s="13">
         <v>0.50270062348722733</v>
       </c>
-      <c r="P135" s="9">
+      <c r="Q135" s="9">
         <v>13643271.140000001</v>
       </c>
-      <c r="Q135" s="9"/>
       <c r="R135" s="9"/>
       <c r="S135" s="9"/>
       <c r="T135" s="9"/>
@@ -20452,8 +20615,8 @@
       <c r="BU135" s="9"/>
       <c r="BV135" s="9"/>
       <c r="BW135" s="9"/>
-      <c r="BX135" s="14"/>
-      <c r="BY135" s="9"/>
+      <c r="BX135" s="9"/>
+      <c r="BY135" s="14"/>
       <c r="BZ135" s="9"/>
       <c r="CA135" s="9"/>
       <c r="CB135" s="9"/>
@@ -20465,8 +20628,9 @@
       <c r="CH135" s="9"/>
       <c r="CI135" s="9"/>
       <c r="CJ135" s="9"/>
+      <c r="CK135" s="9"/>
     </row>
-    <row r="136" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="4" t="s">
         <v>348</v>
@@ -20502,16 +20666,16 @@
       <c r="M136" s="12">
         <v>0</v>
       </c>
-      <c r="N136" s="9">
+      <c r="N136" s="12"/>
+      <c r="O136" s="9">
         <v>4808707.09</v>
       </c>
-      <c r="O136" s="13">
+      <c r="P136" s="13">
         <v>1</v>
       </c>
-      <c r="P136" s="9">
+      <c r="Q136" s="9">
         <v>0</v>
       </c>
-      <c r="Q136" s="9"/>
       <c r="R136" s="9"/>
       <c r="S136" s="9"/>
       <c r="T136" s="9"/>
@@ -20570,8 +20734,8 @@
       <c r="BU136" s="9"/>
       <c r="BV136" s="9"/>
       <c r="BW136" s="9"/>
-      <c r="BX136" s="14"/>
-      <c r="BY136" s="9"/>
+      <c r="BX136" s="9"/>
+      <c r="BY136" s="14"/>
       <c r="BZ136" s="9"/>
       <c r="CA136" s="9"/>
       <c r="CB136" s="9"/>
@@ -20583,8 +20747,9 @@
       <c r="CH136" s="9"/>
       <c r="CI136" s="9"/>
       <c r="CJ136" s="9"/>
+      <c r="CK136" s="9"/>
     </row>
-    <row r="137" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="4" t="s">
         <v>350</v>
@@ -20620,16 +20785,16 @@
       <c r="M137" s="12">
         <v>0</v>
       </c>
-      <c r="N137" s="9">
+      <c r="N137" s="12"/>
+      <c r="O137" s="9">
         <v>30651574.560000002</v>
       </c>
-      <c r="O137" s="13">
+      <c r="P137" s="13">
         <v>0.44977577440522543</v>
       </c>
-      <c r="P137" s="9">
+      <c r="Q137" s="9">
         <v>37496992.579999998</v>
       </c>
-      <c r="Q137" s="9"/>
       <c r="R137" s="9"/>
       <c r="S137" s="9"/>
       <c r="T137" s="9"/>
@@ -20688,8 +20853,8 @@
       <c r="BU137" s="9"/>
       <c r="BV137" s="9"/>
       <c r="BW137" s="9"/>
-      <c r="BX137" s="14"/>
-      <c r="BY137" s="9"/>
+      <c r="BX137" s="9"/>
+      <c r="BY137" s="14"/>
       <c r="BZ137" s="9"/>
       <c r="CA137" s="9"/>
       <c r="CB137" s="9"/>
@@ -20701,8 +20866,9 @@
       <c r="CH137" s="9"/>
       <c r="CI137" s="9"/>
       <c r="CJ137" s="9"/>
+      <c r="CK137" s="9"/>
     </row>
-    <row r="138" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="4" t="s">
         <v>352</v>
@@ -20738,16 +20904,16 @@
       <c r="M138" s="12">
         <v>0</v>
       </c>
-      <c r="N138" s="9">
+      <c r="N138" s="12"/>
+      <c r="O138" s="9">
         <v>5450476.8399999989</v>
       </c>
-      <c r="O138" s="13">
+      <c r="P138" s="13">
         <v>0.91167323124083</v>
       </c>
-      <c r="P138" s="9">
+      <c r="Q138" s="9">
         <v>528065.31000000145</v>
       </c>
-      <c r="Q138" s="9"/>
       <c r="R138" s="9"/>
       <c r="S138" s="9"/>
       <c r="T138" s="9"/>
@@ -20806,8 +20972,8 @@
       <c r="BU138" s="9"/>
       <c r="BV138" s="9"/>
       <c r="BW138" s="9"/>
-      <c r="BX138" s="14"/>
-      <c r="BY138" s="9"/>
+      <c r="BX138" s="9"/>
+      <c r="BY138" s="14"/>
       <c r="BZ138" s="9"/>
       <c r="CA138" s="9"/>
       <c r="CB138" s="9"/>
@@ -20819,8 +20985,9 @@
       <c r="CH138" s="9"/>
       <c r="CI138" s="9"/>
       <c r="CJ138" s="9"/>
+      <c r="CK138" s="9"/>
     </row>
-    <row r="139" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="4" t="s">
         <v>354</v>
@@ -20850,16 +21017,16 @@
       <c r="M139" s="12">
         <v>0</v>
       </c>
-      <c r="N139" s="9">
+      <c r="N139" s="12"/>
+      <c r="O139" s="9">
         <v>0</v>
       </c>
-      <c r="O139" s="13">
+      <c r="P139" s="13">
         <v>0</v>
       </c>
-      <c r="P139" s="9">
+      <c r="Q139" s="9">
         <v>11620104.779999999</v>
       </c>
-      <c r="Q139" s="9"/>
       <c r="R139" s="9"/>
       <c r="S139" s="9"/>
       <c r="T139" s="9"/>
@@ -20918,8 +21085,8 @@
       <c r="BU139" s="9"/>
       <c r="BV139" s="9"/>
       <c r="BW139" s="9"/>
-      <c r="BX139" s="14"/>
-      <c r="BY139" s="9"/>
+      <c r="BX139" s="9"/>
+      <c r="BY139" s="14"/>
       <c r="BZ139" s="9"/>
       <c r="CA139" s="9"/>
       <c r="CB139" s="9"/>
@@ -20931,8 +21098,9 @@
       <c r="CH139" s="9"/>
       <c r="CI139" s="9"/>
       <c r="CJ139" s="9"/>
+      <c r="CK139" s="9"/>
     </row>
-    <row r="140" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="4" t="s">
         <v>357</v>
@@ -20966,16 +21134,16 @@
       <c r="M140" s="12">
         <v>0</v>
       </c>
-      <c r="N140" s="9">
+      <c r="N140" s="12"/>
+      <c r="O140" s="9">
         <v>0</v>
       </c>
-      <c r="O140" s="13">
+      <c r="P140" s="13">
         <v>0</v>
       </c>
-      <c r="P140" s="9">
+      <c r="Q140" s="9">
         <v>1712576.84</v>
       </c>
-      <c r="Q140" s="9"/>
       <c r="R140" s="9"/>
       <c r="S140" s="9"/>
       <c r="T140" s="9"/>
@@ -21034,8 +21202,8 @@
       <c r="BU140" s="9"/>
       <c r="BV140" s="9"/>
       <c r="BW140" s="9"/>
-      <c r="BX140" s="14"/>
-      <c r="BY140" s="9"/>
+      <c r="BX140" s="9"/>
+      <c r="BY140" s="14"/>
       <c r="BZ140" s="9"/>
       <c r="CA140" s="9"/>
       <c r="CB140" s="9"/>
@@ -21047,8 +21215,9 @@
       <c r="CH140" s="9"/>
       <c r="CI140" s="9"/>
       <c r="CJ140" s="9"/>
+      <c r="CK140" s="9"/>
     </row>
-    <row r="141" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="4" t="s">
         <v>358</v>
@@ -21078,16 +21247,16 @@
       <c r="M141" s="12">
         <v>0</v>
       </c>
-      <c r="N141" s="9">
+      <c r="N141" s="12"/>
+      <c r="O141" s="9">
         <v>9021796.75</v>
       </c>
-      <c r="O141" s="13">
+      <c r="P141" s="13">
         <v>0.47490918652168773</v>
       </c>
-      <c r="P141" s="9">
+      <c r="Q141" s="9">
         <v>9975091.5100000016</v>
       </c>
-      <c r="Q141" s="9"/>
       <c r="R141" s="9"/>
       <c r="S141" s="9"/>
       <c r="T141" s="9"/>
@@ -21146,8 +21315,8 @@
       <c r="BU141" s="9"/>
       <c r="BV141" s="9"/>
       <c r="BW141" s="9"/>
-      <c r="BX141" s="14"/>
-      <c r="BY141" s="9"/>
+      <c r="BX141" s="9"/>
+      <c r="BY141" s="14"/>
       <c r="BZ141" s="9"/>
       <c r="CA141" s="9"/>
       <c r="CB141" s="9"/>
@@ -21159,8 +21328,9 @@
       <c r="CH141" s="9"/>
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
+      <c r="CK141" s="9"/>
     </row>
-    <row r="142" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="4" t="s">
         <v>359</v>
@@ -21196,16 +21366,16 @@
       <c r="M142" s="12">
         <v>0</v>
       </c>
-      <c r="N142" s="9">
+      <c r="N142" s="12"/>
+      <c r="O142" s="9">
         <v>9986334.5500000007</v>
       </c>
-      <c r="O142" s="13">
+      <c r="P142" s="13">
         <v>0.83618446341115482</v>
       </c>
-      <c r="P142" s="9">
+      <c r="Q142" s="9">
         <v>1956406.5399999991</v>
       </c>
-      <c r="Q142" s="9"/>
       <c r="R142" s="9"/>
       <c r="S142" s="9"/>
       <c r="T142" s="9"/>
@@ -21264,8 +21434,8 @@
       <c r="BU142" s="9"/>
       <c r="BV142" s="9"/>
       <c r="BW142" s="9"/>
-      <c r="BX142" s="14"/>
-      <c r="BY142" s="9"/>
+      <c r="BX142" s="9"/>
+      <c r="BY142" s="14"/>
       <c r="BZ142" s="9"/>
       <c r="CA142" s="9"/>
       <c r="CB142" s="9"/>
@@ -21277,8 +21447,9 @@
       <c r="CH142" s="9"/>
       <c r="CI142" s="9"/>
       <c r="CJ142" s="9"/>
+      <c r="CK142" s="9"/>
     </row>
-    <row r="143" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="4" t="s">
         <v>360</v>
@@ -21314,16 +21485,16 @@
       <c r="M143" s="12">
         <v>0</v>
       </c>
-      <c r="N143" s="9">
+      <c r="N143" s="12"/>
+      <c r="O143" s="9">
         <v>50454918.609999999</v>
       </c>
-      <c r="O143" s="13">
+      <c r="P143" s="13">
         <v>0.91880643757273939</v>
       </c>
-      <c r="P143" s="9">
+      <c r="Q143" s="9">
         <v>4458626.3400000036</v>
       </c>
-      <c r="Q143" s="9"/>
       <c r="R143" s="9"/>
       <c r="S143" s="9"/>
       <c r="T143" s="9"/>
@@ -21382,8 +21553,8 @@
       <c r="BU143" s="9"/>
       <c r="BV143" s="9"/>
       <c r="BW143" s="9"/>
-      <c r="BX143" s="14"/>
-      <c r="BY143" s="9"/>
+      <c r="BX143" s="9"/>
+      <c r="BY143" s="14"/>
       <c r="BZ143" s="9"/>
       <c r="CA143" s="9"/>
       <c r="CB143" s="9"/>
@@ -21395,8 +21566,9 @@
       <c r="CH143" s="9"/>
       <c r="CI143" s="9"/>
       <c r="CJ143" s="9"/>
+      <c r="CK143" s="9"/>
     </row>
-    <row r="144" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="4" t="s">
         <v>361</v>
@@ -21428,16 +21600,16 @@
       <c r="M144" s="12">
         <v>0</v>
       </c>
-      <c r="N144" s="9">
+      <c r="N144" s="12"/>
+      <c r="O144" s="9">
         <v>0</v>
       </c>
-      <c r="O144" s="13">
+      <c r="P144" s="13">
         <v>0</v>
       </c>
-      <c r="P144" s="9">
+      <c r="Q144" s="9">
         <v>5054505.24</v>
       </c>
-      <c r="Q144" s="9"/>
       <c r="R144" s="9"/>
       <c r="S144" s="9"/>
       <c r="T144" s="9"/>
@@ -21496,8 +21668,8 @@
       <c r="BU144" s="9"/>
       <c r="BV144" s="9"/>
       <c r="BW144" s="9"/>
-      <c r="BX144" s="14"/>
-      <c r="BY144" s="9"/>
+      <c r="BX144" s="9"/>
+      <c r="BY144" s="14"/>
       <c r="BZ144" s="9"/>
       <c r="CA144" s="9"/>
       <c r="CB144" s="9"/>
@@ -21509,8 +21681,9 @@
       <c r="CH144" s="9"/>
       <c r="CI144" s="9"/>
       <c r="CJ144" s="9"/>
+      <c r="CK144" s="9"/>
     </row>
-    <row r="145" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="4" t="s">
         <v>362</v>
@@ -21546,16 +21719,16 @@
       <c r="M145" s="12">
         <v>0</v>
       </c>
-      <c r="N145" s="9">
+      <c r="N145" s="12"/>
+      <c r="O145" s="9">
         <v>2389346</v>
       </c>
-      <c r="O145" s="13">
+      <c r="P145" s="13">
         <v>1</v>
       </c>
-      <c r="P145" s="9">
+      <c r="Q145" s="9">
         <v>0</v>
       </c>
-      <c r="Q145" s="9"/>
       <c r="R145" s="9"/>
       <c r="S145" s="9"/>
       <c r="T145" s="9"/>
@@ -21614,8 +21787,8 @@
       <c r="BU145" s="9"/>
       <c r="BV145" s="9"/>
       <c r="BW145" s="9"/>
-      <c r="BX145" s="14"/>
-      <c r="BY145" s="9"/>
+      <c r="BX145" s="9"/>
+      <c r="BY145" s="14"/>
       <c r="BZ145" s="9"/>
       <c r="CA145" s="9"/>
       <c r="CB145" s="9"/>
@@ -21627,8 +21800,9 @@
       <c r="CH145" s="9"/>
       <c r="CI145" s="9"/>
       <c r="CJ145" s="9"/>
+      <c r="CK145" s="9"/>
     </row>
-    <row r="146" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="4" t="s">
         <v>363</v>
@@ -21664,16 +21838,16 @@
       <c r="M146" s="12">
         <v>0</v>
       </c>
-      <c r="N146" s="9">
+      <c r="N146" s="12"/>
+      <c r="O146" s="9">
         <v>74305044.279999986</v>
       </c>
-      <c r="O146" s="13">
+      <c r="P146" s="13">
         <v>0.92244363874960489</v>
       </c>
-      <c r="P146" s="9">
+      <c r="Q146" s="9">
         <v>6247350.6400000155</v>
       </c>
-      <c r="Q146" s="9"/>
       <c r="R146" s="9"/>
       <c r="S146" s="9"/>
       <c r="T146" s="9"/>
@@ -21732,8 +21906,8 @@
       <c r="BU146" s="9"/>
       <c r="BV146" s="9"/>
       <c r="BW146" s="9"/>
-      <c r="BX146" s="14"/>
-      <c r="BY146" s="9"/>
+      <c r="BX146" s="9"/>
+      <c r="BY146" s="14"/>
       <c r="BZ146" s="9"/>
       <c r="CA146" s="9"/>
       <c r="CB146" s="9"/>
@@ -21745,8 +21919,9 @@
       <c r="CH146" s="9"/>
       <c r="CI146" s="9"/>
       <c r="CJ146" s="9"/>
+      <c r="CK146" s="9"/>
     </row>
-    <row r="147" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="4" t="s">
         <v>365</v>
@@ -21782,16 +21957,16 @@
       <c r="M147" s="12">
         <v>0</v>
       </c>
-      <c r="N147" s="9">
+      <c r="N147" s="12"/>
+      <c r="O147" s="9">
         <v>6453162.3300000001</v>
       </c>
-      <c r="O147" s="13">
+      <c r="P147" s="13">
         <v>0.99999993956451805</v>
       </c>
-      <c r="P147" s="9">
+      <c r="Q147" s="9">
         <v>0.38999999966472387</v>
       </c>
-      <c r="Q147" s="9"/>
       <c r="R147" s="9"/>
       <c r="S147" s="9"/>
       <c r="T147" s="9"/>
@@ -21850,8 +22025,8 @@
       <c r="BU147" s="9"/>
       <c r="BV147" s="9"/>
       <c r="BW147" s="9"/>
-      <c r="BX147" s="14"/>
-      <c r="BY147" s="9"/>
+      <c r="BX147" s="9"/>
+      <c r="BY147" s="14"/>
       <c r="BZ147" s="9"/>
       <c r="CA147" s="9"/>
       <c r="CB147" s="9"/>
@@ -21863,8 +22038,9 @@
       <c r="CH147" s="9"/>
       <c r="CI147" s="9"/>
       <c r="CJ147" s="9"/>
+      <c r="CK147" s="9"/>
     </row>
-    <row r="148" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="4" t="s">
         <v>367</v>
@@ -21900,16 +22076,16 @@
       <c r="M148" s="12">
         <v>0</v>
       </c>
-      <c r="N148" s="9">
+      <c r="N148" s="12"/>
+      <c r="O148" s="9">
         <v>25313733.129999995</v>
       </c>
-      <c r="O148" s="13">
+      <c r="P148" s="13">
         <v>0.67438704277781825</v>
       </c>
-      <c r="P148" s="9">
+      <c r="Q148" s="9">
         <v>12222179.520000003</v>
       </c>
-      <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
       <c r="S148" s="9"/>
       <c r="T148" s="9"/>
@@ -21968,8 +22144,8 @@
       <c r="BU148" s="9"/>
       <c r="BV148" s="9"/>
       <c r="BW148" s="9"/>
-      <c r="BX148" s="14"/>
-      <c r="BY148" s="9"/>
+      <c r="BX148" s="9"/>
+      <c r="BY148" s="14"/>
       <c r="BZ148" s="9"/>
       <c r="CA148" s="9"/>
       <c r="CB148" s="9"/>
@@ -21981,8 +22157,9 @@
       <c r="CH148" s="9"/>
       <c r="CI148" s="9"/>
       <c r="CJ148" s="9"/>
+      <c r="CK148" s="9"/>
     </row>
-    <row r="149" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="4" t="s">
         <v>369</v>
@@ -22018,16 +22195,16 @@
       <c r="M149" s="12">
         <v>0</v>
       </c>
-      <c r="N149" s="9">
+      <c r="N149" s="12"/>
+      <c r="O149" s="9">
         <v>133236.57999999999</v>
       </c>
-      <c r="O149" s="13">
+      <c r="P149" s="13">
         <v>1.0508164353719891E-2</v>
       </c>
-      <c r="P149" s="9">
+      <c r="Q149" s="9">
         <v>12546102.6</v>
       </c>
-      <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
       <c r="S149" s="9"/>
       <c r="T149" s="9"/>
@@ -22086,8 +22263,8 @@
       <c r="BU149" s="9"/>
       <c r="BV149" s="9"/>
       <c r="BW149" s="9"/>
-      <c r="BX149" s="14"/>
-      <c r="BY149" s="9"/>
+      <c r="BX149" s="9"/>
+      <c r="BY149" s="14"/>
       <c r="BZ149" s="9"/>
       <c r="CA149" s="9"/>
       <c r="CB149" s="9"/>
@@ -22099,8 +22276,9 @@
       <c r="CH149" s="9"/>
       <c r="CI149" s="9"/>
       <c r="CJ149" s="9"/>
+      <c r="CK149" s="9"/>
     </row>
-    <row r="150" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="4" t="s">
         <v>370</v>
@@ -22136,16 +22314,16 @@
       <c r="M150" s="12">
         <v>0</v>
       </c>
-      <c r="N150" s="9">
+      <c r="N150" s="12"/>
+      <c r="O150" s="9">
         <v>2042159.2899999998</v>
       </c>
-      <c r="O150" s="13">
+      <c r="P150" s="13">
         <v>0.22756440390169769</v>
       </c>
-      <c r="P150" s="9">
+      <c r="Q150" s="9">
         <v>6931824.5799999991</v>
       </c>
-      <c r="Q150" s="9"/>
       <c r="R150" s="9"/>
       <c r="S150" s="9"/>
       <c r="T150" s="9"/>
@@ -22204,8 +22382,8 @@
       <c r="BU150" s="9"/>
       <c r="BV150" s="9"/>
       <c r="BW150" s="9"/>
-      <c r="BX150" s="14"/>
-      <c r="BY150" s="9"/>
+      <c r="BX150" s="9"/>
+      <c r="BY150" s="14"/>
       <c r="BZ150" s="9"/>
       <c r="CA150" s="9"/>
       <c r="CB150" s="9"/>
@@ -22217,8 +22395,9 @@
       <c r="CH150" s="9"/>
       <c r="CI150" s="9"/>
       <c r="CJ150" s="9"/>
+      <c r="CK150" s="9"/>
     </row>
-    <row r="151" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="4" t="s">
         <v>371</v>
@@ -22254,16 +22433,16 @@
       <c r="M151" s="12">
         <v>0</v>
       </c>
-      <c r="N151" s="9">
+      <c r="N151" s="12"/>
+      <c r="O151" s="9">
         <v>4852080.3</v>
       </c>
-      <c r="O151" s="13">
+      <c r="P151" s="13">
         <v>0.40675264373232362</v>
       </c>
-      <c r="P151" s="9">
+      <c r="Q151" s="9">
         <v>7076742.7199999997</v>
       </c>
-      <c r="Q151" s="9"/>
       <c r="R151" s="9"/>
       <c r="S151" s="9"/>
       <c r="T151" s="9"/>
@@ -22322,8 +22501,8 @@
       <c r="BU151" s="9"/>
       <c r="BV151" s="9"/>
       <c r="BW151" s="9"/>
-      <c r="BX151" s="14"/>
-      <c r="BY151" s="9"/>
+      <c r="BX151" s="9"/>
+      <c r="BY151" s="14"/>
       <c r="BZ151" s="9"/>
       <c r="CA151" s="9"/>
       <c r="CB151" s="9"/>
@@ -22335,8 +22514,9 @@
       <c r="CH151" s="9"/>
       <c r="CI151" s="9"/>
       <c r="CJ151" s="9"/>
+      <c r="CK151" s="9"/>
     </row>
-    <row r="152" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="4" t="s">
         <v>372</v>
@@ -22370,16 +22550,16 @@
       <c r="M152" s="12">
         <v>0</v>
       </c>
-      <c r="N152" s="9">
+      <c r="N152" s="12"/>
+      <c r="O152" s="9">
         <v>1496414.32</v>
       </c>
-      <c r="O152" s="13">
+      <c r="P152" s="13">
         <v>0.99841264983394007</v>
       </c>
-      <c r="P152" s="9">
+      <c r="Q152" s="9">
         <v>2379.1099999998696</v>
       </c>
-      <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
       <c r="S152" s="9"/>
       <c r="T152" s="9"/>
@@ -22438,8 +22618,8 @@
       <c r="BU152" s="9"/>
       <c r="BV152" s="9"/>
       <c r="BW152" s="9"/>
-      <c r="BX152" s="14"/>
-      <c r="BY152" s="9"/>
+      <c r="BX152" s="9"/>
+      <c r="BY152" s="14"/>
       <c r="BZ152" s="9"/>
       <c r="CA152" s="9"/>
       <c r="CB152" s="9"/>
@@ -22451,8 +22631,9 @@
       <c r="CH152" s="9"/>
       <c r="CI152" s="9"/>
       <c r="CJ152" s="9"/>
+      <c r="CK152" s="9"/>
     </row>
-    <row r="153" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="4" t="s">
         <v>374</v>
@@ -22488,16 +22669,16 @@
       <c r="M153" s="12">
         <v>0</v>
       </c>
-      <c r="N153" s="9">
+      <c r="N153" s="12"/>
+      <c r="O153" s="9">
         <v>0</v>
       </c>
-      <c r="O153" s="13">
+      <c r="P153" s="13">
         <v>0</v>
       </c>
-      <c r="P153" s="9">
+      <c r="Q153" s="9">
         <v>8995898.0500000007</v>
       </c>
-      <c r="Q153" s="9"/>
       <c r="R153" s="9"/>
       <c r="S153" s="9"/>
       <c r="T153" s="9"/>
@@ -22556,8 +22737,8 @@
       <c r="BU153" s="9"/>
       <c r="BV153" s="9"/>
       <c r="BW153" s="9"/>
-      <c r="BX153" s="14"/>
-      <c r="BY153" s="9"/>
+      <c r="BX153" s="9"/>
+      <c r="BY153" s="14"/>
       <c r="BZ153" s="9"/>
       <c r="CA153" s="9"/>
       <c r="CB153" s="9"/>
@@ -22569,8 +22750,9 @@
       <c r="CH153" s="9"/>
       <c r="CI153" s="9"/>
       <c r="CJ153" s="9"/>
+      <c r="CK153" s="9"/>
     </row>
-    <row r="154" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="4" t="s">
         <v>376</v>
@@ -22606,16 +22788,16 @@
       <c r="M154" s="12">
         <v>0</v>
       </c>
-      <c r="N154" s="9">
+      <c r="N154" s="12"/>
+      <c r="O154" s="9">
         <v>3552073.1</v>
       </c>
-      <c r="O154" s="13">
+      <c r="P154" s="13">
         <v>0.99999416682074016</v>
       </c>
-      <c r="P154" s="9">
+      <c r="Q154" s="9">
         <v>20.71999999973923</v>
       </c>
-      <c r="Q154" s="9"/>
       <c r="R154" s="9"/>
       <c r="S154" s="9"/>
       <c r="T154" s="9"/>
@@ -22674,8 +22856,8 @@
       <c r="BU154" s="9"/>
       <c r="BV154" s="9"/>
       <c r="BW154" s="9"/>
-      <c r="BX154" s="14"/>
-      <c r="BY154" s="9"/>
+      <c r="BX154" s="9"/>
+      <c r="BY154" s="14"/>
       <c r="BZ154" s="9"/>
       <c r="CA154" s="9"/>
       <c r="CB154" s="9"/>
@@ -22687,8 +22869,9 @@
       <c r="CH154" s="9"/>
       <c r="CI154" s="9"/>
       <c r="CJ154" s="9"/>
+      <c r="CK154" s="9"/>
     </row>
-    <row r="155" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="4" t="s">
         <v>378</v>
@@ -22724,16 +22907,16 @@
       <c r="M155" s="12">
         <v>0</v>
       </c>
-      <c r="N155" s="9">
+      <c r="N155" s="12"/>
+      <c r="O155" s="9">
         <v>0</v>
       </c>
-      <c r="O155" s="13">
+      <c r="P155" s="13">
         <v>0</v>
       </c>
-      <c r="P155" s="9">
+      <c r="Q155" s="9">
         <v>10134014.66</v>
       </c>
-      <c r="Q155" s="9"/>
       <c r="R155" s="9"/>
       <c r="S155" s="9"/>
       <c r="T155" s="9"/>
@@ -22792,8 +22975,8 @@
       <c r="BU155" s="9"/>
       <c r="BV155" s="9"/>
       <c r="BW155" s="9"/>
-      <c r="BX155" s="14"/>
-      <c r="BY155" s="9"/>
+      <c r="BX155" s="9"/>
+      <c r="BY155" s="14"/>
       <c r="BZ155" s="9"/>
       <c r="CA155" s="9"/>
       <c r="CB155" s="9"/>
@@ -22805,8 +22988,9 @@
       <c r="CH155" s="9"/>
       <c r="CI155" s="9"/>
       <c r="CJ155" s="9"/>
+      <c r="CK155" s="9"/>
     </row>
-    <row r="156" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="4" t="s">
         <v>379</v>
@@ -22842,16 +23026,16 @@
       <c r="M156" s="12">
         <v>0</v>
       </c>
-      <c r="N156" s="9">
+      <c r="N156" s="12"/>
+      <c r="O156" s="9">
         <v>12576165.07</v>
       </c>
-      <c r="O156" s="13">
+      <c r="P156" s="13">
         <v>0.55255634559731182</v>
       </c>
-      <c r="P156" s="9">
+      <c r="Q156" s="9">
         <v>10183803.52</v>
       </c>
-      <c r="Q156" s="9"/>
       <c r="R156" s="9"/>
       <c r="S156" s="9"/>
       <c r="T156" s="9"/>
@@ -22910,8 +23094,8 @@
       <c r="BU156" s="9"/>
       <c r="BV156" s="9"/>
       <c r="BW156" s="9"/>
-      <c r="BX156" s="14"/>
-      <c r="BY156" s="9"/>
+      <c r="BX156" s="9"/>
+      <c r="BY156" s="14"/>
       <c r="BZ156" s="9"/>
       <c r="CA156" s="9"/>
       <c r="CB156" s="9"/>
@@ -22923,8 +23107,9 @@
       <c r="CH156" s="9"/>
       <c r="CI156" s="9"/>
       <c r="CJ156" s="9"/>
+      <c r="CK156" s="9"/>
     </row>
-    <row r="157" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="4" t="s">
         <v>380</v>
@@ -22960,16 +23145,16 @@
       <c r="M157" s="12">
         <v>26360257.240000002</v>
       </c>
-      <c r="N157" s="9">
+      <c r="N157" s="12"/>
+      <c r="O157" s="9">
         <v>26360257.240000002</v>
       </c>
-      <c r="O157" s="13">
+      <c r="P157" s="13">
         <v>0.25119419090171319</v>
       </c>
-      <c r="P157" s="9">
+      <c r="Q157" s="9">
         <v>78579499.310000002</v>
       </c>
-      <c r="Q157" s="9"/>
       <c r="R157" s="9"/>
       <c r="S157" s="9"/>
       <c r="T157" s="9"/>
@@ -23028,8 +23213,8 @@
       <c r="BU157" s="9"/>
       <c r="BV157" s="9"/>
       <c r="BW157" s="9"/>
-      <c r="BX157" s="14"/>
-      <c r="BY157" s="9"/>
+      <c r="BX157" s="9"/>
+      <c r="BY157" s="14"/>
       <c r="BZ157" s="9"/>
       <c r="CA157" s="9"/>
       <c r="CB157" s="9"/>
@@ -23041,8 +23226,9 @@
       <c r="CH157" s="9"/>
       <c r="CI157" s="9"/>
       <c r="CJ157" s="9"/>
+      <c r="CK157" s="9"/>
     </row>
-    <row r="158" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="4" t="s">
         <v>382</v>
@@ -23078,16 +23264,16 @@
       <c r="M158" s="12">
         <v>0</v>
       </c>
-      <c r="N158" s="9">
+      <c r="N158" s="12"/>
+      <c r="O158" s="9">
         <v>5260332.26</v>
       </c>
-      <c r="O158" s="13">
+      <c r="P158" s="13">
         <v>0.99016424125098834</v>
       </c>
-      <c r="P158" s="9">
+      <c r="Q158" s="9">
         <v>52253.310000000522</v>
       </c>
-      <c r="Q158" s="9"/>
       <c r="R158" s="9"/>
       <c r="S158" s="9"/>
       <c r="T158" s="9"/>
@@ -23146,8 +23332,8 @@
       <c r="BU158" s="9"/>
       <c r="BV158" s="9"/>
       <c r="BW158" s="9"/>
-      <c r="BX158" s="14"/>
-      <c r="BY158" s="9"/>
+      <c r="BX158" s="9"/>
+      <c r="BY158" s="14"/>
       <c r="BZ158" s="9"/>
       <c r="CA158" s="9"/>
       <c r="CB158" s="9"/>
@@ -23159,8 +23345,9 @@
       <c r="CH158" s="9"/>
       <c r="CI158" s="9"/>
       <c r="CJ158" s="9"/>
+      <c r="CK158" s="9"/>
     </row>
-    <row r="159" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="4" t="s">
         <v>384</v>
@@ -23196,16 +23383,16 @@
       <c r="M159" s="12">
         <v>0</v>
       </c>
-      <c r="N159" s="9">
+      <c r="N159" s="12"/>
+      <c r="O159" s="9">
         <v>2867505.09</v>
       </c>
-      <c r="O159" s="13">
+      <c r="P159" s="13">
         <v>0.95758732223291165</v>
       </c>
-      <c r="P159" s="9">
+      <c r="Q159" s="9">
         <v>127005.20000000019</v>
       </c>
-      <c r="Q159" s="9"/>
       <c r="R159" s="9"/>
       <c r="S159" s="9"/>
       <c r="T159" s="9"/>
@@ -23264,8 +23451,8 @@
       <c r="BU159" s="9"/>
       <c r="BV159" s="9"/>
       <c r="BW159" s="9"/>
-      <c r="BX159" s="14"/>
-      <c r="BY159" s="9"/>
+      <c r="BX159" s="9"/>
+      <c r="BY159" s="14"/>
       <c r="BZ159" s="9"/>
       <c r="CA159" s="9"/>
       <c r="CB159" s="9"/>
@@ -23277,8 +23464,9 @@
       <c r="CH159" s="9"/>
       <c r="CI159" s="9"/>
       <c r="CJ159" s="9"/>
+      <c r="CK159" s="9"/>
     </row>
-    <row r="160" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="4" t="s">
         <v>386</v>
@@ -23314,16 +23502,16 @@
       <c r="M160" s="12">
         <v>0</v>
       </c>
-      <c r="N160" s="9">
+      <c r="N160" s="12"/>
+      <c r="O160" s="9">
         <v>8156656.1299999999</v>
       </c>
-      <c r="O160" s="13">
+      <c r="P160" s="13">
         <v>0.99999999264404438</v>
       </c>
-      <c r="P160" s="9">
+      <c r="Q160" s="9">
         <v>6.0000000521540642E-2</v>
       </c>
-      <c r="Q160" s="9"/>
       <c r="R160" s="9"/>
       <c r="S160" s="9"/>
       <c r="T160" s="9"/>
@@ -23382,8 +23570,8 @@
       <c r="BU160" s="9"/>
       <c r="BV160" s="9"/>
       <c r="BW160" s="9"/>
-      <c r="BX160" s="14"/>
-      <c r="BY160" s="9"/>
+      <c r="BX160" s="9"/>
+      <c r="BY160" s="14"/>
       <c r="BZ160" s="9"/>
       <c r="CA160" s="9"/>
       <c r="CB160" s="9"/>
@@ -23395,8 +23583,9 @@
       <c r="CH160" s="9"/>
       <c r="CI160" s="9"/>
       <c r="CJ160" s="9"/>
+      <c r="CK160" s="9"/>
     </row>
-    <row r="161" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="4" t="s">
         <v>387</v>
@@ -23432,16 +23621,16 @@
       <c r="M161" s="12">
         <v>0</v>
       </c>
-      <c r="N161" s="9">
+      <c r="N161" s="12"/>
+      <c r="O161" s="9">
         <v>137475.09</v>
       </c>
-      <c r="O161" s="13">
+      <c r="P161" s="13">
         <v>0.63431905497909269</v>
       </c>
-      <c r="P161" s="9">
+      <c r="Q161" s="9">
         <v>21535386.370000001</v>
       </c>
-      <c r="Q161" s="9"/>
       <c r="R161" s="9"/>
       <c r="S161" s="9"/>
       <c r="T161" s="9"/>
@@ -23500,8 +23689,8 @@
       <c r="BU161" s="9"/>
       <c r="BV161" s="9"/>
       <c r="BW161" s="9"/>
-      <c r="BX161" s="14"/>
-      <c r="BY161" s="9"/>
+      <c r="BX161" s="9"/>
+      <c r="BY161" s="14"/>
       <c r="BZ161" s="9"/>
       <c r="CA161" s="9"/>
       <c r="CB161" s="9"/>
@@ -23513,8 +23702,9 @@
       <c r="CH161" s="9"/>
       <c r="CI161" s="9"/>
       <c r="CJ161" s="9"/>
+      <c r="CK161" s="9"/>
     </row>
-    <row r="162" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="4" t="s">
         <v>388</v>
@@ -23550,16 +23740,16 @@
       <c r="M162" s="12">
         <v>0</v>
       </c>
-      <c r="N162" s="9">
+      <c r="N162" s="12"/>
+      <c r="O162" s="9">
         <v>46178509.210000001</v>
       </c>
-      <c r="O162" s="13">
+      <c r="P162" s="13">
         <v>1</v>
       </c>
-      <c r="P162" s="9">
+      <c r="Q162" s="9">
         <v>-13341734.449999999</v>
       </c>
-      <c r="Q162" s="9"/>
       <c r="R162" s="9"/>
       <c r="S162" s="9"/>
       <c r="T162" s="9"/>
@@ -23618,8 +23808,8 @@
       <c r="BU162" s="9"/>
       <c r="BV162" s="9"/>
       <c r="BW162" s="9"/>
-      <c r="BX162" s="14"/>
-      <c r="BY162" s="9"/>
+      <c r="BX162" s="9"/>
+      <c r="BY162" s="14"/>
       <c r="BZ162" s="9"/>
       <c r="CA162" s="9"/>
       <c r="CB162" s="9"/>
@@ -23631,8 +23821,9 @@
       <c r="CH162" s="9"/>
       <c r="CI162" s="9"/>
       <c r="CJ162" s="9"/>
+      <c r="CK162" s="9"/>
     </row>
-    <row r="163" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="4" t="s">
         <v>389</v>
@@ -23668,16 +23859,16 @@
       <c r="M163" s="12">
         <v>0</v>
       </c>
-      <c r="N163" s="9">
+      <c r="N163" s="12"/>
+      <c r="O163" s="9">
         <v>0</v>
       </c>
-      <c r="O163" s="13">
+      <c r="P163" s="13">
         <v>0</v>
       </c>
-      <c r="P163" s="9">
+      <c r="Q163" s="9">
         <v>14144248.92</v>
       </c>
-      <c r="Q163" s="9"/>
       <c r="R163" s="9"/>
       <c r="S163" s="9"/>
       <c r="T163" s="9"/>
@@ -23736,8 +23927,8 @@
       <c r="BU163" s="9"/>
       <c r="BV163" s="9"/>
       <c r="BW163" s="9"/>
-      <c r="BX163" s="14"/>
-      <c r="BY163" s="9"/>
+      <c r="BX163" s="9"/>
+      <c r="BY163" s="14"/>
       <c r="BZ163" s="9"/>
       <c r="CA163" s="9"/>
       <c r="CB163" s="9"/>
@@ -23749,8 +23940,9 @@
       <c r="CH163" s="9"/>
       <c r="CI163" s="9"/>
       <c r="CJ163" s="9"/>
+      <c r="CK163" s="9"/>
     </row>
-    <row r="164" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="4" t="s">
         <v>391</v>
@@ -23786,16 +23978,16 @@
       <c r="M164" s="12">
         <v>0</v>
       </c>
-      <c r="N164" s="9">
+      <c r="N164" s="12"/>
+      <c r="O164" s="9">
         <v>264324.59999999998</v>
       </c>
-      <c r="O164" s="13">
+      <c r="P164" s="13">
         <v>0.11037384375837941</v>
       </c>
-      <c r="P164" s="9">
+      <c r="Q164" s="9">
         <v>2130487.35</v>
       </c>
-      <c r="Q164" s="9"/>
       <c r="R164" s="9"/>
       <c r="S164" s="9"/>
       <c r="T164" s="9"/>
@@ -23854,8 +24046,8 @@
       <c r="BU164" s="9"/>
       <c r="BV164" s="9"/>
       <c r="BW164" s="9"/>
-      <c r="BX164" s="14"/>
-      <c r="BY164" s="9"/>
+      <c r="BX164" s="9"/>
+      <c r="BY164" s="14"/>
       <c r="BZ164" s="9"/>
       <c r="CA164" s="9"/>
       <c r="CB164" s="9"/>
@@ -23867,8 +24059,9 @@
       <c r="CH164" s="9"/>
       <c r="CI164" s="9"/>
       <c r="CJ164" s="9"/>
+      <c r="CK164" s="9"/>
     </row>
-    <row r="165" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="4" t="s">
         <v>393</v>
@@ -23904,16 +24097,16 @@
       <c r="M165" s="12">
         <v>0</v>
       </c>
-      <c r="N165" s="9">
+      <c r="N165" s="12"/>
+      <c r="O165" s="9">
         <v>2975297.3200000003</v>
       </c>
-      <c r="O165" s="13">
+      <c r="P165" s="13">
         <v>0.99994050696468118</v>
       </c>
-      <c r="P165" s="9">
+      <c r="Q165" s="9">
         <v>177.01999999955297</v>
       </c>
-      <c r="Q165" s="9"/>
       <c r="R165" s="9"/>
       <c r="S165" s="9"/>
       <c r="T165" s="9"/>
@@ -23972,8 +24165,8 @@
       <c r="BU165" s="9"/>
       <c r="BV165" s="9"/>
       <c r="BW165" s="9"/>
-      <c r="BX165" s="14"/>
-      <c r="BY165" s="9"/>
+      <c r="BX165" s="9"/>
+      <c r="BY165" s="14"/>
       <c r="BZ165" s="9"/>
       <c r="CA165" s="9"/>
       <c r="CB165" s="9"/>
@@ -23985,8 +24178,9 @@
       <c r="CH165" s="9"/>
       <c r="CI165" s="9"/>
       <c r="CJ165" s="9"/>
+      <c r="CK165" s="9"/>
     </row>
-    <row r="166" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="4" t="s">
         <v>396</v>
@@ -24022,16 +24216,16 @@
       <c r="M166" s="12">
         <v>0</v>
       </c>
-      <c r="N166" s="9">
+      <c r="N166" s="12"/>
+      <c r="O166" s="9">
         <v>724764.22</v>
       </c>
-      <c r="O166" s="13">
+      <c r="P166" s="13">
         <v>1</v>
       </c>
-      <c r="P166" s="9">
+      <c r="Q166" s="9">
         <v>0</v>
       </c>
-      <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
       <c r="S166" s="9"/>
       <c r="T166" s="9"/>
@@ -24090,8 +24284,8 @@
       <c r="BU166" s="9"/>
       <c r="BV166" s="9"/>
       <c r="BW166" s="9"/>
-      <c r="BX166" s="14"/>
-      <c r="BY166" s="9"/>
+      <c r="BX166" s="9"/>
+      <c r="BY166" s="14"/>
       <c r="BZ166" s="9"/>
       <c r="CA166" s="9"/>
       <c r="CB166" s="9"/>
@@ -24103,8 +24297,9 @@
       <c r="CH166" s="9"/>
       <c r="CI166" s="9"/>
       <c r="CJ166" s="9"/>
+      <c r="CK166" s="9"/>
     </row>
-    <row r="167" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
       <c r="B167" s="4" t="s">
         <v>398</v>
@@ -24140,16 +24335,16 @@
       <c r="M167" s="12">
         <v>0</v>
       </c>
-      <c r="N167" s="9">
+      <c r="N167" s="12"/>
+      <c r="O167" s="9">
         <v>1932548.6300000004</v>
       </c>
-      <c r="O167" s="13">
+      <c r="P167" s="13">
         <v>0.97183561026549814</v>
       </c>
-      <c r="P167" s="9">
+      <c r="Q167" s="9">
         <v>56006.439999999711</v>
       </c>
-      <c r="Q167" s="9"/>
       <c r="R167" s="9"/>
       <c r="S167" s="9"/>
       <c r="T167" s="9"/>
@@ -24208,8 +24403,8 @@
       <c r="BU167" s="9"/>
       <c r="BV167" s="9"/>
       <c r="BW167" s="9"/>
-      <c r="BX167" s="14"/>
-      <c r="BY167" s="9"/>
+      <c r="BX167" s="9"/>
+      <c r="BY167" s="14"/>
       <c r="BZ167" s="9"/>
       <c r="CA167" s="9"/>
       <c r="CB167" s="9"/>
@@ -24221,8 +24416,9 @@
       <c r="CH167" s="9"/>
       <c r="CI167" s="9"/>
       <c r="CJ167" s="9"/>
+      <c r="CK167" s="9"/>
     </row>
-    <row r="168" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A168" s="21"/>
       <c r="B168" s="22" t="s">
         <v>399</v>
@@ -24258,16 +24454,16 @@
       <c r="M168" s="29">
         <v>0</v>
       </c>
-      <c r="N168" s="27">
+      <c r="N168" s="29"/>
+      <c r="O168" s="27">
         <v>1678310.1899999997</v>
       </c>
-      <c r="O168" s="30">
+      <c r="P168" s="30">
         <v>0.99294525054534277</v>
       </c>
-      <c r="P168" s="27">
+      <c r="Q168" s="27">
         <v>11924.1800000004</v>
       </c>
-      <c r="Q168" s="27"/>
       <c r="R168" s="27"/>
       <c r="S168" s="27"/>
       <c r="T168" s="27"/>
@@ -24326,8 +24522,8 @@
       <c r="BU168" s="27"/>
       <c r="BV168" s="27"/>
       <c r="BW168" s="27"/>
-      <c r="BX168" s="31"/>
-      <c r="BY168" s="27"/>
+      <c r="BX168" s="27"/>
+      <c r="BY168" s="31"/>
       <c r="BZ168" s="27"/>
       <c r="CA168" s="27"/>
       <c r="CB168" s="27"/>
@@ -24339,6 +24535,7 @@
       <c r="CH168" s="27"/>
       <c r="CI168" s="27"/>
       <c r="CJ168" s="27"/>
+      <c r="CK168" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
